--- a/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
+++ b/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="460" windowWidth="27360" windowHeight="16080"/>
+    <workbookView xWindow="-220" yWindow="460" windowWidth="15360" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Kopie von convertcsv-1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="275">
   <si>
     <t>questionType</t>
   </si>
@@ -147,6 +147,711 @@
   </si>
   <si>
     <t>it</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
+    <t>Donald Norman</t>
+  </si>
+  <si>
+    <t>Charles Babbage</t>
+  </si>
+  <si>
+    <t>Steve Wozniak</t>
+  </si>
+  <si>
+    <t>Welche der folgenden Methoden werden zur Verbesserung der User Experience genutzt?</t>
+  </si>
+  <si>
+    <t>Usability Testing</t>
+  </si>
+  <si>
+    <t>Wer gilt als Vater des Begriffs User Experience (UX)?</t>
+  </si>
+  <si>
+    <t>Storyboarding</t>
+  </si>
+  <si>
+    <t>Tagebuchstudien</t>
+  </si>
+  <si>
+    <t>Entscheide welche Methoden der Nutzerbedarfsanalyse qualitativ und welche quantitativ sind.</t>
+  </si>
+  <si>
+    <t>subjektive Befunde: »befragen«</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualitative Methoden </t>
+  </si>
+  <si>
+    <t>Quantitative Methoden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erwartungen</t>
+  </si>
+  <si>
+    <t>Verhaltensweisen</t>
+  </si>
+  <si>
+    <t>Einstellungen</t>
+  </si>
+  <si>
+    <t>Ermittlung numerischer Werte</t>
+  </si>
+  <si>
+    <t>objektive Befunde: »zählen«</t>
+  </si>
+  <si>
+    <t>Die Beobachtung der ersten Interaktion von Usern mit neuer Software.,</t>
+  </si>
+  <si>
+    <t>Welche Aussage ist ein Teil von Usability Testing?</t>
+  </si>
+  <si>
+    <t>Die Überprüfung von Systemkompatibilitäten.</t>
+  </si>
+  <si>
+    <t>Die Durchführung von Performance Tests.</t>
+  </si>
+  <si>
+    <t>Das Auswerten von Tagebuchstudien.</t>
+  </si>
+  <si>
+    <t>Wozu wurde Usability Testing entwickelt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um die Laufzeit von Software zu optimieren. </t>
+  </si>
+  <si>
+    <t>Um eine intuitive Steuerung von Software zu ermöglichen.</t>
+  </si>
+  <si>
+    <t>Um zu testen, ob Software funktioniert.</t>
+  </si>
+  <si>
+    <t>Was versteht man unter dem Begriff Storyboarding?</t>
+  </si>
+  <si>
+    <t>Das Erzählen einer Geschichte über das Nutzerverhalten.,</t>
+  </si>
+  <si>
+    <t>Die sequentielle Aneinanderreihung von Bildern um Abläufe und Abhängigkeiten im Voraus abzubilden.,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Sammlung von Geschichten über Anwendungsmöglichkeiten, welche auf einem Board dargestellt werden. </t>
+  </si>
+  <si>
+    <t>Welche Vorteile bietet Sketching?</t>
+  </si>
+  <si>
+    <t>Es bietet die Möglichkeit, schnell Konzepte zu erstellen.</t>
+  </si>
+  <si>
+    <t>Entwickelte Konzepte sind sofort in digitaler Form verfügbar.</t>
+  </si>
+  <si>
+    <t>Visualisierte Problemstellungen sind besser zu verstehen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergänzungen zu Protokollen von Meetings. </t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>Ordne die folgenden Schritte des Design Thinking Process aufsteigend nach ihrer Reihenfolge.</t>
+  </si>
+  <si>
+    <t>Ideate</t>
+  </si>
+  <si>
+    <t>Empathize (Verstehen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prototype (Bauen) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test (Testen) </t>
+  </si>
+  <si>
+    <t>Define (Definieren)</t>
+  </si>
+  <si>
+    <t>Entscheide welche Methoden zu welchem Design Thinking Schritt gehören.</t>
+  </si>
+  <si>
+    <t>Idea Sharing</t>
+  </si>
+  <si>
+    <t>Mockups</t>
+  </si>
+  <si>
+    <t>Storyboards</t>
+  </si>
+  <si>
+    <t>Shadowing</t>
+  </si>
+  <si>
+    <t>Interviews</t>
+  </si>
+  <si>
+    <t>»Yes and«-Thinking</t>
+  </si>
+  <si>
+    <t>Empathize</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>title/2</t>
+  </si>
+  <si>
+    <t>In welche Kategorien kann man die Methoden der UX-Evaluation einteilen?</t>
+  </si>
+  <si>
+    <t>Subjektive Methoden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implizite Methoden </t>
+  </si>
+  <si>
+    <t>Reale Methoden</t>
+  </si>
+  <si>
+    <t>Visuelle Methoden</t>
+  </si>
+  <si>
+    <t>Substantielle Methoden</t>
+  </si>
+  <si>
+    <t>Virtuelle Methoden</t>
+  </si>
+  <si>
+    <t>Explizite Methoden</t>
+  </si>
+  <si>
+    <t>Objektive Methoden</t>
+  </si>
+  <si>
+    <t>Ordne die folgenden Methoden ihrer jeweiligen Kategorie zu.</t>
+  </si>
+  <si>
+    <t>Mitarbeiterbefragungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tagebuchstudien </t>
+  </si>
+  <si>
+    <t>Eye-Tracking</t>
+  </si>
+  <si>
+    <t>Elektroenzephalografie</t>
+  </si>
+  <si>
+    <t>Implizite Methoden</t>
+  </si>
+  <si>
+    <t>Wie verläuft die Blickrichtung von Usern auf Websites typischerweise?</t>
+  </si>
+  <si>
+    <t>Wo sollte das Suchfeld in einem Online Shop platziert sein?</t>
+  </si>
+  <si>
+    <t>Wo sollte sich das Logo befinden?</t>
+  </si>
+  <si>
+    <t>Ordne den deutschen Fachbegriffen ihre englischen Übersetzungen zu.</t>
+  </si>
+  <si>
+    <t>Von oben nach unten</t>
+  </si>
+  <si>
+    <t>Es gibt keine typische Richtung</t>
+  </si>
+  <si>
+    <t>In F-Form</t>
+  </si>
+  <si>
+    <t>oben mittig</t>
+  </si>
+  <si>
+    <t>oben rechts</t>
+  </si>
+  <si>
+    <t>unten links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oben links </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oben rechts </t>
+  </si>
+  <si>
+    <t>an mehreren Stellen</t>
+  </si>
+  <si>
+    <t>title/3</t>
+  </si>
+  <si>
+    <t>title/4</t>
+  </si>
+  <si>
+    <t>title/5</t>
+  </si>
+  <si>
+    <t>title/6</t>
+  </si>
+  <si>
+    <t>title/7</t>
+  </si>
+  <si>
+    <t>title/8</t>
+  </si>
+  <si>
+    <t>title/9</t>
+  </si>
+  <si>
+    <t>correct/9</t>
+  </si>
+  <si>
+    <t>answers/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usability Test </t>
+  </si>
+  <si>
+    <t>Consumer Insight</t>
+  </si>
+  <si>
+    <t>Attention Tracking</t>
+  </si>
+  <si>
+    <t>User Journey</t>
+  </si>
+  <si>
+    <t>Wireframe</t>
+  </si>
+  <si>
+    <t>User-Centered Design</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Diary Study</t>
+  </si>
+  <si>
+    <t>Thinking Aloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On-site Questionnaire </t>
+  </si>
+  <si>
+    <t>Benutzerfreundlichkeitstest</t>
+  </si>
+  <si>
+    <t>Aufmerksamkeitsmessung</t>
+  </si>
+  <si>
+    <t>Lautes Denken</t>
+  </si>
+  <si>
+    <t>Nutzerwissen</t>
+  </si>
+  <si>
+    <t>Mitarbeiterbefragung</t>
+  </si>
+  <si>
+    <t>Drahtmodell</t>
+  </si>
+  <si>
+    <t>Nutzerorientierte Gestaltung</t>
+  </si>
+  <si>
+    <t>Endverbraucherreise</t>
+  </si>
+  <si>
+    <t>Tagebuchstudie</t>
+  </si>
+  <si>
+    <t>Barrierefreiheit</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Welche Aussagen treffen auf Normen zu, welche auf Standards? Ordne zu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbindlich </t>
+  </si>
+  <si>
+    <t>Richtlinien</t>
+  </si>
+  <si>
+    <t>In der Regel von Anwendergruppen oder Herstellern erarbeitet.</t>
+  </si>
+  <si>
+    <t>Werden empfohlen, sollten eingehalten werden.</t>
+  </si>
+  <si>
+    <t>Normen</t>
+  </si>
+  <si>
+    <t>Standards</t>
+  </si>
+  <si>
+    <t>Was bedeutet die Abkürzung GL im Bezug auf Programmiersprachen?</t>
+  </si>
+  <si>
+    <t>Generation language</t>
+  </si>
+  <si>
+    <t>General language</t>
+  </si>
+  <si>
+    <t>Good language</t>
+  </si>
+  <si>
+    <t>Ordne die Programmiersprachen jeweils der passenden Generation zu.</t>
+  </si>
+  <si>
+    <t>Maschinensprachen</t>
+  </si>
+  <si>
+    <t>Höhere Programmiersprachen</t>
+  </si>
+  <si>
+    <t>Nichtprozedurale Programmiersprachen</t>
+  </si>
+  <si>
+    <t>KI-Sprachen</t>
+  </si>
+  <si>
+    <t>Assemblersprachen</t>
+  </si>
+  <si>
+    <t>First GL</t>
+  </si>
+  <si>
+    <t>Second GL</t>
+  </si>
+  <si>
+    <t>Third GL</t>
+  </si>
+  <si>
+    <t>Fourth GL</t>
+  </si>
+  <si>
+    <t>Fifth GL</t>
+  </si>
+  <si>
+    <t>Markiere die wahren Aussagen.</t>
+  </si>
+  <si>
+    <t>Bei der First GL erfolgt die 1:1 Übersetzung durch den Assembler.</t>
+  </si>
+  <si>
+    <t>HTML ist eine Programmiersprache.</t>
+  </si>
+  <si>
+    <t>Bei der Third GL erfolgt die 1:1 Übersetzung durch den Compiler.</t>
+  </si>
+  <si>
+    <t>Bei der Third GL erfolgt die 1:N Übersetzung durch den Compiler/Interpreter.</t>
+  </si>
+  <si>
+    <t>Die Programmiersprachen LISP und Prolog gehören zu den KI-Sprachen.</t>
+  </si>
+  <si>
+    <t>Welche Arten der Programmierung gibt es nach dem Programmierparadigma?</t>
+  </si>
+  <si>
+    <t>strukturierte Programmierung</t>
+  </si>
+  <si>
+    <t>objektorientiere Programmierung</t>
+  </si>
+  <si>
+    <t>funktionale Programmierung</t>
+  </si>
+  <si>
+    <t>logische Programmierung</t>
+  </si>
+  <si>
+    <t>klassenbasierte Programmierung</t>
+  </si>
+  <si>
+    <t>unstrukturierte Programmierung</t>
+  </si>
+  <si>
+    <t>Ordne die Aussagen den Arten der Programmierung zu.</t>
+  </si>
+  <si>
+    <t>Konzepte für Unterroutinen</t>
+  </si>
+  <si>
+    <t>Nur Funktionen als Anweisungen</t>
+  </si>
+  <si>
+    <t>Beschreibung von Aussagen</t>
+  </si>
+  <si>
+    <t>Vererbung und Polymorphie</t>
+  </si>
+  <si>
+    <t>Strukturierte Programmierung</t>
+  </si>
+  <si>
+    <t>Objektorientierte Programmierung</t>
+  </si>
+  <si>
+    <t>Funktionale Programmierung</t>
+  </si>
+  <si>
+    <t>Logische Programmierung</t>
+  </si>
+  <si>
+    <t>Die Programmiersprachen Prolog und CLP gehören zur logischen Programmierung.</t>
+  </si>
+  <si>
+    <t>Die Programmiersprache LISP gehört zur strukturierten Programmierung.</t>
+  </si>
+  <si>
+    <t>Die objektorientierte Programmierung beschäftigt sich mit Objekten und Klassen, sowie mit der Datenkapselung.</t>
+  </si>
+  <si>
+    <t>Unter einem Programmierparadigma versteht man die Sichtweise und den Umgang mit den zu verarbeitenden Daten und Operationen.</t>
+  </si>
+  <si>
+    <t>Ordne die Vorteile dem Interpreter oder dem Compiler zu.</t>
+  </si>
+  <si>
+    <t>Benötigt weniger Speicherplatz</t>
+  </si>
+  <si>
+    <t>Einzelne Anweisungen sofort testen</t>
+  </si>
+  <si>
+    <t>Globale Fehlersuche</t>
+  </si>
+  <si>
+    <t>Teilergebnisse sind sichtbar</t>
+  </si>
+  <si>
+    <t>Unterstützung durch Entwicklungsumgebung</t>
+  </si>
+  <si>
+    <t>Einfache Fehlersuche</t>
+  </si>
+  <si>
+    <t>Compiler</t>
+  </si>
+  <si>
+    <t>Interpreter</t>
+  </si>
+  <si>
+    <t>Ordne die Nachteile dem Interpreter bzw. dem Compiler zu.</t>
+  </si>
+  <si>
+    <t>Mehrstufig</t>
+  </si>
+  <si>
+    <t>Lokale Fehlersuche</t>
+  </si>
+  <si>
+    <t>Langsamer</t>
+  </si>
+  <si>
+    <t>Kein ausführbares Zielprogramm in Maschinensprache</t>
+  </si>
+  <si>
+    <t>Bei jedem Übersetzungsvorgang muss das gesamte Programm übersetzt werden.</t>
+  </si>
+  <si>
+    <t>Fehlersuche aufwändiger</t>
+  </si>
+  <si>
+    <t>Ordne die Begriffe den verschiedenen Datenformen zu.</t>
+  </si>
+  <si>
+    <t>Personalnummer</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Einzahlungen</t>
+  </si>
+  <si>
+    <t>Lagerbestände</t>
+  </si>
+  <si>
+    <t>Abbuchungen</t>
+  </si>
+  <si>
+    <t>Kontobestände</t>
+  </si>
+  <si>
+    <t>Stammdaten</t>
+  </si>
+  <si>
+    <t>Bestandsdaten</t>
+  </si>
+  <si>
+    <t>Bewegungsdaten</t>
+  </si>
+  <si>
+    <t>Sind die folgenden Aussagen wahr? Wenn ja, markiere sie.</t>
+  </si>
+  <si>
+    <t>OLTP ist eine Abkürzung für Online Transaction Processing.</t>
+  </si>
+  <si>
+    <t>Auskunfts- und Reservierungssysteme sowie Kontoabfragen sind Beispiele für OLTP.</t>
+  </si>
+  <si>
+    <t>Bei OLTP werden die Daten nicht direkt nach der Eingabe aktualisiert und stehen auch nicht allen betroffenen Abteilungen zur gleichen Zeit zur Verfügung.</t>
+  </si>
+  <si>
+    <t>OLTP verfolgt den Ansatz der Echtzeitbuchung, d. h. es können mehrere Nutzer gleichzeitig im Dialogbetrieb auf dem gleichen Datenbestand arbeiten.</t>
+  </si>
+  <si>
+    <t>Ein ERP-System besteht aus 3 Systemlandschaften: Entwicklungssystem, Testsystem, Produktivsystem.</t>
+  </si>
+  <si>
+    <t>Aus welchen funktionsbezogenen Modulen besteht ein ERP System?</t>
+  </si>
+  <si>
+    <t>Externes Rechnungswesen</t>
+  </si>
+  <si>
+    <t>IT- Dienstleistungen</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Vertrieb</t>
+  </si>
+  <si>
+    <t>Beschaffung</t>
+  </si>
+  <si>
+    <t>Controlling</t>
+  </si>
+  <si>
+    <t>Ordne die Vorteile der Individualsoftware oder der Standardsoftware zu.</t>
+  </si>
+  <si>
+    <t>Maßgeschneiderte Lösung</t>
+  </si>
+  <si>
+    <t>Keine Anpassung der Organisation erforderlich</t>
+  </si>
+  <si>
+    <t>Geringer Anschaffungspreis</t>
+  </si>
+  <si>
+    <t>Hohe Funktionalität</t>
+  </si>
+  <si>
+    <t>Wettbewerbsvorteile</t>
+  </si>
+  <si>
+    <t>Unabhängigkeit von Softwarelieferanten</t>
+  </si>
+  <si>
+    <t>Know-how Transfer durch den Hersteller</t>
+  </si>
+  <si>
+    <t>Branchenneutralität und Individualität durch Customizing</t>
+  </si>
+  <si>
+    <t>Individualsoftware</t>
+  </si>
+  <si>
+    <t>Standardsoftware</t>
+  </si>
+  <si>
+    <t>Sind die folgenden Aussagen wahr?</t>
+  </si>
+  <si>
+    <t>Um eine Software einzuführen gibt es zwei Strategien: die Big Bang Strategie und die Rollout Strategie.</t>
+  </si>
+  <si>
+    <t>Die Big Bang Strategie beschreibt die vollständige Ablösung des Altsystems zum Stichtag.</t>
+  </si>
+  <si>
+    <t>Unter einem Big Bang versteht man die schrittweise, prozessorientiere Einführung einer Software.</t>
+  </si>
+  <si>
+    <t>Die Rollout Strategie beschreibt die sukzessive Ablösung durch die Umstellung einzelner vollständiger Prozessketten.</t>
+  </si>
+  <si>
+    <t>Ordne den Begriffen jeweils ihre passende Übersetzung zu.</t>
+  </si>
+  <si>
+    <t>Business Process</t>
+  </si>
+  <si>
+    <t>Binding</t>
+  </si>
+  <si>
+    <t>Business Informatics</t>
+  </si>
+  <si>
+    <t>Norms</t>
+  </si>
+  <si>
+    <t>Source Code</t>
+  </si>
+  <si>
+    <t>Operarional Information Systems</t>
+  </si>
+  <si>
+    <t>Object-oriented Programming</t>
+  </si>
+  <si>
+    <t>Requirement Analysis</t>
+  </si>
+  <si>
+    <t>Master Data</t>
+  </si>
+  <si>
+    <t>Programming Language</t>
+  </si>
+  <si>
+    <t>Programmiersprache</t>
+  </si>
+  <si>
+    <t>Verbindlich</t>
+  </si>
+  <si>
+    <t>Geschäftsprozess</t>
+  </si>
+  <si>
+    <t>Wirtschaftsinformatik</t>
+  </si>
+  <si>
+    <t>Quellcode</t>
+  </si>
+  <si>
+    <t>Anforderungsanalyse</t>
+  </si>
+  <si>
+    <t>Betriebliche Informationssysteme</t>
   </si>
 </sst>
 </file>
@@ -182,8 +887,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +1230,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet 1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:W3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +1242,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -574,40 +1280,70 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>131</v>
+      </c>
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -644,17 +1380,17 @@
       <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -691,14 +1427,11 @@
       <c r="L3" t="s">
         <v>21</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
       <c r="N3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -707,25 +1440,1424 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
         <v>24</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="X7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="X13" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" t="s">
+        <v>106</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="X15" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L19" t="s">
+        <v>141</v>
+      </c>
+      <c r="M19" t="s">
+        <v>142</v>
+      </c>
+      <c r="N19">
+        <v>10</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>6</v>
+      </c>
+      <c r="T19">
+        <v>9</v>
+      </c>
+      <c r="U19">
+        <v>8</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>4</v>
+      </c>
+      <c r="X19" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>155</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="X20" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" t="s">
+        <v>170</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="X22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" t="s">
+        <v>178</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H24" t="s">
+        <v>187</v>
+      </c>
+      <c r="I24" t="s">
+        <v>188</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" t="s">
+        <v>193</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="X25" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>201</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" t="s">
+        <v>204</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" t="s">
+        <v>207</v>
+      </c>
+      <c r="I27" t="s">
+        <v>208</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="X27" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28" t="s">
+        <v>216</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="X28" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" t="s">
+        <v>222</v>
+      </c>
+      <c r="H29" t="s">
+        <v>223</v>
+      </c>
+      <c r="I29" t="s">
+        <v>224</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="X29" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" t="s">
+        <v>230</v>
+      </c>
+      <c r="F30" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" t="s">
+        <v>232</v>
+      </c>
+      <c r="H30" t="s">
+        <v>233</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" t="s">
+        <v>235</v>
+      </c>
+      <c r="E31" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" t="s">
+        <v>237</v>
+      </c>
+      <c r="G31" t="s">
+        <v>238</v>
+      </c>
+      <c r="H31" t="s">
+        <v>239</v>
+      </c>
+      <c r="I31" t="s">
+        <v>240</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" t="s">
+        <v>243</v>
+      </c>
+      <c r="F32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" t="s">
+        <v>245</v>
+      </c>
+      <c r="H32" t="s">
+        <v>246</v>
+      </c>
+      <c r="I32" t="s">
+        <v>247</v>
+      </c>
+      <c r="J32" t="s">
+        <v>248</v>
+      </c>
+      <c r="K32" t="s">
+        <v>249</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="X32" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33" t="s">
+        <v>254</v>
+      </c>
+      <c r="G33" t="s">
+        <v>255</v>
+      </c>
+      <c r="H33" t="s">
+        <v>256</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" t="s">
+        <v>258</v>
+      </c>
+      <c r="E34" t="s">
+        <v>259</v>
+      </c>
+      <c r="F34" t="s">
+        <v>260</v>
+      </c>
+      <c r="G34" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34" t="s">
+        <v>262</v>
+      </c>
+      <c r="I34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" t="s">
+        <v>264</v>
+      </c>
+      <c r="K34" t="s">
+        <v>265</v>
+      </c>
+      <c r="L34" t="s">
+        <v>266</v>
+      </c>
+      <c r="M34" t="s">
+        <v>267</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+      <c r="Q34">
+        <v>8</v>
+      </c>
+      <c r="R34">
+        <v>6</v>
+      </c>
+      <c r="S34">
+        <v>10</v>
+      </c>
+      <c r="T34">
+        <v>7</v>
+      </c>
+      <c r="U34">
+        <v>9</v>
+      </c>
+      <c r="V34">
+        <v>3</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
+++ b/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-220" yWindow="460" windowWidth="15360" windowHeight="16080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15360" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Kopie von convertcsv-1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="355">
   <si>
     <t>questionType</t>
   </si>
@@ -852,16 +852,263 @@
   </si>
   <si>
     <t>Betriebliche Informationssysteme</t>
+  </si>
+  <si>
+    <t>GPM</t>
+  </si>
+  <si>
+    <t>TQ</t>
+  </si>
+  <si>
+    <t>Wähle die Anforderungen an Unternehmen, die heutzutage entscheidend sind.</t>
+  </si>
+  <si>
+    <t>Schnelligkeit</t>
+  </si>
+  <si>
+    <t>Hohe Preise</t>
+  </si>
+  <si>
+    <t>Flexibilität</t>
+  </si>
+  <si>
+    <t>Produktorientierung</t>
+  </si>
+  <si>
+    <t>Der Schwerpunkt von Geschäftsprozessmanagement liegt in der technischen Umsetzung. Die Analyse und Optimierung dieser sind nicht von großer Bedeutung.</t>
+  </si>
+  <si>
+    <t>Gute Dokumentation</t>
+  </si>
+  <si>
+    <t>Nutzung der Plankostenrechnung</t>
+  </si>
+  <si>
+    <t>Wahr</t>
+  </si>
+  <si>
+    <t>Falsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ebenen der Prozessbetrachtung und deren Fokus. Ordne die Ebenen den verschiedenen Fokuspunkten zu. </t>
+  </si>
+  <si>
+    <t>Modellierung</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>Darstellung</t>
+  </si>
+  <si>
+    <t>Optimierung</t>
+  </si>
+  <si>
+    <t>Technische Umsetzung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fokus: Dokumentation </t>
+  </si>
+  <si>
+    <t>Fokus: Gestaltung</t>
+  </si>
+  <si>
+    <t>Fokus: Implementierung</t>
+  </si>
+  <si>
+    <t>Wie ist ein Prozess definiert?</t>
+  </si>
+  <si>
+    <t>Ein Rahmenkonzept zur Gestaltung der betrieblichen Abläufe.</t>
+  </si>
+  <si>
+    <t>Ein Vergleich von Mitarbeitern.</t>
+  </si>
+  <si>
+    <t>Eine Abfolge von Transaktionen</t>
+  </si>
+  <si>
+    <t>Eine Abfolge von Aktivitäten und Zuständen</t>
+  </si>
+  <si>
+    <t>Im Geschäftsprozessmanagement gilt der Grundsatz: »Strategie vor Methodik vor Werkzeug«.</t>
+  </si>
+  <si>
+    <t>Geschäftsprozessmanagement beinhaltet Ansätze wie Business Process Reengineering oder Continuous Improvement.</t>
+  </si>
+  <si>
+    <t>Analyse eines Geschäftsprozesses. Ist eine Prozesskostenanalyse eine Methode oder eine Kenngröße?</t>
+  </si>
+  <si>
+    <t>Methode</t>
+  </si>
+  <si>
+    <t>Kenngröße</t>
+  </si>
+  <si>
+    <t>Ein Workflow kann als Abfolge von Transaktionen zwischen Objekten angesehen werden.</t>
+  </si>
+  <si>
+    <t>Analyse der Geschäftsprozesse - handelt es sich um eine Methode oder eine Kenngröße? Ziehe alle Elemente in das richtige Feld.</t>
+  </si>
+  <si>
+    <t>Ergebnisqualität</t>
+  </si>
+  <si>
+    <t>Prozessqualität</t>
+  </si>
+  <si>
+    <t>Prozessbenchmarking</t>
+  </si>
+  <si>
+    <t>Prozesskosten</t>
+  </si>
+  <si>
+    <t>Prozesskostenanalyse</t>
+  </si>
+  <si>
+    <t>Prozesszeitanalyse</t>
+  </si>
+  <si>
+    <t>Transportzeiten</t>
+  </si>
+  <si>
+    <t>Methoden</t>
+  </si>
+  <si>
+    <t>Kenngrößen</t>
+  </si>
+  <si>
+    <t>Geschäftsprozesse und Dokumente. Ziehe das richtige Wort in die Lücke.</t>
+  </si>
+  <si>
+    <t>Ein</t>
+  </si>
+  <si>
+    <t>ist eine Einheit von Informationen, die in einem DV-System als Datei oder als Bestandteil einer Datei vorliegt. Ein</t>
+  </si>
+  <si>
+    <t>ist eine zielgerichtete, zeitlich-logische Abfolge von Aufgaben, die arbeitsteilig von mehreren Organisationen oder Organisationseinheiten unter Nutzung von  Informations- und Kommunikationstechnologien ausgeführt werden können.</t>
+  </si>
+  <si>
+    <t>Dokument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist Compliance definiert? </t>
+  </si>
+  <si>
+    <t>Eine Einheit von Informationen</t>
+  </si>
+  <si>
+    <t>Der Vergleich von Geschäftsprozessen</t>
+  </si>
+  <si>
+    <t>Die Einhaltung von Richtlinien und Gesetzen in einem Unternehmen</t>
+  </si>
+  <si>
+    <t>Die Systematische Aufzeichnung von Geschäftsvorfällen</t>
+  </si>
+  <si>
+    <t>Direct Retrieval</t>
+  </si>
+  <si>
+    <t>Indirect Retrieval</t>
+  </si>
+  <si>
+    <t>Welches ist das Standardverfahren für (grundlegende) Rechere in DMS?</t>
+  </si>
+  <si>
+    <t>Wähle die Zielstellungen des Workflow-Managements.</t>
+  </si>
+  <si>
+    <t>Versionierung</t>
+  </si>
+  <si>
+    <t>Kontrolle</t>
+  </si>
+  <si>
+    <t>Qualitätssicherung</t>
+  </si>
+  <si>
+    <t>Höhere Produktivität</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie kann man die Erfassung von Papierdokumenten nach dem Arbeitsablauf unterscheiden? </t>
+  </si>
+  <si>
+    <t>Hochladen und herunterladen.</t>
+  </si>
+  <si>
+    <t>Frühes und spätes Scannen</t>
+  </si>
+  <si>
+    <t>Storage Location</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Key Figures</t>
+  </si>
+  <si>
+    <t>Process Reengineering</t>
+  </si>
+  <si>
+    <t>Automatic Processing</t>
+  </si>
+  <si>
+    <t>Workflow</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>Optimization</t>
+  </si>
+  <si>
+    <t>Quality Assurance</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>Kennzahlen</t>
+  </si>
+  <si>
+    <t>Ablageort</t>
+  </si>
+  <si>
+    <t>Transaktionen</t>
+  </si>
+  <si>
+    <t>Arbeitsablauf</t>
+  </si>
+  <si>
+    <t>Automatische Verarbeitung</t>
+  </si>
+  <si>
+    <t>Prozesserneuerung</t>
+  </si>
+  <si>
+    <t>Wahrnehmungspsychologie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -887,9 +1134,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1230,10 +1481,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet 1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A34"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2856,6 +3107,681 @@
         <v>274</v>
       </c>
     </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>275</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>277</v>
+      </c>
+      <c r="D35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E35" t="s">
+        <v>283</v>
+      </c>
+      <c r="F35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G35" t="s">
+        <v>284</v>
+      </c>
+      <c r="H35" t="s">
+        <v>280</v>
+      </c>
+      <c r="I35" t="s">
+        <v>281</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>275</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>282</v>
+      </c>
+      <c r="D36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E36" t="s">
+        <v>286</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>287</v>
+      </c>
+      <c r="D37" t="s">
+        <v>288</v>
+      </c>
+      <c r="E37" t="s">
+        <v>289</v>
+      </c>
+      <c r="F37" t="s">
+        <v>290</v>
+      </c>
+      <c r="G37" t="s">
+        <v>292</v>
+      </c>
+      <c r="H37" t="s">
+        <v>291</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="X37" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>275</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>296</v>
+      </c>
+      <c r="D38" t="s">
+        <v>297</v>
+      </c>
+      <c r="E38" t="s">
+        <v>298</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G38" t="s">
+        <v>300</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>275</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>301</v>
+      </c>
+      <c r="D39" t="s">
+        <v>285</v>
+      </c>
+      <c r="E39" t="s">
+        <v>286</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>275</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>302</v>
+      </c>
+      <c r="D40" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" t="s">
+        <v>286</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>275</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>303</v>
+      </c>
+      <c r="D41" t="s">
+        <v>304</v>
+      </c>
+      <c r="E41" t="s">
+        <v>305</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>275</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>306</v>
+      </c>
+      <c r="D42" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" t="s">
+        <v>286</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>275</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>307</v>
+      </c>
+      <c r="D43" t="s">
+        <v>308</v>
+      </c>
+      <c r="E43" t="s">
+        <v>309</v>
+      </c>
+      <c r="F43" t="s">
+        <v>310</v>
+      </c>
+      <c r="G43" t="s">
+        <v>311</v>
+      </c>
+      <c r="H43" t="s">
+        <v>312</v>
+      </c>
+      <c r="I43" t="s">
+        <v>313</v>
+      </c>
+      <c r="J43" t="s">
+        <v>314</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="X43" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>275</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C44" t="s">
+        <v>317</v>
+      </c>
+      <c r="D44" t="s">
+        <v>318</v>
+      </c>
+      <c r="F44" t="s">
+        <v>319</v>
+      </c>
+      <c r="H44" t="s">
+        <v>320</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="X44" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>275</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>322</v>
+      </c>
+      <c r="D45" t="s">
+        <v>323</v>
+      </c>
+      <c r="E45" t="s">
+        <v>324</v>
+      </c>
+      <c r="F45" t="s">
+        <v>325</v>
+      </c>
+      <c r="G45" t="s">
+        <v>326</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>275</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>329</v>
+      </c>
+      <c r="D46" t="s">
+        <v>327</v>
+      </c>
+      <c r="E46" t="s">
+        <v>328</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>275</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>330</v>
+      </c>
+      <c r="D47" t="s">
+        <v>331</v>
+      </c>
+      <c r="E47" t="s">
+        <v>332</v>
+      </c>
+      <c r="F47" t="s">
+        <v>333</v>
+      </c>
+      <c r="G47" t="s">
+        <v>334</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>275</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>335</v>
+      </c>
+      <c r="D48" t="s">
+        <v>336</v>
+      </c>
+      <c r="E48" t="s">
+        <v>337</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>275</v>
+      </c>
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" t="s">
+        <v>257</v>
+      </c>
+      <c r="D49" t="s">
+        <v>338</v>
+      </c>
+      <c r="E49" t="s">
+        <v>258</v>
+      </c>
+      <c r="F49" t="s">
+        <v>339</v>
+      </c>
+      <c r="G49" t="s">
+        <v>340</v>
+      </c>
+      <c r="H49" t="s">
+        <v>341</v>
+      </c>
+      <c r="I49" t="s">
+        <v>342</v>
+      </c>
+      <c r="J49" t="s">
+        <v>343</v>
+      </c>
+      <c r="K49" t="s">
+        <v>344</v>
+      </c>
+      <c r="L49" t="s">
+        <v>345</v>
+      </c>
+      <c r="M49" t="s">
+        <v>346</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
+      </c>
+      <c r="Q49">
+        <v>3</v>
+      </c>
+      <c r="R49">
+        <v>10</v>
+      </c>
+      <c r="S49">
+        <v>9</v>
+      </c>
+      <c r="T49">
+        <v>8</v>
+      </c>
+      <c r="U49">
+        <v>6</v>
+      </c>
+      <c r="V49">
+        <v>7</v>
+      </c>
+      <c r="W49">
+        <v>5</v>
+      </c>
+      <c r="X49" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>354</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>354</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>354</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>354</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>354</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>354</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>354</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>354</v>
+      </c>
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>354</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>354</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>354</v>
+      </c>
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>354</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>354</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>354</v>
+      </c>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
+++ b/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="563">
   <si>
     <t>questionType</t>
   </si>
@@ -1092,6 +1092,630 @@
   </si>
   <si>
     <t>Wahrnehmungspsychologie</t>
+  </si>
+  <si>
+    <t>Welche der folgenden Begriffe stellen Teilschritte der Wahrnehmung dar?</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>Anwendung</t>
+  </si>
+  <si>
+    <t>Auswahl</t>
+  </si>
+  <si>
+    <t>Aufnahme</t>
+  </si>
+  <si>
+    <t>Verarbeitung</t>
+  </si>
+  <si>
+    <t>Reflexion</t>
+  </si>
+  <si>
+    <t>Was sagt das »Gesetz der Nähe« aus?</t>
+  </si>
+  <si>
+    <t>Nah aneinander liegende Objekte werden automatisch von unserem Gehirn gruppiert.</t>
+  </si>
+  <si>
+    <t>Nah aneinander liegende Objekte wirken größer.</t>
+  </si>
+  <si>
+    <t>e näher man am betrachteten Objekt steht, desto besser kann man die Proportionen abschätzen.</t>
+  </si>
+  <si>
+    <t>Über wie viele Arten von Mechanorezeptoren verfügt die Haut?</t>
+  </si>
+  <si>
+    <t>Welche der folgenden Aussagen beschreibt die Konsenstheorie am besten?</t>
+  </si>
+  <si>
+    <t>Eine Aussage ist wahr, wenn sie für die Praxis verständlich und nützlich ist.</t>
+  </si>
+  <si>
+    <t>Es kann nicht sicher festgestellt werden, ob eine Aussage wahr ist, aber sehr wohl, dass eine bestimmte Aussage falsch ist, nämlich wenn ein Experiment sie widerlegt.</t>
+  </si>
+  <si>
+    <t>Eine Aussage ist wahr, wenn eine möglicherweise unendlich große Menge von Menschen unter idealen Kommunikationsbedingungen dieser Aussage zustimmen würde.</t>
+  </si>
+  <si>
+    <t>Welche Zellen sind für die Reizübertragung im Körper verantwortlich?</t>
+  </si>
+  <si>
+    <t>Andrenerge Nervenzellen</t>
+  </si>
+  <si>
+    <t>Neuronen</t>
+  </si>
+  <si>
+    <t>Hensen-Zellen</t>
+  </si>
+  <si>
+    <t>Astrozyten</t>
+  </si>
+  <si>
+    <t>Welche der folgenden Aussagen über Rezeptorzellen sind richtig?</t>
+  </si>
+  <si>
+    <t>Rezeptorzellen sind Signalwandler.</t>
+  </si>
+  <si>
+    <t>Rezeptorzellen sind Codierer.</t>
+  </si>
+  <si>
+    <t>Rezeptorzellen sind Interpreten.</t>
+  </si>
+  <si>
+    <t>Rezeptorzellen sind Verstärker.</t>
+  </si>
+  <si>
+    <t>Rezeptorzellen sind Boten.</t>
+  </si>
+  <si>
+    <t>Was besagt das Weber-Fechnersche Gesetz?</t>
+  </si>
+  <si>
+    <t>Die subjektiv empfundene Stärke von Sinneseindrücken ist proportional zum Logarithmus der objektiven Intensität des physikalischen Reizes.</t>
+  </si>
+  <si>
+    <t>Es gibt keine Möglichkeit die subjektiv empfundene Stärke von Sinneseindrücken einzuordnen.</t>
+  </si>
+  <si>
+    <t>Die subjektiv empfundene Stärke von Sinneseindrücken verhält sich proportional zum Alter der Testpersonen.</t>
+  </si>
+  <si>
+    <t>Was besagt die »Motorische Theorie der Sprachwahrnehmung«?</t>
+  </si>
+  <si>
+    <t>Die Sprachwahrnehmung hängt mit der Gestik zusammen.</t>
+  </si>
+  <si>
+    <t>Die Sprachwahrnehmung wird durch Motorik eingeschränkt.</t>
+  </si>
+  <si>
+    <t>Es gibt enge Verbindungen zwischen den Modulen zur Erzeugung und Wahrnehmung von Sprache.</t>
+  </si>
+  <si>
+    <t>Ordne die folgenden Funktionen in virtuellen Welten den Kategorien zu.</t>
+  </si>
+  <si>
+    <t>Rendering</t>
+  </si>
+  <si>
+    <t>Duftstoffe</t>
+  </si>
+  <si>
+    <t>Stereo-Graphik</t>
+  </si>
+  <si>
+    <t>Tastempfinden</t>
+  </si>
+  <si>
+    <t>Hall-Effekte</t>
+  </si>
+  <si>
+    <t>Beschleunigungen</t>
+  </si>
+  <si>
+    <t>Kraftrückkopplung</t>
+  </si>
+  <si>
+    <t>Stereo-Klang</t>
+  </si>
+  <si>
+    <t>Visuell</t>
+  </si>
+  <si>
+    <t>Akustisch</t>
+  </si>
+  <si>
+    <t>Haptisch</t>
+  </si>
+  <si>
+    <t>Olfaktorisch</t>
+  </si>
+  <si>
+    <t>Ordne die folgenden Sinne absteigend nach ihrem Einfluss.</t>
+  </si>
+  <si>
+    <t>Schmecken</t>
+  </si>
+  <si>
+    <t>Riechen</t>
+  </si>
+  <si>
+    <t>Sehen</t>
+  </si>
+  <si>
+    <t>Hören</t>
+  </si>
+  <si>
+    <t>Tasten</t>
+  </si>
+  <si>
+    <t>Welcher ist der älteste Sinn des Menschen?</t>
+  </si>
+  <si>
+    <t>Geschmackssinn</t>
+  </si>
+  <si>
+    <t>Geruchssinn</t>
+  </si>
+  <si>
+    <t>Sehsinn</t>
+  </si>
+  <si>
+    <t>Hörsinn</t>
+  </si>
+  <si>
+    <t>Tastsinn</t>
+  </si>
+  <si>
+    <t>Was demonstriert der sogenannte McGurk-Effekt?</t>
+  </si>
+  <si>
+    <t>Die Beeinflussung der Wahrnehmung von Sprachsignalen durch unbewusstes Lippenlesen.</t>
+  </si>
+  <si>
+    <t>Die Beeinflussung der Wahrnehmung von Sprachsignalen durch die Umgebung.</t>
+  </si>
+  <si>
+    <t>Die Beeinflussung der Wahrnehmung von Gesten durch die Lautstärke der parallel gehörten Sprachsignale.</t>
+  </si>
+  <si>
+    <t>Keines der drei oberen.</t>
+  </si>
+  <si>
+    <t>Welche der folgenden Sinne sind von der »Kontextabhängigkeit der Wahrnehmung« betroffen?</t>
+  </si>
+  <si>
+    <t>Ordne die einzelnen Glieder der Kette des Wahrnehmungsprozesses absteigend nach ihrer Reihenfolge.</t>
+  </si>
+  <si>
+    <t>Gehirn</t>
+  </si>
+  <si>
+    <t>Reaktion</t>
+  </si>
+  <si>
+    <t>Nervensystem</t>
+  </si>
+  <si>
+    <t>Sinnesorgane</t>
+  </si>
+  <si>
+    <t>Empfindung</t>
+  </si>
+  <si>
+    <t>Bewertung</t>
+  </si>
+  <si>
+    <t>Stimuli</t>
+  </si>
+  <si>
+    <t>Law of Similarity</t>
+  </si>
+  <si>
+    <t>Virtual Realities</t>
+  </si>
+  <si>
+    <t>Perception</t>
+  </si>
+  <si>
+    <t>Body Sensation</t>
+  </si>
+  <si>
+    <t>Sensoric Adaption</t>
+  </si>
+  <si>
+    <t>Object Recognition</t>
+  </si>
+  <si>
+    <t>Optical Illusion</t>
+  </si>
+  <si>
+    <t>Binding Problem</t>
+  </si>
+  <si>
+    <t>Attentiveness</t>
+  </si>
+  <si>
+    <t>Wahrnehmung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reize </t>
+  </si>
+  <si>
+    <t>Virtuelle Welten</t>
+  </si>
+  <si>
+    <t>Gesetz der Ähnlichkeit</t>
+  </si>
+  <si>
+    <t>Körperempfindung</t>
+  </si>
+  <si>
+    <t>Bindungsproblem</t>
+  </si>
+  <si>
+    <t>Aufmerksamkeit</t>
+  </si>
+  <si>
+    <t>Objekterkennung</t>
+  </si>
+  <si>
+    <t>Optische Täuschung</t>
+  </si>
+  <si>
+    <t>Sensorische Anpassung</t>
+  </si>
+  <si>
+    <t>Systemanalyse</t>
+  </si>
+  <si>
+    <t>Finanzbuchhaltung</t>
+  </si>
+  <si>
+    <t>Lohn- und Gehaltsabrechnung</t>
+  </si>
+  <si>
+    <t>Textverarbeitung</t>
+  </si>
+  <si>
+    <t>Grafik</t>
+  </si>
+  <si>
+    <t>Datenbank</t>
+  </si>
+  <si>
+    <t>Tabellenkalkulation</t>
+  </si>
+  <si>
+    <t>Budgetrechnung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordne die Begriffe den Anwendungsgebieten zu. </t>
+  </si>
+  <si>
+    <t>Persönliche Anwendung</t>
+  </si>
+  <si>
+    <t>Kommerzielle Anwendung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Fülle den Lückentext aus.</t>
+  </si>
+  <si>
+    <t>zusammen. Die</t>
+  </si>
+  <si>
+    <t>umfasst die Einfachheit mit der die Benutzung von SW-Systemen, ihre Bedienung, das Bereitstellen von Eingabedaten, die Auswertung der Ergebnisse und das Wiederaufsetzen nach Bedienfehlern erlernt werden kann. Das Kriterium der</t>
+  </si>
+  <si>
+    <t>zugeordnet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Fähigkeit von Softwaresystemen auch unter außergewöhnlichen Bedingungen zu funktionieren fasst man unter dem Qualitätskriterum der </t>
+  </si>
+  <si>
+    <t>befasst sich mit der Eigenschaft, dass Softwarekomponenten teilweise oder ganz in neuen Anwendungen eingesetzt und iin diese ntegriert werden können. Die Leichtigkeit mit der SW-Produkte an Spezifikationsänderungen angepasst werden können, wird dem Kriterium der</t>
+  </si>
+  <si>
+    <t>Benutzerfreundlichkeit</t>
+  </si>
+  <si>
+    <t>Robustheit</t>
+  </si>
+  <si>
+    <t>Erweiterbarkeit</t>
+  </si>
+  <si>
+    <t>Verifizierbarkeit</t>
+  </si>
+  <si>
+    <t>Implementierung</t>
+  </si>
+  <si>
+    <t>Planung</t>
+  </si>
+  <si>
+    <t>Validierung</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Entwurf</t>
+  </si>
+  <si>
+    <t>Ordne die Phasen der Softwareentwicklung von Anfang zum Ende.</t>
+  </si>
+  <si>
+    <t>Programmierung bzw. Codierung sind Bestandteil der Implementierung.</t>
+  </si>
+  <si>
+    <t>Abnahme, Einführung, Schulung, und das Rollout werden der Installation zugeordnet.</t>
+  </si>
+  <si>
+    <t>Die Erstellung des Lastenhefts und die Prüfung auf Durchführbarkeit werden der Definitionsphase zugeordnet.</t>
+  </si>
+  <si>
+    <t>Die Anforderungsanalyse, das Pflichtenheft und die Projektplanung sind Bestandteil der Definitionsphase.</t>
+  </si>
+  <si>
+    <t>Die Entwurfsphase besteht aus den Systemtests und Integrationstests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordne die Begriffe den Vorgehensmodellen zu. </t>
+  </si>
+  <si>
+    <t>Phasenmodell</t>
+  </si>
+  <si>
+    <t>Wasserfallmodell</t>
+  </si>
+  <si>
+    <t>Extreme Programmierung</t>
+  </si>
+  <si>
+    <t>V-Modell</t>
+  </si>
+  <si>
+    <t>Rational Unified Process</t>
+  </si>
+  <si>
+    <t>SCRUM</t>
+  </si>
+  <si>
+    <t>Klassisches Vorgehensmodell</t>
+  </si>
+  <si>
+    <t>Modernes Vorgehensmodell</t>
+  </si>
+  <si>
+    <t>Agiles Vorgehensmodell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Gliederung des Pflichtenhefts entspricht der Grundgliederung des Lastenhefts. Es handelt sich um eine Verfeinerung. </t>
+  </si>
+  <si>
+    <t>Das Lastenheft ist ein verfeinertes Pflichtenheft.</t>
+  </si>
+  <si>
+    <t>Das Pflichtenheft enthält eine Zusammenfassung aller fachlichen Anforderungen, die das zu entwickelnde Software-Produkt aus der Sicht des Auftraggebers/Kunden erfüllen muss.</t>
+  </si>
+  <si>
+    <t>Insbesondere werden in einem Lastenheft alle nicht-formalisierbaren Anforderungen aufgeführt und ̈Entwicklungsprioritäten aus auftraggebersicht festgelegt.</t>
+  </si>
+  <si>
+    <t>Generell beschreibt das Pflichtenheft eher das »Was« anstatt das »Wie«.</t>
+  </si>
+  <si>
+    <t>Standardisiertes, gegliedertes Schema; meistens: textuell.</t>
+  </si>
+  <si>
+    <t>Auftraggeber, Auftragnehmer, Projektleiter, Systemanalytiker,Software-Entwickler etc.</t>
+  </si>
+  <si>
+    <t>Detaillierte verbale Beschreibung.</t>
+  </si>
+  <si>
+    <t>Zeitlich direkt nach der  Planungsphase.</t>
+  </si>
+  <si>
+    <t>Fachlicher Funktions-, Daten- und Leistungsumfang sowie die Qualitätsanforderungen.</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Zeitpunk</t>
+  </si>
+  <si>
+    <t>Auftraggeber</t>
+  </si>
+  <si>
+    <t>Inhalt</t>
+  </si>
+  <si>
+    <t>Sprache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die allgemeinen Eigenschaften eines Pflichtenhefts lassen sich in sechs Kategorien untergliedern. Ordne zu. </t>
+  </si>
+  <si>
+    <t>Ein Use Case beschreibt in der Fachsprache der Anwendung einen typischen Arbeitsablauf.</t>
+  </si>
+  <si>
+    <t>Ein Use Case besteht immer nur aus einer Aufgabe, welche von mehreren Akteuren durchgeführt wird, um ein Ziel zu erreichen bzw. ein messbares Ergebnis zu erzielen.</t>
+  </si>
+  <si>
+    <t>Ein Use Case ist der Teil eines Geschäftsprozesses, der die Benutzerinteraktion mit dem Software-System beschreibt.</t>
+  </si>
+  <si>
+    <t>Ziel des Use Cases ist die Aufnahme des IST – Zustandes (Arbeitsablauf ohne das zukünftige System) und die Aufnahme des SOLL- Zustandes (Arbeitsablauf mit Unterstützung des zukünftigen Systems).</t>
+  </si>
+  <si>
+    <t>Die Beschreibung erfolgt immer in HTML. Das ist der Standard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordne zu. </t>
+  </si>
+  <si>
+    <t>Verzweigung von Hauptprozess A in Prozess B.</t>
+  </si>
+  <si>
+    <t>Ist Prozess B beendet, Zurückkehren zu Prozess A.</t>
+  </si>
+  <si>
+    <t>Modellierung selbständiger Unterprozesse.</t>
+  </si>
+  <si>
+    <t>Analog Unterprogramm in Programmiersprachen.</t>
+  </si>
+  <si>
+    <t>Wiederverwendung in anderen Geschäftsprozessen.</t>
+  </si>
+  <si>
+    <t>Extend Beziehung</t>
+  </si>
+  <si>
+    <t>Include Beziehung</t>
+  </si>
+  <si>
+    <t>Verlagerung komplexer Sonderfälle in einen Erweiterungsprozess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sind die folgenden Aussagen über UML wahr? </t>
+  </si>
+  <si>
+    <t>Es existieren verschiedene Diagrammtypen (statisches vs. dynamisches Modell).</t>
+  </si>
+  <si>
+    <t>UML ist programmiersprachenabhängig.</t>
+  </si>
+  <si>
+    <t>Alle Softwaresysteme sind mit Hilfe von UML darstellbar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordne die Sätze den Begriffen zu. </t>
+  </si>
+  <si>
+    <t>Sie beschreiben das Verhalten von Objekten und sind zuständig für Änderungen oder Abfrage des Zustandes eines Objektes.</t>
+  </si>
+  <si>
+    <t>Beschreiben Dinge, Personen oder Begriffe der realen Welt (sog. Entitäten) mit ihren Attributinstanzen.</t>
+  </si>
+  <si>
+    <t>Beschreiben Gruppen von Objekten mit ihren gemeinsamen Attributen und Operationen.</t>
+  </si>
+  <si>
+    <t>Klassen</t>
+  </si>
+  <si>
+    <t>Objekte</t>
+  </si>
+  <si>
+    <t>Die Reihenfolge der Objekte im Sequenzdiagramm spielt keine Rolle (möglichst übersichtlich).</t>
+  </si>
+  <si>
+    <t>Sequenzdiagramme veranschaulichen Interaktionen zwischen Objekten im zeitlichen Verlauf.</t>
+  </si>
+  <si>
+    <t>Sequenzdiagramm und Klassendiagramm eines Objektmodells müssen stets unterschiedlich sein.</t>
+  </si>
+  <si>
+    <t>Das Kommunikationsdiagramm ist eine Alternative zum Objektdiagramm.</t>
+  </si>
+  <si>
+    <t>Ein Aktivitätsdiagramm ist eine Sonderform des Zustandsdiagramms.</t>
+  </si>
+  <si>
+    <t>Ein Kommunikationsdiagramm hebt die Verbindungen zwischen Objekten hervor.</t>
+  </si>
+  <si>
+    <t>Das</t>
+  </si>
+  <si>
+    <t>dient zur Ablaufbeschreibung eines Systems. Dieses Diagramm dient zur Beschreibung zeitlicher Abläufe bei der Interaktion zwischen ausgewählten Objekten. Es handelt sich hierbei um ein</t>
+  </si>
+  <si>
+    <t>. Bei einem</t>
+  </si>
+  <si>
+    <t>sind Attributwerte außerhalb des Objekts nicht sichtbar. Ein Merkmal des</t>
+  </si>
+  <si>
+    <t>ist, dass eine Klasse Attribute und die Operationen ihrer Objekte definiert.</t>
+  </si>
+  <si>
+    <t>Sequenzdiagramm</t>
+  </si>
+  <si>
+    <t>Aktivitätsdiagramm</t>
+  </si>
+  <si>
+    <t>Klassendiagramms</t>
+  </si>
+  <si>
+    <t>Objektdiagramm</t>
+  </si>
+  <si>
+    <t>Die Komposition ist eine starke Form der Aggregation.</t>
+  </si>
+  <si>
+    <t>Das Teilobjekt ist zu einem Zeitpunkt mehreren Aggregatobjekten zugeordnet.</t>
+  </si>
+  <si>
+    <t>Ein Teilobjekt kann mehreren Aggregatobjekten zugeordnet werden.</t>
+  </si>
+  <si>
+    <t>Aggregation</t>
+  </si>
+  <si>
+    <t>Application Software</t>
+  </si>
+  <si>
+    <t>Robustness</t>
+  </si>
+  <si>
+    <t>Specification Book</t>
+  </si>
+  <si>
+    <t>Process Models</t>
+  </si>
+  <si>
+    <t>Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>Commercial Application</t>
+  </si>
+  <si>
+    <t>Extensibility</t>
+  </si>
+  <si>
+    <t>Pflichtenheft</t>
+  </si>
+  <si>
+    <t>Vorgehensmodelle</t>
+  </si>
+  <si>
+    <t>Anwendungssoftware</t>
+  </si>
+  <si>
+    <t>Komposition</t>
   </si>
 </sst>
 </file>
@@ -1481,10 +2105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet 1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AG64"/>
+  <dimension ref="A1:AG79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:CT95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3413,35 +4037,38 @@
         <v>316</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="H44" t="s">
+      <c r="G44" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="N44">
-        <v>2</v>
-      </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
-      <c r="X44" t="s">
+      <c r="N44" s="3">
+        <v>2</v>
+      </c>
+      <c r="O44" s="3">
+        <v>1</v>
+      </c>
+      <c r="X44" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Y44" s="3" t="s">
         <v>321</v>
       </c>
     </row>
@@ -3669,6 +4296,45 @@
       <c r="B50" t="s">
         <v>27</v>
       </c>
+      <c r="C50" t="s">
+        <v>355</v>
+      </c>
+      <c r="D50" t="s">
+        <v>356</v>
+      </c>
+      <c r="E50" t="s">
+        <v>357</v>
+      </c>
+      <c r="F50" t="s">
+        <v>358</v>
+      </c>
+      <c r="G50" t="s">
+        <v>359</v>
+      </c>
+      <c r="H50" t="s">
+        <v>360</v>
+      </c>
+      <c r="I50" t="s">
+        <v>361</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -3677,6 +4343,27 @@
       <c r="B51" t="s">
         <v>41</v>
       </c>
+      <c r="C51" t="s">
+        <v>362</v>
+      </c>
+      <c r="D51" t="s">
+        <v>365</v>
+      </c>
+      <c r="E51" t="s">
+        <v>363</v>
+      </c>
+      <c r="F51" t="s">
+        <v>364</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -3685,6 +4372,33 @@
       <c r="B52" t="s">
         <v>41</v>
       </c>
+      <c r="C52" t="s">
+        <v>366</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>7</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -3693,6 +4407,27 @@
       <c r="B53" t="s">
         <v>41</v>
       </c>
+      <c r="C53" t="s">
+        <v>367</v>
+      </c>
+      <c r="D53" t="s">
+        <v>368</v>
+      </c>
+      <c r="E53" t="s">
+        <v>369</v>
+      </c>
+      <c r="F53" t="s">
+        <v>370</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -3701,6 +4436,33 @@
       <c r="B54" t="s">
         <v>41</v>
       </c>
+      <c r="C54" t="s">
+        <v>371</v>
+      </c>
+      <c r="D54" t="s">
+        <v>372</v>
+      </c>
+      <c r="E54" t="s">
+        <v>373</v>
+      </c>
+      <c r="F54" t="s">
+        <v>374</v>
+      </c>
+      <c r="G54" t="s">
+        <v>375</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -3709,6 +4471,39 @@
       <c r="B55" t="s">
         <v>27</v>
       </c>
+      <c r="C55" t="s">
+        <v>376</v>
+      </c>
+      <c r="D55" t="s">
+        <v>377</v>
+      </c>
+      <c r="E55" t="s">
+        <v>378</v>
+      </c>
+      <c r="F55" t="s">
+        <v>379</v>
+      </c>
+      <c r="G55" t="s">
+        <v>380</v>
+      </c>
+      <c r="H55" t="s">
+        <v>381</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -3717,6 +4512,27 @@
       <c r="B56" t="s">
         <v>41</v>
       </c>
+      <c r="C56" t="s">
+        <v>382</v>
+      </c>
+      <c r="D56" t="s">
+        <v>383</v>
+      </c>
+      <c r="E56" t="s">
+        <v>385</v>
+      </c>
+      <c r="F56" t="s">
+        <v>384</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -3725,6 +4541,27 @@
       <c r="B57" t="s">
         <v>41</v>
       </c>
+      <c r="C57" t="s">
+        <v>386</v>
+      </c>
+      <c r="D57" t="s">
+        <v>387</v>
+      </c>
+      <c r="E57" t="s">
+        <v>388</v>
+      </c>
+      <c r="F57" t="s">
+        <v>389</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -3733,6 +4570,69 @@
       <c r="B58" t="s">
         <v>26</v>
       </c>
+      <c r="C58" t="s">
+        <v>390</v>
+      </c>
+      <c r="D58" t="s">
+        <v>391</v>
+      </c>
+      <c r="E58" t="s">
+        <v>392</v>
+      </c>
+      <c r="F58" t="s">
+        <v>393</v>
+      </c>
+      <c r="G58" t="s">
+        <v>394</v>
+      </c>
+      <c r="H58" t="s">
+        <v>395</v>
+      </c>
+      <c r="I58" t="s">
+        <v>396</v>
+      </c>
+      <c r="J58" t="s">
+        <v>397</v>
+      </c>
+      <c r="K58" t="s">
+        <v>398</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>4</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>3</v>
+      </c>
+      <c r="T58">
+        <v>3</v>
+      </c>
+      <c r="U58">
+        <v>2</v>
+      </c>
+      <c r="X58" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -3741,6 +4641,39 @@
       <c r="B59" t="s">
         <v>78</v>
       </c>
+      <c r="C59" t="s">
+        <v>403</v>
+      </c>
+      <c r="D59" t="s">
+        <v>404</v>
+      </c>
+      <c r="E59" t="s">
+        <v>405</v>
+      </c>
+      <c r="F59" t="s">
+        <v>406</v>
+      </c>
+      <c r="G59" t="s">
+        <v>407</v>
+      </c>
+      <c r="H59" t="s">
+        <v>408</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59">
+        <v>3</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>2</v>
+      </c>
+      <c r="R59">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -3749,6 +4682,39 @@
       <c r="B60" t="s">
         <v>41</v>
       </c>
+      <c r="C60" t="s">
+        <v>409</v>
+      </c>
+      <c r="D60" t="s">
+        <v>410</v>
+      </c>
+      <c r="E60" t="s">
+        <v>411</v>
+      </c>
+      <c r="F60" t="s">
+        <v>412</v>
+      </c>
+      <c r="G60" t="s">
+        <v>413</v>
+      </c>
+      <c r="H60" t="s">
+        <v>414</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -3757,6 +4723,33 @@
       <c r="B61" t="s">
         <v>41</v>
       </c>
+      <c r="C61" t="s">
+        <v>415</v>
+      </c>
+      <c r="D61" t="s">
+        <v>416</v>
+      </c>
+      <c r="E61" t="s">
+        <v>417</v>
+      </c>
+      <c r="F61" t="s">
+        <v>418</v>
+      </c>
+      <c r="G61" t="s">
+        <v>419</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -3765,6 +4758,27 @@
       <c r="B62" t="s">
         <v>27</v>
       </c>
+      <c r="C62" t="s">
+        <v>420</v>
+      </c>
+      <c r="D62" t="s">
+        <v>412</v>
+      </c>
+      <c r="E62" t="s">
+        <v>413</v>
+      </c>
+      <c r="F62" t="s">
+        <v>410</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -3773,6 +4787,45 @@
       <c r="B63" t="s">
         <v>78</v>
       </c>
+      <c r="C63" t="s">
+        <v>421</v>
+      </c>
+      <c r="D63" t="s">
+        <v>422</v>
+      </c>
+      <c r="E63" t="s">
+        <v>423</v>
+      </c>
+      <c r="F63" t="s">
+        <v>424</v>
+      </c>
+      <c r="G63" t="s">
+        <v>425</v>
+      </c>
+      <c r="H63" t="s">
+        <v>426</v>
+      </c>
+      <c r="I63" t="s">
+        <v>427</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63">
+        <v>6</v>
+      </c>
+      <c r="P63">
+        <v>2</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>4</v>
+      </c>
+      <c r="S63">
+        <v>5</v>
+      </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -3780,6 +4833,849 @@
       </c>
       <c r="B64" t="s">
         <v>79</v>
+      </c>
+      <c r="C64" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" t="s">
+        <v>428</v>
+      </c>
+      <c r="E64" t="s">
+        <v>429</v>
+      </c>
+      <c r="F64" t="s">
+        <v>430</v>
+      </c>
+      <c r="G64" t="s">
+        <v>431</v>
+      </c>
+      <c r="H64" t="s">
+        <v>432</v>
+      </c>
+      <c r="I64" t="s">
+        <v>433</v>
+      </c>
+      <c r="J64" t="s">
+        <v>434</v>
+      </c>
+      <c r="K64" t="s">
+        <v>435</v>
+      </c>
+      <c r="L64" t="s">
+        <v>436</v>
+      </c>
+      <c r="M64" t="s">
+        <v>437</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <v>4</v>
+      </c>
+      <c r="P64">
+        <v>3</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>5</v>
+      </c>
+      <c r="S64">
+        <v>10</v>
+      </c>
+      <c r="T64">
+        <v>8</v>
+      </c>
+      <c r="U64">
+        <v>9</v>
+      </c>
+      <c r="V64">
+        <v>6</v>
+      </c>
+      <c r="W64">
+        <v>7</v>
+      </c>
+      <c r="X64" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>444</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>445</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>446</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>448</v>
+      </c>
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" t="s">
+        <v>456</v>
+      </c>
+      <c r="D65" t="s">
+        <v>449</v>
+      </c>
+      <c r="E65" t="s">
+        <v>450</v>
+      </c>
+      <c r="F65" t="s">
+        <v>451</v>
+      </c>
+      <c r="G65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H65" t="s">
+        <v>453</v>
+      </c>
+      <c r="I65" t="s">
+        <v>454</v>
+      </c>
+      <c r="J65" t="s">
+        <v>455</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65">
+        <v>2</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>1</v>
+      </c>
+      <c r="T65">
+        <v>2</v>
+      </c>
+      <c r="X65" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="N66" s="3">
+        <v>2</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1</v>
+      </c>
+      <c r="P66" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>3</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>448</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>476</v>
+      </c>
+      <c r="D67" t="s">
+        <v>470</v>
+      </c>
+      <c r="E67" t="s">
+        <v>471</v>
+      </c>
+      <c r="F67" t="s">
+        <v>472</v>
+      </c>
+      <c r="G67" t="s">
+        <v>473</v>
+      </c>
+      <c r="H67" t="s">
+        <v>474</v>
+      </c>
+      <c r="I67" t="s">
+        <v>475</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>5</v>
+      </c>
+      <c r="Q67">
+        <v>6</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>448</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" t="s">
+        <v>228</v>
+      </c>
+      <c r="D68" t="s">
+        <v>477</v>
+      </c>
+      <c r="E68" t="s">
+        <v>478</v>
+      </c>
+      <c r="F68" t="s">
+        <v>479</v>
+      </c>
+      <c r="G68" t="s">
+        <v>480</v>
+      </c>
+      <c r="H68" t="s">
+        <v>481</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>448</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" t="s">
+        <v>482</v>
+      </c>
+      <c r="D69" t="s">
+        <v>483</v>
+      </c>
+      <c r="E69" t="s">
+        <v>484</v>
+      </c>
+      <c r="F69" t="s">
+        <v>485</v>
+      </c>
+      <c r="G69" t="s">
+        <v>486</v>
+      </c>
+      <c r="H69" t="s">
+        <v>487</v>
+      </c>
+      <c r="I69" t="s">
+        <v>488</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>3</v>
+      </c>
+      <c r="Q69">
+        <v>2</v>
+      </c>
+      <c r="R69">
+        <v>2</v>
+      </c>
+      <c r="S69">
+        <v>3</v>
+      </c>
+      <c r="X69" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>448</v>
+      </c>
+      <c r="B70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" t="s">
+        <v>492</v>
+      </c>
+      <c r="E70" t="s">
+        <v>493</v>
+      </c>
+      <c r="F70" t="s">
+        <v>494</v>
+      </c>
+      <c r="G70" t="s">
+        <v>495</v>
+      </c>
+      <c r="H70" t="s">
+        <v>496</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>448</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" t="s">
+        <v>507</v>
+      </c>
+      <c r="D71" t="s">
+        <v>497</v>
+      </c>
+      <c r="E71" t="s">
+        <v>498</v>
+      </c>
+      <c r="F71" t="s">
+        <v>499</v>
+      </c>
+      <c r="G71" t="s">
+        <v>500</v>
+      </c>
+      <c r="H71" t="s">
+        <v>501</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>3</v>
+      </c>
+      <c r="P71">
+        <v>5</v>
+      </c>
+      <c r="Q71">
+        <v>2</v>
+      </c>
+      <c r="R71">
+        <v>4</v>
+      </c>
+      <c r="X71" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>504</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>505</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>448</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" t="s">
+        <v>252</v>
+      </c>
+      <c r="D72" t="s">
+        <v>508</v>
+      </c>
+      <c r="E72" t="s">
+        <v>509</v>
+      </c>
+      <c r="F72" t="s">
+        <v>510</v>
+      </c>
+      <c r="G72" t="s">
+        <v>511</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>448</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" t="s">
+        <v>513</v>
+      </c>
+      <c r="D73" t="s">
+        <v>514</v>
+      </c>
+      <c r="E73" t="s">
+        <v>515</v>
+      </c>
+      <c r="F73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G73" t="s">
+        <v>518</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="I73" t="s">
+        <v>521</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>2</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="X73" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>448</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s">
+        <v>522</v>
+      </c>
+      <c r="D74" t="s">
+        <v>523</v>
+      </c>
+      <c r="E74" t="s">
+        <v>524</v>
+      </c>
+      <c r="F74" t="s">
+        <v>525</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>448</v>
+      </c>
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" t="s">
+        <v>526</v>
+      </c>
+      <c r="D75" t="s">
+        <v>527</v>
+      </c>
+      <c r="E75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F75" t="s">
+        <v>529</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>3</v>
+      </c>
+      <c r="P75">
+        <v>2</v>
+      </c>
+      <c r="X75" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>530</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>448</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" t="s">
+        <v>252</v>
+      </c>
+      <c r="D76" t="s">
+        <v>532</v>
+      </c>
+      <c r="E76" t="s">
+        <v>533</v>
+      </c>
+      <c r="F76" t="s">
+        <v>534</v>
+      </c>
+      <c r="G76" t="s">
+        <v>535</v>
+      </c>
+      <c r="H76" t="s">
+        <v>536</v>
+      </c>
+      <c r="I76" t="s">
+        <v>537</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>448</v>
+      </c>
+      <c r="B77" t="s">
+        <v>276</v>
+      </c>
+      <c r="C77" t="s">
+        <v>460</v>
+      </c>
+      <c r="D77" t="s">
+        <v>538</v>
+      </c>
+      <c r="F77" t="s">
+        <v>539</v>
+      </c>
+      <c r="H77" t="s">
+        <v>540</v>
+      </c>
+      <c r="J77" t="s">
+        <v>541</v>
+      </c>
+      <c r="L77" t="s">
+        <v>542</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>4</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+      <c r="X77" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>545</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>448</v>
+      </c>
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" t="s">
+        <v>547</v>
+      </c>
+      <c r="E78" t="s">
+        <v>548</v>
+      </c>
+      <c r="F78" t="s">
+        <v>549</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>448</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" t="s">
+        <v>114</v>
+      </c>
+      <c r="D79" t="s">
+        <v>550</v>
+      </c>
+      <c r="E79" t="s">
+        <v>265</v>
+      </c>
+      <c r="F79" t="s">
+        <v>551</v>
+      </c>
+      <c r="G79" t="s">
+        <v>552</v>
+      </c>
+      <c r="H79" t="s">
+        <v>553</v>
+      </c>
+      <c r="I79" t="s">
+        <v>554</v>
+      </c>
+      <c r="J79" t="s">
+        <v>555</v>
+      </c>
+      <c r="K79" t="s">
+        <v>556</v>
+      </c>
+      <c r="L79" t="s">
+        <v>557</v>
+      </c>
+      <c r="M79" t="s">
+        <v>558</v>
+      </c>
+      <c r="N79">
+        <v>10</v>
+      </c>
+      <c r="O79">
+        <v>6</v>
+      </c>
+      <c r="P79">
+        <v>5</v>
+      </c>
+      <c r="Q79">
+        <v>7</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
+        <v>4</v>
+      </c>
+      <c r="T79">
+        <v>9</v>
+      </c>
+      <c r="U79">
+        <v>8</v>
+      </c>
+      <c r="V79">
+        <v>3</v>
+      </c>
+      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="X79" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>559</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>560</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>561</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>562</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>543</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
+++ b/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15360" windowHeight="16080"/>
+    <workbookView xWindow="13280" yWindow="460" windowWidth="15360" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Kopie von convertcsv-1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="1240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="1320">
   <si>
     <t>questionType</t>
   </si>
@@ -3747,6 +3747,246 @@
   </si>
   <si>
     <t>Der Servlet-Kontext-Listener wird benachrichtigt, wenn der Kontext initialisiert oder zerstört wird.</t>
+  </si>
+  <si>
+    <t>Statistik</t>
+  </si>
+  <si>
+    <t>Wie definiert man ein Ereignis?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Schnittmenge aller Zufallsexperimente. </t>
+  </si>
+  <si>
+    <t>Eine Teilmenge des Ergebnisraums.</t>
+  </si>
+  <si>
+    <t>Das Ergebnis einer Zuordnung.</t>
+  </si>
+  <si>
+    <t>Eine Menge von Elementarereignissen.</t>
+  </si>
+  <si>
+    <t>Das Signifikanzniveau …</t>
+  </si>
+  <si>
+    <t>… berechnet man mit dem Median.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… wird bei Hypothesentests als Fehler der ersten Art gewertet. </t>
+  </si>
+  <si>
+    <t>… heißt α und ist eine kleine Zahl nahe Null.</t>
+  </si>
+  <si>
+    <t>… kann nur durch eine Stichprobe mit mehr als 100 Beobachtungsobjekten festgelegt werden.</t>
+  </si>
+  <si>
+    <t>… gibt im Hypothesentest an, welches Risiko man bereit ist einzugehen, eine falsche Entscheidung zu treffen</t>
+  </si>
+  <si>
+    <t>… addiert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… subtrahiert. </t>
+  </si>
+  <si>
+    <t>… multipliziert.</t>
+  </si>
+  <si>
+    <t>… dividiert.</t>
+  </si>
+  <si>
+    <t>Entlang der Äste eines Wahrscheinlichkeitsbaums wird…</t>
+  </si>
+  <si>
+    <t>Für das Würfeln mit zwei Würfeln ist die Wahrscheinlichkeiten des Ereignisses, dass die Augenzahl größer als 10 ist…</t>
+  </si>
+  <si>
+    <t>… 1/10.</t>
+  </si>
+  <si>
+    <t>… 6/10.</t>
+  </si>
+  <si>
+    <t>… 1/12.</t>
+  </si>
+  <si>
+    <t>Welche Arten von Hypothesentests gibt es?</t>
+  </si>
+  <si>
+    <t>Relativer und prozentualer Hypothesentest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einseitger und zweiseitiger Hypothesentest. </t>
+  </si>
+  <si>
+    <t>Statistiscer und dynamischer Hypothesentest.</t>
+  </si>
+  <si>
+    <t>Normalverteilter und standardnormalverteilter Hypothesentest.</t>
+  </si>
+  <si>
+    <t>Die IMBIT Krake möchte nachweisen, dass ihre 20 IT-Services im Durchschnitt von mehr als 10 Mitarbeitern betreut werden. Welche Hypothesen sollte sie testen?</t>
+  </si>
+  <si>
+    <t>H0:μ≤20;H1:μ&gt;20</t>
+  </si>
+  <si>
+    <t>H0:μ≤10;H1:μ&gt;10</t>
+  </si>
+  <si>
+    <t>H0:μ&gt;20;H1:μ≤20</t>
+  </si>
+  <si>
+    <t>H0:μ&gt;20;H1:μ&gt;10</t>
+  </si>
+  <si>
+    <t>Die IMBIT Krake möchte die Kunden ihres IT-Unternehmens besser kennenlernen und stellt fest, dass die unterschiedlichen Unternehmen 140, 211, 127, 290, 195, 150 und 143 Mitarbeiter haben. Wie groß ist die Spannweite dieser Unternehmensgrößen?</t>
+  </si>
+  <si>
+    <t>19,4</t>
+  </si>
+  <si>
+    <t>In welchem Fall wird der Satz von Bayer angewandt?</t>
+  </si>
+  <si>
+    <t>Durch neu gewonnene Informationen können schon ermittelte Wahrscheinlichkeiten genauer bestimmt werden.</t>
+  </si>
+  <si>
+    <t>Durch verringerten Ergebnisraum können schon ermittelte Wahrscheinlichkeiten genauer bestimmt werden.</t>
+  </si>
+  <si>
+    <t>Das IT-Unternehmen der IMBIT Krake bekommt Rechnungen mit den folgenden Werten: 50€, 100€, 81€, 250€, 1000€, 44€, 250€. Ordne die Lagemaße korrekt zu.</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mittelwert</t>
+  </si>
+  <si>
+    <t>Modus</t>
+  </si>
+  <si>
+    <t>Die IMBIT Krake möchte die offenen Stellen in ihrem IT-Unternehmen besetzen. Sie sucht folgende Mitarbeiter: HR : 2, Service Desk : 5, Marketing : 3, Sales : 5, Buchhaltung : 3, SAP Consultant : 5, Einkauf : 1, Network Engineer : 3, Presales : 3, Motivationstrainer : 0, Controlling : 3, Entwickler : 5, Jurist : 1, Praktikant : 1. Ordne die absolute Häufigkeit korrekt den offenen Stellen zu.</t>
+  </si>
+  <si>
+    <t>Ordne den Verteilungen ihre Schiefe zu.</t>
+  </si>
+  <si>
+    <t>Symmetrisch.</t>
+  </si>
+  <si>
+    <t>Rechtsschief bzw. linkssteil.</t>
+  </si>
+  <si>
+    <t>Linksschief bzw. rechtssteil.</t>
+  </si>
+  <si>
+    <t>größer als 0</t>
+  </si>
+  <si>
+    <t>kleiner als 0</t>
+  </si>
+  <si>
+    <t>Die IMBIT Krake möchte ihr Produktportfolio erweitern und macht dafür eine Kundenumfrage. 10 der 70 Dienstleistungsunternehmen interessieren sich für IoT, 60 für eine Cloud. 50 der 130 Produktionsunternehmen interessieren sich für IoT, 80 für eine Cloud. Ordne die Wahrscheinlichkeiten korrekt zu.</t>
+  </si>
+  <si>
+    <t>10/200 = 0.05</t>
+  </si>
+  <si>
+    <t>(60/200)+(130/200)-(50/200) = 0.7</t>
+  </si>
+  <si>
+    <t>60/200 = 0.3</t>
+  </si>
+  <si>
+    <t>Ein Unternehmen ist an IoT Services interessiert.</t>
+  </si>
+  <si>
+    <t>Ein Produktionsunternehmen ist an IoT Services interessiert.</t>
+  </si>
+  <si>
+    <t>Ein Unternehmen ist an IoT interessiert oder ist ein Produktionsunternehmen.</t>
+  </si>
+  <si>
+    <t>In welcher Reihenfolge kann man die folgenden Werte berechnen?</t>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
+  </si>
+  <si>
+    <t>Varianz</t>
+  </si>
+  <si>
+    <t>Durchschnitt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordne die englischen Begriffe den deutschen Begriffen zu. </t>
+  </si>
+  <si>
+    <t>Binomialverteilung</t>
+  </si>
+  <si>
+    <t>Zufallsvariable</t>
+  </si>
+  <si>
+    <t>Intervallschätzung</t>
+  </si>
+  <si>
+    <t>Hypothesentest</t>
+  </si>
+  <si>
+    <t>Stichprobe</t>
+  </si>
+  <si>
+    <t>Interquartilsabstand</t>
+  </si>
+  <si>
+    <t>arithmetisches Mittel</t>
+  </si>
+  <si>
+    <t>Häufigkeitsverteilung</t>
+  </si>
+  <si>
+    <t>Säulendiagramm</t>
+  </si>
+  <si>
+    <t>Signifikanzniveau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample </t>
+  </si>
+  <si>
+    <t>Bar Graph</t>
+  </si>
+  <si>
+    <t>Random Variable</t>
+  </si>
+  <si>
+    <t>Hypothesis Testing</t>
+  </si>
+  <si>
+    <t>Interval Estimation</t>
+  </si>
+  <si>
+    <t>Interquartile Range</t>
+  </si>
+  <si>
+    <t>Significance Level</t>
+  </si>
+  <si>
+    <t>Binominal Distribution</t>
+  </si>
+  <si>
+    <t>Arithmetic Mean</t>
+  </si>
+  <si>
+    <t>Frequency Distribution</t>
+  </si>
+  <si>
+    <t>Der Gini-Koeffizient.</t>
   </si>
 </sst>
 </file>
@@ -3803,7 +4043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3813,6 +4053,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4153,10 +4394,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet 1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AI222"/>
+  <dimension ref="A1:AI252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13224,6 +13465,675 @@
         <v>1029</v>
       </c>
     </row>
+    <row r="223" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B223" t="s">
+        <v>22</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G223" t="s">
+        <v>1242</v>
+      </c>
+      <c r="O223">
+        <v>1</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>1</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B224" t="s">
+        <v>22</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F224" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G224" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H224" t="s">
+        <v>1251</v>
+      </c>
+      <c r="O224">
+        <v>1</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B225" t="s">
+        <v>34</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F225" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G225" t="s">
+        <v>1255</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>1</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B226" t="s">
+        <v>34</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>1</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B227" t="s">
+        <v>34</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F227" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G227" t="s">
+        <v>1265</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>1</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B228" t="s">
+        <v>34</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F228" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G228" t="s">
+        <v>1270</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>1</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B229" t="s">
+        <v>34</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D229">
+        <v>150</v>
+      </c>
+      <c r="E229">
+        <v>1256</v>
+      </c>
+      <c r="F229" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G229">
+        <v>3</v>
+      </c>
+      <c r="O229">
+        <v>1</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B230" t="s">
+        <v>34</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="O230">
+        <v>1</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B231" t="s">
+        <v>21</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D231">
+        <v>250</v>
+      </c>
+      <c r="E231">
+        <v>100</v>
+      </c>
+      <c r="F231">
+        <v>254</v>
+      </c>
+      <c r="O231">
+        <v>3</v>
+      </c>
+      <c r="P231">
+        <v>1</v>
+      </c>
+      <c r="Q231">
+        <v>2</v>
+      </c>
+      <c r="Z231" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AA231" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AB231" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="232" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B232" t="s">
+        <v>21</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>2</v>
+      </c>
+      <c r="G232">
+        <v>3</v>
+      </c>
+      <c r="H232">
+        <v>4</v>
+      </c>
+      <c r="I232">
+        <v>5</v>
+      </c>
+      <c r="O232">
+        <v>2</v>
+      </c>
+      <c r="P232">
+        <v>1</v>
+      </c>
+      <c r="Q232">
+        <v>5</v>
+      </c>
+      <c r="R232">
+        <v>6</v>
+      </c>
+      <c r="S232">
+        <v>4</v>
+      </c>
+      <c r="T232">
+        <v>3</v>
+      </c>
+      <c r="Z232">
+        <v>3</v>
+      </c>
+      <c r="AA232">
+        <v>1</v>
+      </c>
+      <c r="AB232">
+        <v>4</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>2</v>
+      </c>
+      <c r="AE232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B233" t="s">
+        <v>21</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E233" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F233" t="s">
+        <v>1283</v>
+      </c>
+      <c r="O233">
+        <v>2</v>
+      </c>
+      <c r="P233">
+        <v>3</v>
+      </c>
+      <c r="Q233">
+        <v>1</v>
+      </c>
+      <c r="Z233" t="s">
+        <v>1285</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="234" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B234" t="s">
+        <v>21</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F234" t="s">
+        <v>1290</v>
+      </c>
+      <c r="O234">
+        <v>1</v>
+      </c>
+      <c r="P234">
+        <v>3</v>
+      </c>
+      <c r="Q234">
+        <v>2</v>
+      </c>
+      <c r="Z234" t="s">
+        <v>1291</v>
+      </c>
+      <c r="AA234" t="s">
+        <v>1292</v>
+      </c>
+      <c r="AB234" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="235" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="236" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B236" t="s">
+        <v>71</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F236" t="s">
+        <v>1297</v>
+      </c>
+      <c r="O236">
+        <v>3</v>
+      </c>
+      <c r="P236">
+        <v>1</v>
+      </c>
+      <c r="Q236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B237" t="s">
+        <v>72</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F237" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G237" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H237" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I237" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J237" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K237" t="s">
+        <v>1306</v>
+      </c>
+      <c r="L237" t="s">
+        <v>1307</v>
+      </c>
+      <c r="M237" t="s">
+        <v>1308</v>
+      </c>
+      <c r="O237">
+        <v>8</v>
+      </c>
+      <c r="P237">
+        <v>3</v>
+      </c>
+      <c r="Q237">
+        <v>5</v>
+      </c>
+      <c r="R237">
+        <v>4</v>
+      </c>
+      <c r="S237">
+        <v>1</v>
+      </c>
+      <c r="T237">
+        <v>6</v>
+      </c>
+      <c r="U237">
+        <v>9</v>
+      </c>
+      <c r="V237">
+        <v>10</v>
+      </c>
+      <c r="W237">
+        <v>2</v>
+      </c>
+      <c r="X237">
+        <v>7</v>
+      </c>
+      <c r="Z237" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AA237" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AB237" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AC237" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AD237" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AE237" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AF237" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AG237" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AH237" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AI237" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="238" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="239" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="240" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
+++ b/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13280" yWindow="460" windowWidth="15360" windowHeight="16080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15360" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Kopie von convertcsv-1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1333">
   <si>
     <t>questionType</t>
   </si>
@@ -3987,6 +3987,45 @@
   </si>
   <si>
     <t>Der Gini-Koeffizient.</t>
+  </si>
+  <si>
+    <t>Was zählt nicht zu den wesentlichen Aufgaben des Controllings?</t>
+  </si>
+  <si>
+    <t>Kontrolle von eingehenden Rechnungen</t>
+  </si>
+  <si>
+    <t>Das Sicherstellen von Transparenzen im Hinblick auf Strategien, Ergebnisse, Finanzen und Prozesse.</t>
+  </si>
+  <si>
+    <t>Die unternehmensübergreifende Gestaltung des zukunftsorientierten Berichtswesens .</t>
+  </si>
+  <si>
+    <t>Das Pflegen der Controllingsysteme.</t>
+  </si>
+  <si>
+    <t>Die Unterstützung des Managementsprozesses der Zielfindung, Planung und Steuerung.</t>
+  </si>
+  <si>
+    <t>Welche Komponenten gehören zum Führungssystem eines Unternehmens?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zielsystem </t>
+  </si>
+  <si>
+    <t>Organisationssystem</t>
+  </si>
+  <si>
+    <t>Projektmanagementsystem</t>
+  </si>
+  <si>
+    <t>Personalführungssystem</t>
+  </si>
+  <si>
+    <t>Informationssystem</t>
+  </si>
+  <si>
+    <t>Planungs- und Kontrollsystem</t>
   </si>
 </sst>
 </file>
@@ -4396,8 +4435,8 @@
   <sheetPr codeName="Sheet 1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AI252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14063,75 +14102,198 @@
       <c r="A238" t="s">
         <v>233</v>
       </c>
+      <c r="B238" t="s">
+        <v>34</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G238" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H238" t="s">
+        <v>1321</v>
+      </c>
+      <c r="O238">
+        <v>0</v>
+      </c>
+      <c r="P238">
+        <v>0</v>
+      </c>
+      <c r="Q238">
+        <v>0</v>
+      </c>
+      <c r="R238">
+        <v>0</v>
+      </c>
+      <c r="S238">
+        <v>1</v>
+      </c>
     </row>
     <row r="239" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>233</v>
       </c>
+      <c r="B239" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E239" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F239" t="s">
+        <v>807</v>
+      </c>
+      <c r="G239" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H239" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I239" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J239" t="s">
+        <v>1332</v>
+      </c>
+      <c r="O239">
+        <v>1</v>
+      </c>
+      <c r="P239">
+        <v>1</v>
+      </c>
+      <c r="Q239">
+        <v>0</v>
+      </c>
+      <c r="R239">
+        <v>0</v>
+      </c>
+      <c r="S239">
+        <v>1</v>
+      </c>
+      <c r="T239">
+        <v>1</v>
+      </c>
+      <c r="U239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B240" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B242" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B243" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B250" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B251" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>233</v>
+      </c>
+      <c r="B252" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
+++ b/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15360" windowHeight="16080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Kopie von convertcsv-1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="1591">
   <si>
     <t>questionType</t>
   </si>
@@ -3884,12 +3884,6 @@
     <t>Linksschief bzw. rechtssteil.</t>
   </si>
   <si>
-    <t>größer als 0</t>
-  </si>
-  <si>
-    <t>kleiner als 0</t>
-  </si>
-  <si>
     <t>Die IMBIT Krake möchte ihr Produktportfolio erweitern und macht dafür eine Kundenumfrage. 10 der 70 Dienstleistungsunternehmen interessieren sich für IoT, 60 für eine Cloud. 50 der 130 Produktionsunternehmen interessieren sich für IoT, 80 für eine Cloud. Ordne die Wahrscheinlichkeiten korrekt zu.</t>
   </si>
   <si>
@@ -4026,6 +4020,786 @@
   </si>
   <si>
     <t>Planungs- und Kontrollsystem</t>
+  </si>
+  <si>
+    <t>Bis zu einem Jahr</t>
+  </si>
+  <si>
+    <t>Zwischen einem und fünf Jahren</t>
+  </si>
+  <si>
+    <t>Mehr als fünf Jahre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordne die folgenden Controllinginstrumente richtig zu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordne die folgenden Planungshorizonte richtig zu. </t>
+  </si>
+  <si>
+    <t>Soll-Ist-Analyse</t>
+  </si>
+  <si>
+    <t>ABC-Analyse</t>
+  </si>
+  <si>
+    <t>Szenarioanalyse</t>
+  </si>
+  <si>
+    <t>Nutzwertanalyse</t>
+  </si>
+  <si>
+    <t>Budgetierung</t>
+  </si>
+  <si>
+    <t>Umweltanalyse</t>
+  </si>
+  <si>
+    <t>Berichtswesen</t>
+  </si>
+  <si>
+    <t>Stärken-Schwächen-Analyse</t>
+  </si>
+  <si>
+    <t>Operativ</t>
+  </si>
+  <si>
+    <t>Strategisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taktisch </t>
+  </si>
+  <si>
+    <t>&gt; 0</t>
+  </si>
+  <si>
+    <t>&lt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordne folgende strategische Controllinginstrumente richtig zu. </t>
+  </si>
+  <si>
+    <t>Marktwachstums-Marktanteils-Portfolio von BCG</t>
+  </si>
+  <si>
+    <t>Wertkettenanalyse</t>
+  </si>
+  <si>
+    <t>St. Galler Managementmodell</t>
+  </si>
+  <si>
+    <t>PESTL-Analyse</t>
+  </si>
+  <si>
+    <t>Produkt-Markt-Expansionsraster nach Ansoff</t>
+  </si>
+  <si>
+    <t>Five Forces nach Porter</t>
+  </si>
+  <si>
+    <t>Intern</t>
+  </si>
+  <si>
+    <t>Extern</t>
+  </si>
+  <si>
+    <t>Aus welchen Perspektiven setzt sich die Balanced Scorecard zusammen?</t>
+  </si>
+  <si>
+    <t>Finanzperspektive</t>
+  </si>
+  <si>
+    <t>Produktperspektive</t>
+  </si>
+  <si>
+    <t>Kundenperspektive</t>
+  </si>
+  <si>
+    <t>Potenzialperspektive</t>
+  </si>
+  <si>
+    <t>Preisperspektive</t>
+  </si>
+  <si>
+    <t>Prozessperspektive</t>
+  </si>
+  <si>
+    <t>Lieferantenperspektive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordne folgene Ziele der richtigen Perspektive aus dre BSC zu. </t>
+  </si>
+  <si>
+    <t>Mitarbeiterzufriedenheit steigern</t>
+  </si>
+  <si>
+    <t>Hoher Marktanteil</t>
+  </si>
+  <si>
+    <t>Effizienz steigern</t>
+  </si>
+  <si>
+    <t>CPO</t>
+  </si>
+  <si>
+    <t>ROCE</t>
+  </si>
+  <si>
+    <t>NPS</t>
+  </si>
+  <si>
+    <t>EVA</t>
+  </si>
+  <si>
+    <t>Wähle die Kennzahlen, die Finanzkennzahlen darstellen, aus.</t>
+  </si>
+  <si>
+    <t>Ordne die folgenden Definitionen je einer Kennzahl zu.</t>
+  </si>
+  <si>
+    <t>Operatives Ergebnis (Bruttogewinn)</t>
+  </si>
+  <si>
+    <t>Differenz aus Geschäftsergebnis und Kapitalkosten (Übergewinn)</t>
+  </si>
+  <si>
+    <t>Setzt den Gewinn ins Verhältnis zum eingesetzten Kapital (Rentabilitätsmaß).</t>
+  </si>
+  <si>
+    <t>Ein Unternehmen mit 40% Eigenkapital hat einen Betafaktor in Höhe von 1,7. Der risikolose Habenzins beträgt 3%, der Sollzins 9%. Die Risikoprämie am Markt liegt bei 5%, der Steuersatz bei 35%. Berechne die WACC.</t>
+  </si>
+  <si>
+    <t>10,03 %%</t>
+  </si>
+  <si>
+    <t>9,24 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,62 % </t>
+  </si>
+  <si>
+    <t>8,11 %</t>
+  </si>
+  <si>
+    <t>Der ROI eignet sich besonders für produzierende Unternehmen als Steuerungsgröße, da er das operative Ergebnis in Relation zum eingesetzten Kapital darstellt.</t>
+  </si>
+  <si>
+    <t>Aus welchen zwei Kennzahlen setzt sich der ROI multiplikativ zusammen?</t>
+  </si>
+  <si>
+    <t>Verschuldungsgrad und Investitionsquote</t>
+  </si>
+  <si>
+    <t>Umsatzrendite und Kapitalumschlag</t>
+  </si>
+  <si>
+    <t>Abschreibungsquote und Nettoinvestitionsquote</t>
+  </si>
+  <si>
+    <t>Eigenkapitalquote und Dividendenrendite</t>
+  </si>
+  <si>
+    <t>Ein Unternehmen erwirtschaftet jährlich einen Gewinn von 15 Mio €. Dabei beträgt der Umsatz 300 Mio €, die Bilanzsumme 420 Mio €. Welche der folgenden Aussagen sind korrekt?</t>
+  </si>
+  <si>
+    <t>Der Kapitalumschlag beträgt 14 %.</t>
+  </si>
+  <si>
+    <t>Die Umsatzrendite beträgt 5 %.</t>
+  </si>
+  <si>
+    <t>Der ROI beträgt 3,58 %.</t>
+  </si>
+  <si>
+    <t>Der Kapitalumschlag liegt bei 71%.</t>
+  </si>
+  <si>
+    <t>Die Umsatzrendite liegt bei 200%.</t>
+  </si>
+  <si>
+    <t>Der ROI liegt bei 28%.</t>
+  </si>
+  <si>
+    <t>Ein Unternehmen erwirtschaftet ein NOPAT in Höhe von 50 Mio €. Dabei beträgt die Bilanzsumme 250 Mio €, die WACC betragen 8%. Berechne den EVA.</t>
+  </si>
+  <si>
+    <t>15 Mio €</t>
+  </si>
+  <si>
+    <t>20 Mio €</t>
+  </si>
+  <si>
+    <t>25 Mio €</t>
+  </si>
+  <si>
+    <t>30 Mio €</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Earnings</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>Cash Flow</t>
+  </si>
+  <si>
+    <t>Budgeting</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Weighted Average Capital Cost</t>
+  </si>
+  <si>
+    <t>Strategic</t>
+  </si>
+  <si>
+    <t>Operating</t>
+  </si>
+  <si>
+    <t>Ergebnis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategisch </t>
+  </si>
+  <si>
+    <t>Absatz</t>
+  </si>
+  <si>
+    <t>Kapitalfluss</t>
+  </si>
+  <si>
+    <t>Umsatz</t>
+  </si>
+  <si>
+    <t>Gewichtete durchschnittliche Kapitalkosten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klr </t>
+  </si>
+  <si>
+    <t>Welche Stufen bzw. Systeme der Vollkostenrechnung unterscheidet man?</t>
+  </si>
+  <si>
+    <t>Teilkostenrechnung</t>
+  </si>
+  <si>
+    <t>Kostenartenrechnung</t>
+  </si>
+  <si>
+    <t>Kostenträgerrechnung</t>
+  </si>
+  <si>
+    <t>Plankostenrechnung</t>
+  </si>
+  <si>
+    <t>Kostenstellenrechnung</t>
+  </si>
+  <si>
+    <t>Prozesskostenrechnung</t>
+  </si>
+  <si>
+    <t>Alle Aufwendungen und Erträge sind gleichzeitig auch Kosten und Leistungen.</t>
+  </si>
+  <si>
+    <t>Kostenarten nach Art der verbrauchten Produktionsfaktoren. Ziehe alle Elemente in das richtige Feld.</t>
+  </si>
+  <si>
+    <t>Gehälter</t>
+  </si>
+  <si>
+    <t>kalkulatorische Zinsen</t>
+  </si>
+  <si>
+    <t>Rohstoffe</t>
+  </si>
+  <si>
+    <t>Vorprodukte</t>
+  </si>
+  <si>
+    <t>Abschreibungen auf Sachanlagen</t>
+  </si>
+  <si>
+    <t>Handelswaren</t>
+  </si>
+  <si>
+    <t>Sozialabgaben</t>
+  </si>
+  <si>
+    <t>Fremdinstandhaltung von Anlagen</t>
+  </si>
+  <si>
+    <t>Löhne</t>
+  </si>
+  <si>
+    <t>Materialkosten</t>
+  </si>
+  <si>
+    <t>Personalkosten</t>
+  </si>
+  <si>
+    <t>Betriebsmittelkosten</t>
+  </si>
+  <si>
+    <t>Kapitalkosten</t>
+  </si>
+  <si>
+    <t>Man unterscheidet 2 Arten von Kalkulationssätzen. Welche?</t>
+  </si>
+  <si>
+    <t>Hilfskostenstellen</t>
+  </si>
+  <si>
+    <t>Maschinenstundensätze</t>
+  </si>
+  <si>
+    <t>Zuschlagssätze</t>
+  </si>
+  <si>
+    <t>Verteilungsschlüssel</t>
+  </si>
+  <si>
+    <t>Eingangsrechnungen</t>
+  </si>
+  <si>
+    <t>Um marktorientierte Entscheidungen auf Teilkostenbasis zu treffen, gliedert man die Kosten in fixe und variable Kosten.</t>
+  </si>
+  <si>
+    <t>Der Betriebsabrechnungsbogen (BAB) ist das zentrale Informationsinstrument der Kostenstellenrechnung</t>
+  </si>
+  <si>
+    <t>Die kurzfristige Preisuntergrenze deckt:</t>
+  </si>
+  <si>
+    <t>fixe Kosten</t>
+  </si>
+  <si>
+    <t>variable Kosten</t>
+  </si>
+  <si>
+    <t>Ein Auftrag kann auch ein Kostenträger sein.</t>
+  </si>
+  <si>
+    <t>Fallbeispiel - IT Unternehmen. Ziehe alle Elemente in das richtige Feld.</t>
+  </si>
+  <si>
+    <t>Serverkosten</t>
+  </si>
+  <si>
+    <t>Energiekosten</t>
+  </si>
+  <si>
+    <t>Abschreibung</t>
+  </si>
+  <si>
+    <t>Wartung</t>
+  </si>
+  <si>
+    <t>Projekt</t>
+  </si>
+  <si>
+    <t>IT Service</t>
+  </si>
+  <si>
+    <t>Kostenarten</t>
+  </si>
+  <si>
+    <t>Kostenstellen</t>
+  </si>
+  <si>
+    <t>Kostenträger</t>
+  </si>
+  <si>
+    <t>Wie berechnet man die Herstellkosten?</t>
+  </si>
+  <si>
+    <t>Materialkosten + Fertigungskosten</t>
+  </si>
+  <si>
+    <t>Materialkosten + Verwaltungskosten</t>
+  </si>
+  <si>
+    <t>Fertigungskosten + Verwaltungskosten</t>
+  </si>
+  <si>
+    <t>Verwaltungskosten + Vertriebskosten</t>
+  </si>
+  <si>
+    <t>In der KLR müssen bestimmte Aufwendungen und Erträge aus der Fibu noch korrigiert oder ergänzt werden. Diese Korrekturen bzw. Ergänzungen erfolgen durch kalkulatorische Kosten.</t>
+  </si>
+  <si>
+    <t>Welche Merkmale treffen auf das interne Rechnungswesen zu?</t>
+  </si>
+  <si>
+    <t>Kann frei gestaltet werden</t>
+  </si>
+  <si>
+    <t>Aufgaben: innerbetriebliche Planung, Steuerung, Kontrolle</t>
+  </si>
+  <si>
+    <t>Zeitnah</t>
+  </si>
+  <si>
+    <t>Gehört die Hallenbeleuchtung eines Unternehmens zu Einzel- oder Gemeinkosten?</t>
+  </si>
+  <si>
+    <t>Einzelkosten</t>
+  </si>
+  <si>
+    <t>Gemeinkosten</t>
+  </si>
+  <si>
+    <t>VWL_Mikro</t>
+  </si>
+  <si>
+    <t>Was ist der primäre Gegenstand der Mikroökonomie?</t>
+  </si>
+  <si>
+    <t>Die Abstimmung der individuellen Pläne, insbesondere durch Preisbildung, auf den Produkt- und Faktormärkten.</t>
+  </si>
+  <si>
+    <t>Die Untersuchung des wirtschaftlichen Haushaltes einzelner Unternehmen.</t>
+  </si>
+  <si>
+    <t>Preisbildung in Abhängigkeit der Produktqualität.</t>
+  </si>
+  <si>
+    <t>Wovon hängt nach geläufigen Hypothesen die von einem Haushalt nachgefragte Menge eines beliebigen Gutes pro Zeiteinheit ab?</t>
+  </si>
+  <si>
+    <t>Vom Preis des Gutes</t>
+  </si>
+  <si>
+    <t>Vom Preis anderer Güter</t>
+  </si>
+  <si>
+    <t>Vom Einkommen</t>
+  </si>
+  <si>
+    <t>Von der Bedürfnisstruktur</t>
+  </si>
+  <si>
+    <t>Vom Vermögen des Haushaltes</t>
+  </si>
+  <si>
+    <t>Warum können die individuellen Nachfragekurven der Haushalte für ein Gut unterschiedlich sein, obwohl ihre Einkommen und Vermögen sowie die Preise der anderen Güter gleich sind?</t>
+  </si>
+  <si>
+    <t>Weil das Gut in verschiedenen Zeitintervallen in unterschiedlichen Mengen produziert wird.</t>
+  </si>
+  <si>
+    <t>Die individuellen Nachfragkurven können nicht verschieden sein.</t>
+  </si>
+  <si>
+    <t>Weil ihre Bedürfnisse meist verschieden sind.</t>
+  </si>
+  <si>
+    <t>Welche Einflussfaktoren sind, abgesehen von denen der individuellen Nachfrage, bei der Marktnachfrage zusätzlich von Bedeutung?</t>
+  </si>
+  <si>
+    <t>Die Verteilung der Einkommen</t>
+  </si>
+  <si>
+    <t>Die Verteilung der Vermögen</t>
+  </si>
+  <si>
+    <t>Die größe der anbietenden Unternehmen</t>
+  </si>
+  <si>
+    <t>Die Zahl der ein bestimmtes Gut Nachfragenden Haushalte</t>
+  </si>
+  <si>
+    <t>Eine Marktangebotskurve verschiebt sich ceteris paribus nach links, wenn:</t>
+  </si>
+  <si>
+    <t>die Preise der Produktionsfaktoren fallen.</t>
+  </si>
+  <si>
+    <t>die Preise anderer Güter steigen.</t>
+  </si>
+  <si>
+    <t>technische Fortschritte realisiert werden.</t>
+  </si>
+  <si>
+    <t>Anbieter ausscheiden.</t>
+  </si>
+  <si>
+    <t>die Anbieter größere Stückgewinne als bisher erzielen wollen.</t>
+  </si>
+  <si>
+    <t>Welches ist die wichtigste Prämisse des Cobweb-Theorems?</t>
+  </si>
+  <si>
+    <t>Das Angebot reagiert nicht auf Änderungen des Marktpreises.</t>
+  </si>
+  <si>
+    <t>Das Angebot reagiert ohne Zeitverzögerung auf Änderungen des Marktpreises.</t>
+  </si>
+  <si>
+    <t>Das Angebot reagiert zeitverzögert auf Änderungen des Marktpreises.</t>
+  </si>
+  <si>
+    <t>Was drückt die Nachfrageelastizität (Preiselastizität der Nachfrage) aus?</t>
+  </si>
+  <si>
+    <t>Die Nachfrageelastizität ist ein Änderungsmaß der nachgefragten Menge in Bezug auf die angebotene Menge.</t>
+  </si>
+  <si>
+    <t>Die Nachfrageelastizität ist ein Änderungsmaß der nachgefragten Menge in Bezug auf den Preis.</t>
+  </si>
+  <si>
+    <t>Die Nachfragenelastizitäz ist ein Änderungsmaß der angetotenen Menge in Bezug auf die Nachfrage.</t>
+  </si>
+  <si>
+    <t>Bedürfnisse: Ordne die Begriffe den richtigen Feldern zu.</t>
+  </si>
+  <si>
+    <t>Hunger</t>
+  </si>
+  <si>
+    <t>Auto fahren wollen</t>
+  </si>
+  <si>
+    <t>Bildung</t>
+  </si>
+  <si>
+    <t>Tanzen</t>
+  </si>
+  <si>
+    <t>Existenzbedürfnisse</t>
+  </si>
+  <si>
+    <t>Wirtschaftliche Bedürfnisse</t>
+  </si>
+  <si>
+    <t>Kulturelle Bedürfnisse</t>
+  </si>
+  <si>
+    <t>sonstige Bedürfnisse</t>
+  </si>
+  <si>
+    <t>Wie berechnet man die Wachstumsrate?</t>
+  </si>
+  <si>
+    <t>Neuer Wert / Alter Wert</t>
+  </si>
+  <si>
+    <t>(Alter Wert + Veränderung) / Alter Wert</t>
+  </si>
+  <si>
+    <t>Veränderung / Alter Wert)</t>
+  </si>
+  <si>
+    <t>Zeitanalyse: Ordne die Beschreibungen den richtigen Feldern zu.</t>
+  </si>
+  <si>
+    <t>Alles auf einen Zeitpunkt bezogen</t>
+  </si>
+  <si>
+    <t>Vergleich zweier Gleichgewichtszustände</t>
+  </si>
+  <si>
+    <t>Wirtschaftsablauf in der Zeit</t>
+  </si>
+  <si>
+    <t>Veränderungen der funktionalen Beziehungen werden berücksichtigt</t>
+  </si>
+  <si>
+    <t>evaluatorische</t>
+  </si>
+  <si>
+    <t>statische</t>
+  </si>
+  <si>
+    <t>komperativ-statische</t>
+  </si>
+  <si>
+    <t>dynamische</t>
+  </si>
+  <si>
+    <t>VWL_Makro</t>
+  </si>
+  <si>
+    <t>Aufgabe der Volkswirtschaftlichen Gesamtrechnung ist es, …</t>
+  </si>
+  <si>
+    <t>... die Rechnungslegung der Unternehmen eines Landes zu Vereinheitlichen.</t>
+  </si>
+  <si>
+    <t>... das Ausgabegebaren des Staates im jeweils vorangegangenen Rechnungsjahr offenzulegen.</t>
+  </si>
+  <si>
+    <t>... die in einem Land durch die Wirtschaftstätigkeit während einer Periode neu geschaffenen Werte zu erfassen.</t>
+  </si>
+  <si>
+    <t>... das so gennannte Volkseinkommen und Sozialprodukt auszuweisen.</t>
+  </si>
+  <si>
+    <t>... den in einem Land in jedem Zeitpunkt vorhandenen Bestand ökonomischer Werte zu ermitteln.</t>
+  </si>
+  <si>
+    <t>Ordne die Erklärungen den richtigen Begriffen zu.</t>
+  </si>
+  <si>
+    <t>Ein System von Definitionen gesamtwirtschaftlicher Größen und deren empirische Darstellung</t>
+  </si>
+  <si>
+    <t>Die Empirische Darstellung dieser Größen</t>
+  </si>
+  <si>
+    <t>Ein System von Definitionen gesamtwirtschaftlicher Größen</t>
+  </si>
+  <si>
+    <t>Volkswirtschaftliche Gesamtrechnung (VGR)</t>
+  </si>
+  <si>
+    <t>Kreislaufanalyse</t>
+  </si>
+  <si>
+    <t>VGR im staatlichen Sinn</t>
+  </si>
+  <si>
+    <t>Nach welchen Wirtschaftsbereichen werden die Beiträge zum Bruttoinlandsprodukt in der Regel statistisch aufgeteilt?</t>
+  </si>
+  <si>
+    <t>Land- und Forstwirtschaft</t>
+  </si>
+  <si>
+    <t>Tourismus und Gastronomie</t>
+  </si>
+  <si>
+    <t>Warenproduzierendes Gewerbe</t>
+  </si>
+  <si>
+    <t>Handel und Verkehr</t>
+  </si>
+  <si>
+    <t>Dienstleistungsbereiche</t>
+  </si>
+  <si>
+    <t>Wie nennt man den Anteil der Unselbstständigeneinkommen am Volkseinkommen?</t>
+  </si>
+  <si>
+    <t>Profitquote</t>
+  </si>
+  <si>
+    <t>Lohnquote</t>
+  </si>
+  <si>
+    <t>Gehaltsquote</t>
+  </si>
+  <si>
+    <t>In welchem Zusammenhang stehen Brutto-, Netto- und Ersatzinvestition?</t>
+  </si>
+  <si>
+    <t>Bruttoinvestition = Nettoinvestition + Ersatzinvestition</t>
+  </si>
+  <si>
+    <t>Nettoinvestition = Bruttoinvestition + Ersatzinvestition</t>
+  </si>
+  <si>
+    <t>Bruttoinvestition = nettoinvestition - Ersatzinvestition</t>
+  </si>
+  <si>
+    <t>Ordne die Institutionen des staatlichen Sektors richtig zu.</t>
+  </si>
+  <si>
+    <t>Arbeitsämter</t>
+  </si>
+  <si>
+    <t>Lastenausgleichfonds</t>
+  </si>
+  <si>
+    <t>Stiftung Warentests</t>
+  </si>
+  <si>
+    <t>Gemeindeverbände</t>
+  </si>
+  <si>
+    <t>Gebietskörperschaften</t>
+  </si>
+  <si>
+    <t>öffentliche Anstalten</t>
+  </si>
+  <si>
+    <t>Vermögen</t>
+  </si>
+  <si>
+    <t>Zweckverbände</t>
+  </si>
+  <si>
+    <t>Woraus besteht der Sektor Private Haushalte?</t>
+  </si>
+  <si>
+    <t>Private Ein- und Mehrpersonenhaushalte</t>
+  </si>
+  <si>
+    <t>Anstalthaushalte</t>
+  </si>
+  <si>
+    <t>Private Institutionen ohne Erwerbscharakter</t>
+  </si>
+  <si>
+    <t>Private Institutionen mit Erwerbscharakter</t>
+  </si>
+  <si>
+    <t>Wie lauten die beiden Ausgangsfragen der KEYNESschen Analyse?</t>
+  </si>
+  <si>
+    <t>Wie lässt sich das Volkseinkommen am besten berechnen?</t>
+  </si>
+  <si>
+    <t>Wie lässt sich das Volkseinkommen bei gesamtwirtschaftlichem Gleichgewicht bestimmen?</t>
+  </si>
+  <si>
+    <t>Wie ändert sich das Volkseinkommen nach einer autonomen Ausgabenänderung?</t>
+  </si>
+  <si>
+    <t>Wie ändert sich das Volkseinkommen nach einer autonomen Einkommensänderung?</t>
+  </si>
+  <si>
+    <t>Warum berechnet man das Volkseinkommen?</t>
+  </si>
+  <si>
+    <t>Diese beiden Fragen lassen sich  methodisch gesehen nur beantworten ...</t>
+  </si>
+  <si>
+    <t>... im Rahmen der Volkswirtschaftlichen Gesamtrechnung.</t>
+  </si>
+  <si>
+    <t>... durch eine noch umfassendere Ex-post-Analyse.</t>
+  </si>
+  <si>
+    <t>... durch eine Ex-ante-Analyse unter Verwendung des begrifflichen Instrumentariums der VGR.</t>
+  </si>
+  <si>
+    <t>... weder durch eine Ex-post- noch durch eine Ex-ante-Analyse, sondern nur rein intuitiv.</t>
+  </si>
+  <si>
+    <t>... sowohl in einem Ex-ante-Grundmodell als auch im Rahmen eines erwiterten Hypothesensystems.</t>
+  </si>
+  <si>
+    <t>Der dritte KEYNES-Fall ist dadurch gekennzeichnet, dass die folgenden Größen zu hoch sind um ein Vollbeschäftigungsgleichgewicht zuzulassen:</t>
+  </si>
+  <si>
+    <t>das Nominallohnniveau</t>
+  </si>
+  <si>
+    <t>das Preisniveau</t>
+  </si>
+  <si>
+    <t>das Reallohnniveau</t>
+  </si>
+  <si>
+    <t>das Zinsniveau</t>
   </si>
 </sst>
 </file>
@@ -4082,7 +4856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4093,6 +4867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4433,10 +5208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet 1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AI252"/>
+  <dimension ref="A1:AM311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="C240" sqref="C240"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="A252" sqref="A223:A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13910,13 +14685,13 @@
         <v>1</v>
       </c>
       <c r="Z233" t="s">
-        <v>1285</v>
+        <v>1347</v>
       </c>
       <c r="AA233">
         <v>0</v>
       </c>
       <c r="AB233" t="s">
-        <v>1286</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="234" spans="1:35" x14ac:dyDescent="0.2">
@@ -13927,16 +14702,16 @@
         <v>21</v>
       </c>
       <c r="C234" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E234" t="s">
         <v>1287</v>
       </c>
-      <c r="D234" t="s">
+      <c r="F234" t="s">
         <v>1288</v>
-      </c>
-      <c r="E234" t="s">
-        <v>1289</v>
-      </c>
-      <c r="F234" t="s">
-        <v>1290</v>
       </c>
       <c r="O234">
         <v>1</v>
@@ -13948,13 +14723,13 @@
         <v>2</v>
       </c>
       <c r="Z234" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AA234" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AB234" t="s">
         <v>1291</v>
-      </c>
-      <c r="AA234" t="s">
-        <v>1292</v>
-      </c>
-      <c r="AB234" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="235" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13965,7 +14740,7 @@
         <v>269</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="236" spans="1:35" x14ac:dyDescent="0.2">
@@ -13976,16 +14751,16 @@
         <v>71</v>
       </c>
       <c r="C236" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E236" t="s">
         <v>1294</v>
       </c>
-      <c r="D236" t="s">
+      <c r="F236" t="s">
         <v>1295</v>
-      </c>
-      <c r="E236" t="s">
-        <v>1296</v>
-      </c>
-      <c r="F236" t="s">
-        <v>1297</v>
       </c>
       <c r="O236">
         <v>3</v>
@@ -13997,105 +14772,105 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+    <row r="237" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
         <v>1240</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E237" s="4" t="s">
         <v>1298</v>
       </c>
-      <c r="D237" t="s">
+      <c r="F237" s="4" t="s">
         <v>1299</v>
       </c>
-      <c r="E237" t="s">
+      <c r="G237" s="4" t="s">
         <v>1300</v>
       </c>
-      <c r="F237" t="s">
+      <c r="H237" s="4" t="s">
         <v>1301</v>
       </c>
-      <c r="G237" t="s">
+      <c r="I237" s="4" t="s">
         <v>1302</v>
       </c>
-      <c r="H237" t="s">
+      <c r="J237" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="I237" t="s">
+      <c r="K237" s="4" t="s">
         <v>1304</v>
       </c>
-      <c r="J237" t="s">
+      <c r="L237" s="4" t="s">
         <v>1305</v>
       </c>
-      <c r="K237" t="s">
+      <c r="M237" s="4" t="s">
         <v>1306</v>
       </c>
-      <c r="L237" t="s">
+      <c r="O237" s="4">
+        <v>8</v>
+      </c>
+      <c r="P237" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q237" s="4">
+        <v>5</v>
+      </c>
+      <c r="R237" s="4">
+        <v>4</v>
+      </c>
+      <c r="S237" s="4">
+        <v>1</v>
+      </c>
+      <c r="T237" s="4">
+        <v>6</v>
+      </c>
+      <c r="U237" s="4">
+        <v>9</v>
+      </c>
+      <c r="V237" s="4">
+        <v>10</v>
+      </c>
+      <c r="W237" s="4">
+        <v>2</v>
+      </c>
+      <c r="X237" s="4">
+        <v>7</v>
+      </c>
+      <c r="Z237" s="4" t="s">
         <v>1307</v>
       </c>
-      <c r="M237" t="s">
+      <c r="AA237" s="4" t="s">
         <v>1308</v>
       </c>
-      <c r="O237">
-        <v>8</v>
-      </c>
-      <c r="P237">
-        <v>3</v>
-      </c>
-      <c r="Q237">
-        <v>5</v>
-      </c>
-      <c r="R237">
-        <v>4</v>
-      </c>
-      <c r="S237">
-        <v>1</v>
-      </c>
-      <c r="T237">
-        <v>6</v>
-      </c>
-      <c r="U237">
-        <v>9</v>
-      </c>
-      <c r="V237">
-        <v>10</v>
-      </c>
-      <c r="W237">
-        <v>2</v>
-      </c>
-      <c r="X237">
-        <v>7</v>
-      </c>
-      <c r="Z237" t="s">
+      <c r="AB237" s="4" t="s">
         <v>1309</v>
       </c>
-      <c r="AA237" t="s">
+      <c r="AC237" s="4" t="s">
         <v>1310</v>
       </c>
-      <c r="AB237" t="s">
+      <c r="AD237" s="4" t="s">
         <v>1311</v>
       </c>
-      <c r="AC237" t="s">
+      <c r="AE237" s="4" t="s">
         <v>1312</v>
       </c>
-      <c r="AD237" t="s">
+      <c r="AF237" s="4" t="s">
         <v>1313</v>
       </c>
-      <c r="AE237" t="s">
+      <c r="AG237" s="4" t="s">
         <v>1314</v>
       </c>
-      <c r="AF237" t="s">
+      <c r="AH237" s="4" t="s">
         <v>1315</v>
       </c>
-      <c r="AG237" t="s">
+      <c r="AI237" s="4" t="s">
         <v>1316</v>
-      </c>
-      <c r="AH237" t="s">
-        <v>1317</v>
-      </c>
-      <c r="AI237" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="238" spans="1:35" x14ac:dyDescent="0.2">
@@ -14106,22 +14881,22 @@
         <v>34</v>
       </c>
       <c r="C238" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D238" t="s">
         <v>1320</v>
       </c>
-      <c r="D238" t="s">
+      <c r="E238" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F238" t="s">
         <v>1322</v>
       </c>
-      <c r="E238" t="s">
+      <c r="G238" t="s">
         <v>1323</v>
       </c>
-      <c r="F238" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G238" t="s">
-        <v>1325</v>
-      </c>
       <c r="H238" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="O238">
         <v>0</v>
@@ -14147,28 +14922,28 @@
         <v>22</v>
       </c>
       <c r="C239" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E239" t="s">
         <v>1326</v>
-      </c>
-      <c r="D239" t="s">
-        <v>1327</v>
-      </c>
-      <c r="E239" t="s">
-        <v>1328</v>
       </c>
       <c r="F239" t="s">
         <v>807</v>
       </c>
       <c r="G239" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H239" t="s">
+        <v>1328</v>
+      </c>
+      <c r="I239" t="s">
         <v>1329</v>
       </c>
-      <c r="H239" t="s">
+      <c r="J239" t="s">
         <v>1330</v>
-      </c>
-      <c r="I239" t="s">
-        <v>1331</v>
-      </c>
-      <c r="J239" t="s">
-        <v>1332</v>
       </c>
       <c r="O239">
         <v>1</v>
@@ -14199,102 +14974,3114 @@
       <c r="B240" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C240" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1333</v>
+      </c>
+      <c r="O240">
+        <v>3</v>
+      </c>
+      <c r="P240">
+        <v>1</v>
+      </c>
+      <c r="Q240">
+        <v>2</v>
+      </c>
+      <c r="Z240" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AA240" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AB240" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="241" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>233</v>
       </c>
       <c r="B241" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C241" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F241" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G241" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H241" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I241" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J241" t="s">
+        <v>1342</v>
+      </c>
+      <c r="K241" t="s">
+        <v>1343</v>
+      </c>
+      <c r="O241">
+        <v>2</v>
+      </c>
+      <c r="P241">
+        <v>1</v>
+      </c>
+      <c r="Q241">
+        <v>2</v>
+      </c>
+      <c r="R241">
+        <v>1</v>
+      </c>
+      <c r="S241">
+        <v>2</v>
+      </c>
+      <c r="T241">
+        <v>1</v>
+      </c>
+      <c r="U241">
+        <v>2</v>
+      </c>
+      <c r="V241">
+        <v>1</v>
+      </c>
+      <c r="Z241" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AA241" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="242" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>233</v>
       </c>
       <c r="B242" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C242" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F242" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G242" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H242" t="s">
+        <v>1354</v>
+      </c>
+      <c r="I242" t="s">
+        <v>1355</v>
+      </c>
+      <c r="O242">
+        <v>1</v>
+      </c>
+      <c r="P242">
+        <v>1</v>
+      </c>
+      <c r="Q242">
+        <v>2</v>
+      </c>
+      <c r="R242">
+        <v>2</v>
+      </c>
+      <c r="S242">
+        <v>1</v>
+      </c>
+      <c r="T242">
+        <v>2</v>
+      </c>
+      <c r="Z242" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AA242" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="243" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>233</v>
       </c>
       <c r="B243" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C243" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E243" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F243" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G243" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H243" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I243" t="s">
+        <v>1364</v>
+      </c>
+      <c r="J243" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O243">
+        <v>1</v>
+      </c>
+      <c r="P243">
+        <v>0</v>
+      </c>
+      <c r="Q243">
+        <v>1</v>
+      </c>
+      <c r="R243">
+        <v>0</v>
+      </c>
+      <c r="S243">
+        <v>1</v>
+      </c>
+      <c r="T243">
+        <v>0</v>
+      </c>
+      <c r="U243">
+        <v>1</v>
+      </c>
+      <c r="V243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>233</v>
       </c>
       <c r="B244" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C244" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E244" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F244" t="s">
+        <v>1369</v>
+      </c>
+      <c r="O244">
+        <v>4</v>
+      </c>
+      <c r="P244">
+        <v>2</v>
+      </c>
+      <c r="Q244">
+        <v>3</v>
+      </c>
+      <c r="R244">
+        <v>1</v>
+      </c>
+      <c r="Z244" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AA244" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AB244" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AC244" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="245" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>233</v>
       </c>
       <c r="B245" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C245" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E245" t="s">
+        <v>763</v>
+      </c>
+      <c r="F245" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G245" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H245" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I245" t="s">
+        <v>695</v>
+      </c>
+      <c r="O245">
+        <v>0</v>
+      </c>
+      <c r="P245">
+        <v>1</v>
+      </c>
+      <c r="Q245">
+        <v>1</v>
+      </c>
+      <c r="R245">
+        <v>0</v>
+      </c>
+      <c r="S245">
+        <v>1</v>
+      </c>
+      <c r="T245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>233</v>
       </c>
       <c r="B246" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C246" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="O246">
+        <v>1</v>
+      </c>
+      <c r="P246">
+        <v>2</v>
+      </c>
+      <c r="Q246">
+        <v>3</v>
+      </c>
+      <c r="Z246" t="s">
+        <v>763</v>
+      </c>
+      <c r="AA246" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="247" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>233</v>
       </c>
       <c r="B247" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C247" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E247" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F247" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G247" t="s">
+        <v>1383</v>
+      </c>
+      <c r="O247">
+        <v>0</v>
+      </c>
+      <c r="P247">
+        <v>0</v>
+      </c>
+      <c r="Q247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>233</v>
       </c>
       <c r="B248" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C248" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D248" t="s">
+        <v>278</v>
+      </c>
+      <c r="E248" t="s">
+        <v>279</v>
+      </c>
+      <c r="O248">
+        <v>1</v>
+      </c>
+      <c r="P248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>233</v>
       </c>
       <c r="B249" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C249" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E249" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F249" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G249" t="s">
+        <v>1389</v>
+      </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
+      <c r="P249">
+        <v>1</v>
+      </c>
+      <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="R249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>233</v>
       </c>
       <c r="B250" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C250" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E250" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F250" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G250" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H250" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I250" t="s">
+        <v>1396</v>
+      </c>
+      <c r="O250">
+        <v>0</v>
+      </c>
+      <c r="P250">
+        <v>1</v>
+      </c>
+      <c r="Q250">
+        <v>1</v>
+      </c>
+      <c r="R250">
+        <v>1</v>
+      </c>
+      <c r="S250">
+        <v>0</v>
+      </c>
+      <c r="T250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>233</v>
       </c>
       <c r="B251" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+      <c r="C251" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E251" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F251" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G251" t="s">
+        <v>1401</v>
+      </c>
+      <c r="O251">
+        <v>0</v>
+      </c>
+      <c r="P251">
+        <v>0</v>
+      </c>
+      <c r="Q251">
+        <v>0</v>
+      </c>
+      <c r="R251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="C252" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H252" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I252" s="4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="J252" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K252" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="L252" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="M252" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="O252" s="4">
+        <v>4</v>
+      </c>
+      <c r="P252" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q252" s="4">
+        <v>1</v>
+      </c>
+      <c r="R252" s="4">
+        <v>8</v>
+      </c>
+      <c r="S252" s="4">
+        <v>5</v>
+      </c>
+      <c r="T252" s="4">
+        <v>2</v>
+      </c>
+      <c r="U252" s="4">
+        <v>9</v>
+      </c>
+      <c r="V252" s="4">
+        <v>10</v>
+      </c>
+      <c r="W252" s="4">
+        <v>3</v>
+      </c>
+      <c r="X252" s="4">
+        <v>7</v>
+      </c>
+      <c r="Z252" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AA252" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AB252" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AC252" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="AD252" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AE252" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AF252" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AG252" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AH252" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="AI252" s="4" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="253" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A253" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="G253" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="H253" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="I253" s="5"/>
+      <c r="J253" s="5"/>
+      <c r="K253" s="5"/>
+      <c r="L253" s="5"/>
+      <c r="M253" s="5"/>
+      <c r="N253" s="5"/>
+      <c r="O253" s="5">
+        <v>1</v>
+      </c>
+      <c r="P253" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q253" s="5">
+        <v>0</v>
+      </c>
+      <c r="R253" s="5">
+        <v>1</v>
+      </c>
+      <c r="S253" s="5">
+        <v>0</v>
+      </c>
+      <c r="T253" s="5"/>
+      <c r="U253" s="5"/>
+      <c r="V253" s="5"/>
+      <c r="W253" s="5"/>
+      <c r="X253" s="5"/>
+      <c r="Y253" s="5"/>
+      <c r="Z253" s="5"/>
+      <c r="AA253" s="5"/>
+      <c r="AB253" s="5"/>
+      <c r="AC253" s="5"/>
+      <c r="AD253" s="5"/>
+      <c r="AE253" s="5"/>
+      <c r="AF253" s="5"/>
+      <c r="AG253" s="5"/>
+      <c r="AH253" s="5"/>
+      <c r="AI253" s="5"/>
+      <c r="AJ253" s="5"/>
+      <c r="AK253" s="5"/>
+      <c r="AL253" s="5"/>
+      <c r="AM253" s="5"/>
+    </row>
+    <row r="254" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A254" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C254" t="s">
+        <v>825</v>
+      </c>
+      <c r="D254" t="s">
+        <v>826</v>
+      </c>
+      <c r="E254" t="s">
+        <v>740</v>
+      </c>
+      <c r="F254" t="s">
+        <v>827</v>
+      </c>
+      <c r="G254" t="s">
+        <v>828</v>
+      </c>
+      <c r="H254" t="s">
+        <v>829</v>
+      </c>
+      <c r="O254">
+        <v>2</v>
+      </c>
+      <c r="P254">
+        <v>3</v>
+      </c>
+      <c r="Q254">
+        <v>4</v>
+      </c>
+      <c r="R254">
+        <v>5</v>
+      </c>
+      <c r="S254">
+        <v>1</v>
+      </c>
+      <c r="Z254" t="s">
+        <v>830</v>
+      </c>
+      <c r="AA254" t="s">
+        <v>831</v>
+      </c>
+      <c r="AB254" t="s">
+        <v>832</v>
+      </c>
+      <c r="AC254" t="s">
+        <v>833</v>
+      </c>
+      <c r="AD254" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="255" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A255" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C255" t="s">
+        <v>835</v>
+      </c>
+      <c r="D255" t="s">
+        <v>836</v>
+      </c>
+      <c r="E255" t="s">
+        <v>232</v>
+      </c>
+      <c r="F255" t="s">
+        <v>837</v>
+      </c>
+      <c r="G255" t="s">
+        <v>838</v>
+      </c>
+      <c r="H255" t="s">
+        <v>839</v>
+      </c>
+      <c r="I255" t="s">
+        <v>827</v>
+      </c>
+      <c r="J255" t="s">
+        <v>740</v>
+      </c>
+      <c r="K255" t="s">
+        <v>840</v>
+      </c>
+      <c r="L255" t="s">
+        <v>841</v>
+      </c>
+      <c r="O255">
+        <v>1</v>
+      </c>
+      <c r="P255">
+        <v>2</v>
+      </c>
+      <c r="Q255">
+        <v>1</v>
+      </c>
+      <c r="R255">
+        <v>2</v>
+      </c>
+      <c r="S255">
+        <v>1</v>
+      </c>
+      <c r="T255">
+        <v>2</v>
+      </c>
+      <c r="U255">
+        <v>1</v>
+      </c>
+      <c r="V255">
+        <v>2</v>
+      </c>
+      <c r="W255">
+        <v>1</v>
+      </c>
+      <c r="Z255" t="s">
+        <v>842</v>
+      </c>
+      <c r="AA255" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="256" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A256" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C256" t="s">
+        <v>844</v>
+      </c>
+      <c r="D256" t="s">
+        <v>845</v>
+      </c>
+      <c r="E256" t="s">
+        <v>846</v>
+      </c>
+      <c r="F256" t="s">
+        <v>847</v>
+      </c>
+      <c r="O256">
+        <v>0</v>
+      </c>
+      <c r="P256">
+        <v>1</v>
+      </c>
+      <c r="Q256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A257" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C257" t="s">
+        <v>848</v>
+      </c>
+      <c r="D257" t="s">
+        <v>849</v>
+      </c>
+      <c r="E257" t="s">
+        <v>850</v>
+      </c>
+      <c r="F257" t="s">
+        <v>851</v>
+      </c>
+      <c r="O257">
+        <v>1</v>
+      </c>
+      <c r="P257">
+        <v>0</v>
+      </c>
+      <c r="Q257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A258" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C258" t="s">
+        <v>852</v>
+      </c>
+      <c r="D258" t="s">
+        <v>853</v>
+      </c>
+      <c r="E258" t="s">
+        <v>839</v>
+      </c>
+      <c r="F258" t="s">
+        <v>231</v>
+      </c>
+      <c r="G258" t="s">
+        <v>801</v>
+      </c>
+      <c r="H258" t="s">
+        <v>854</v>
+      </c>
+      <c r="I258" t="s">
+        <v>855</v>
+      </c>
+      <c r="J258" t="s">
+        <v>856</v>
+      </c>
+      <c r="K258" t="s">
+        <v>857</v>
+      </c>
+      <c r="L258" t="s">
+        <v>858</v>
+      </c>
+      <c r="O258">
+        <v>1</v>
+      </c>
+      <c r="P258">
+        <v>0</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>1</v>
+      </c>
+      <c r="S258">
+        <v>0</v>
+      </c>
+      <c r="T258">
+        <v>1</v>
+      </c>
+      <c r="U258">
+        <v>0</v>
+      </c>
+      <c r="V258">
+        <v>1</v>
+      </c>
+      <c r="W258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A259" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C259" t="s">
+        <v>825</v>
+      </c>
+      <c r="D259" t="s">
+        <v>859</v>
+      </c>
+      <c r="E259" t="s">
+        <v>860</v>
+      </c>
+      <c r="F259" t="s">
+        <v>861</v>
+      </c>
+      <c r="G259" t="s">
+        <v>862</v>
+      </c>
+      <c r="H259" t="s">
+        <v>863</v>
+      </c>
+      <c r="O259">
+        <v>2</v>
+      </c>
+      <c r="P259">
+        <v>5</v>
+      </c>
+      <c r="Q259">
+        <v>1</v>
+      </c>
+      <c r="R259">
+        <v>3</v>
+      </c>
+      <c r="S259">
+        <v>4</v>
+      </c>
+      <c r="Z259" t="s">
+        <v>853</v>
+      </c>
+      <c r="AA259" t="s">
+        <v>855</v>
+      </c>
+      <c r="AB259" t="s">
+        <v>801</v>
+      </c>
+      <c r="AC259" t="s">
+        <v>858</v>
+      </c>
+      <c r="AD259" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="260" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A260" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C260" t="s">
+        <v>825</v>
+      </c>
+      <c r="D260" t="s">
+        <v>864</v>
+      </c>
+      <c r="E260" t="s">
+        <v>865</v>
+      </c>
+      <c r="F260" t="s">
+        <v>866</v>
+      </c>
+      <c r="G260" t="s">
+        <v>867</v>
+      </c>
+      <c r="H260" t="s">
+        <v>868</v>
+      </c>
+      <c r="O260">
+        <v>1</v>
+      </c>
+      <c r="P260">
+        <v>2</v>
+      </c>
+      <c r="Q260">
+        <v>3</v>
+      </c>
+      <c r="R260">
+        <v>4</v>
+      </c>
+      <c r="S260">
+        <v>5</v>
+      </c>
+      <c r="Z260" t="s">
+        <v>853</v>
+      </c>
+      <c r="AA260" t="s">
+        <v>855</v>
+      </c>
+      <c r="AB260" t="s">
+        <v>801</v>
+      </c>
+      <c r="AC260" t="s">
+        <v>857</v>
+      </c>
+      <c r="AD260" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="261" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A261" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C261" t="s">
+        <v>848</v>
+      </c>
+      <c r="D261" t="s">
+        <v>869</v>
+      </c>
+      <c r="E261" t="s">
+        <v>870</v>
+      </c>
+      <c r="F261" t="s">
+        <v>871</v>
+      </c>
+      <c r="G261" t="s">
+        <v>872</v>
+      </c>
+      <c r="O261">
+        <v>1</v>
+      </c>
+      <c r="P261">
+        <v>0</v>
+      </c>
+      <c r="Q261">
+        <v>0</v>
+      </c>
+      <c r="R261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A262" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C262" t="s">
+        <v>825</v>
+      </c>
+      <c r="D262" t="s">
+        <v>873</v>
+      </c>
+      <c r="E262" t="s">
+        <v>874</v>
+      </c>
+      <c r="F262" t="s">
+        <v>875</v>
+      </c>
+      <c r="G262" t="s">
+        <v>876</v>
+      </c>
+      <c r="O262">
+        <v>2</v>
+      </c>
+      <c r="P262">
+        <v>1</v>
+      </c>
+      <c r="Q262">
+        <v>1</v>
+      </c>
+      <c r="R262">
+        <v>2</v>
+      </c>
+      <c r="Z262" t="s">
+        <v>877</v>
+      </c>
+      <c r="AA262" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="263" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4"/>
+      <c r="E263" s="4"/>
+      <c r="F263" s="4"/>
+      <c r="G263" s="4"/>
+      <c r="H263" s="4"/>
+      <c r="I263" s="4"/>
+      <c r="J263" s="4"/>
+      <c r="K263" s="4"/>
+      <c r="L263" s="4"/>
+      <c r="M263" s="4"/>
+      <c r="N263" s="4"/>
+      <c r="O263" s="4"/>
+      <c r="P263" s="4"/>
+      <c r="Q263" s="4"/>
+      <c r="R263" s="4"/>
+      <c r="S263" s="4"/>
+      <c r="T263" s="4"/>
+      <c r="U263" s="4"/>
+      <c r="V263" s="4"/>
+      <c r="W263" s="4"/>
+      <c r="X263" s="4"/>
+      <c r="Y263" s="4"/>
+      <c r="Z263" s="4"/>
+      <c r="AA263" s="4"/>
+      <c r="AB263" s="4"/>
+      <c r="AC263" s="4"/>
+      <c r="AD263" s="4"/>
+      <c r="AE263" s="4"/>
+      <c r="AF263" s="4"/>
+      <c r="AG263" s="4"/>
+      <c r="AH263" s="4"/>
+      <c r="AI263" s="4"/>
+      <c r="AJ263" s="4"/>
+      <c r="AK263" s="4"/>
+      <c r="AL263" s="4"/>
+      <c r="AM263" s="4"/>
+    </row>
+    <row r="264" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A264" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C264" t="s">
+        <v>825</v>
+      </c>
+      <c r="D264" t="s">
+        <v>879</v>
+      </c>
+      <c r="E264" t="s">
+        <v>880</v>
+      </c>
+      <c r="F264" t="s">
+        <v>881</v>
+      </c>
+      <c r="G264" t="s">
+        <v>882</v>
+      </c>
+      <c r="H264" t="s">
+        <v>883</v>
+      </c>
+      <c r="I264" t="s">
+        <v>884</v>
+      </c>
+      <c r="J264" t="s">
+        <v>885</v>
+      </c>
+      <c r="K264" t="s">
+        <v>273</v>
+      </c>
+      <c r="O264">
+        <v>1</v>
+      </c>
+      <c r="P264">
+        <v>1</v>
+      </c>
+      <c r="Q264">
+        <v>3</v>
+      </c>
+      <c r="R264">
+        <v>2</v>
+      </c>
+      <c r="S264">
+        <v>1</v>
+      </c>
+      <c r="T264">
+        <v>3</v>
+      </c>
+      <c r="U264">
+        <v>3</v>
+      </c>
+      <c r="V264">
+        <v>2</v>
+      </c>
+      <c r="Z264" t="s">
+        <v>886</v>
+      </c>
+      <c r="AA264" t="s">
+        <v>887</v>
+      </c>
+      <c r="AB264" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="265" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A265" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C265" t="s">
+        <v>848</v>
+      </c>
+      <c r="D265" t="s">
+        <v>889</v>
+      </c>
+      <c r="E265" t="s">
+        <v>890</v>
+      </c>
+      <c r="F265" t="s">
+        <v>891</v>
+      </c>
+      <c r="G265" t="s">
+        <v>892</v>
+      </c>
+      <c r="O265">
+        <v>1</v>
+      </c>
+      <c r="P265">
+        <v>0</v>
+      </c>
+      <c r="Q265">
+        <v>0</v>
+      </c>
+      <c r="R265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A266" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C266" t="s">
+        <v>825</v>
+      </c>
+      <c r="D266" t="s">
+        <v>893</v>
+      </c>
+      <c r="E266" t="s">
+        <v>894</v>
+      </c>
+      <c r="F266" t="s">
+        <v>895</v>
+      </c>
+      <c r="G266" t="s">
+        <v>896</v>
+      </c>
+      <c r="H266" t="s">
+        <v>897</v>
+      </c>
+      <c r="I266" t="s">
+        <v>898</v>
+      </c>
+      <c r="O266">
+        <v>1</v>
+      </c>
+      <c r="P266">
+        <v>1</v>
+      </c>
+      <c r="Q266">
+        <v>2</v>
+      </c>
+      <c r="R266">
+        <v>2</v>
+      </c>
+      <c r="S266">
+        <v>3</v>
+      </c>
+      <c r="T266">
+        <v>3</v>
+      </c>
+      <c r="Z266" t="s">
+        <v>899</v>
+      </c>
+      <c r="AA266" t="s">
+        <v>900</v>
+      </c>
+      <c r="AB266" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="267" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A267" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4"/>
+      <c r="F267" s="4"/>
+      <c r="G267" s="4"/>
+      <c r="H267" s="4"/>
+      <c r="I267" s="4"/>
+      <c r="J267" s="4"/>
+      <c r="K267" s="4"/>
+      <c r="L267" s="4"/>
+      <c r="M267" s="4"/>
+      <c r="N267" s="4"/>
+      <c r="O267" s="4"/>
+      <c r="P267" s="4"/>
+      <c r="Q267" s="4"/>
+      <c r="R267" s="4"/>
+      <c r="S267" s="4"/>
+      <c r="T267" s="4"/>
+      <c r="U267" s="4"/>
+      <c r="V267" s="4"/>
+      <c r="W267" s="4"/>
+      <c r="X267" s="4"/>
+      <c r="Y267" s="4"/>
+      <c r="Z267" s="4"/>
+      <c r="AA267" s="4"/>
+      <c r="AB267" s="4"/>
+      <c r="AC267" s="4"/>
+      <c r="AD267" s="4"/>
+      <c r="AE267" s="4"/>
+      <c r="AF267" s="4"/>
+      <c r="AG267" s="4"/>
+      <c r="AH267" s="4"/>
+      <c r="AI267" s="4"/>
+      <c r="AJ267" s="4"/>
+      <c r="AK267" s="4"/>
+      <c r="AL267" s="4"/>
+      <c r="AM267" s="4"/>
+    </row>
+    <row r="268" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A268" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E268" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G268" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H268" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I268" t="s">
+        <v>1425</v>
+      </c>
+      <c r="O268">
+        <v>0</v>
+      </c>
+      <c r="P268">
+        <v>1</v>
+      </c>
+      <c r="Q268">
+        <v>1</v>
+      </c>
+      <c r="R268">
+        <v>0</v>
+      </c>
+      <c r="S268">
+        <v>1</v>
+      </c>
+      <c r="T268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A269" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D269" t="s">
+        <v>278</v>
+      </c>
+      <c r="E269" t="s">
+        <v>279</v>
+      </c>
+      <c r="O269">
+        <v>0</v>
+      </c>
+      <c r="P269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A270" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E270" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G270" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H270" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I270" t="s">
+        <v>1433</v>
+      </c>
+      <c r="J270" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K270" t="s">
+        <v>1435</v>
+      </c>
+      <c r="L270" t="s">
+        <v>1436</v>
+      </c>
+      <c r="M270" t="s">
+        <v>710</v>
+      </c>
+      <c r="O270">
+        <v>2</v>
+      </c>
+      <c r="P270">
+        <v>4</v>
+      </c>
+      <c r="Q270">
+        <v>1</v>
+      </c>
+      <c r="R270">
+        <v>1</v>
+      </c>
+      <c r="S270">
+        <v>3</v>
+      </c>
+      <c r="T270">
+        <v>1</v>
+      </c>
+      <c r="U270">
+        <v>2</v>
+      </c>
+      <c r="V270">
+        <v>3</v>
+      </c>
+      <c r="W270">
+        <v>2</v>
+      </c>
+      <c r="X270">
+        <v>1</v>
+      </c>
+      <c r="Z270" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AA270" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AB270" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AC270" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="271" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A271" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E271" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F271" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G271" t="s">
+        <v>838</v>
+      </c>
+      <c r="H271" t="s">
+        <v>1445</v>
+      </c>
+      <c r="I271" t="s">
+        <v>1446</v>
+      </c>
+      <c r="O271">
+        <v>0</v>
+      </c>
+      <c r="P271">
+        <v>1</v>
+      </c>
+      <c r="Q271">
+        <v>1</v>
+      </c>
+      <c r="R271">
+        <v>0</v>
+      </c>
+      <c r="S271">
+        <v>0</v>
+      </c>
+      <c r="T271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A272" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D272" t="s">
+        <v>278</v>
+      </c>
+      <c r="E272" t="s">
+        <v>279</v>
+      </c>
+      <c r="O272">
+        <v>1</v>
+      </c>
+      <c r="P272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A273" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D273" t="s">
+        <v>278</v>
+      </c>
+      <c r="E273" t="s">
+        <v>279</v>
+      </c>
+      <c r="O273">
+        <v>1</v>
+      </c>
+      <c r="P273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A274" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1451</v>
+      </c>
+      <c r="O274">
+        <v>0</v>
+      </c>
+      <c r="P274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A275" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D275" t="s">
+        <v>278</v>
+      </c>
+      <c r="E275" t="s">
+        <v>279</v>
+      </c>
+      <c r="O275">
+        <v>1</v>
+      </c>
+      <c r="P275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A276" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F276" t="s">
+        <v>230</v>
+      </c>
+      <c r="G276" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H276" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I276" t="s">
+        <v>231</v>
+      </c>
+      <c r="J276" t="s">
+        <v>1458</v>
+      </c>
+      <c r="K276" t="s">
+        <v>926</v>
+      </c>
+      <c r="L276" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O276">
+        <v>1</v>
+      </c>
+      <c r="P276">
+        <v>1</v>
+      </c>
+      <c r="Q276">
+        <v>1</v>
+      </c>
+      <c r="R276">
+        <v>1</v>
+      </c>
+      <c r="S276">
+        <v>2</v>
+      </c>
+      <c r="T276">
+        <v>2</v>
+      </c>
+      <c r="U276">
+        <v>3</v>
+      </c>
+      <c r="V276">
+        <v>3</v>
+      </c>
+      <c r="Z276" t="s">
+        <v>1460</v>
+      </c>
+      <c r="AA276" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AB276" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="277" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A277" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4"/>
+      <c r="E277" s="4"/>
+      <c r="F277" s="4"/>
+      <c r="G277" s="4"/>
+      <c r="H277" s="4"/>
+      <c r="I277" s="4"/>
+      <c r="J277" s="4"/>
+      <c r="K277" s="4"/>
+      <c r="L277" s="4"/>
+      <c r="M277" s="4"/>
+      <c r="N277" s="4"/>
+      <c r="O277" s="4"/>
+      <c r="P277" s="4"/>
+      <c r="Q277" s="4"/>
+      <c r="R277" s="4"/>
+      <c r="S277" s="4"/>
+      <c r="T277" s="4"/>
+      <c r="U277" s="4"/>
+      <c r="V277" s="4"/>
+      <c r="W277" s="4"/>
+      <c r="X277" s="4"/>
+      <c r="Y277" s="4"/>
+      <c r="Z277" s="4"/>
+      <c r="AA277" s="4"/>
+      <c r="AB277" s="4"/>
+      <c r="AC277" s="4"/>
+      <c r="AD277" s="4"/>
+      <c r="AE277" s="4"/>
+      <c r="AF277" s="4"/>
+      <c r="AG277" s="4"/>
+      <c r="AH277" s="4"/>
+      <c r="AI277" s="4"/>
+      <c r="AJ277" s="4"/>
+      <c r="AK277" s="4"/>
+      <c r="AL277" s="4"/>
+      <c r="AM277" s="4"/>
+    </row>
+    <row r="278" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A278" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F278" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G278" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O278">
+        <v>1</v>
+      </c>
+      <c r="P278">
+        <v>0</v>
+      </c>
+      <c r="Q278">
+        <v>0</v>
+      </c>
+      <c r="R278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A279" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D279" t="s">
+        <v>278</v>
+      </c>
+      <c r="E279" t="s">
+        <v>279</v>
+      </c>
+      <c r="O279">
+        <v>1</v>
+      </c>
+      <c r="P279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A280" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D280" t="s">
+        <v>620</v>
+      </c>
+      <c r="E280" t="s">
+        <v>619</v>
+      </c>
+      <c r="F280" t="s">
+        <v>622</v>
+      </c>
+      <c r="G280" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H280" t="s">
+        <v>1471</v>
+      </c>
+      <c r="I280" t="s">
+        <v>1472</v>
+      </c>
+      <c r="O280">
+        <v>0</v>
+      </c>
+      <c r="P280">
+        <v>0</v>
+      </c>
+      <c r="Q280">
+        <v>0</v>
+      </c>
+      <c r="R280">
+        <v>1</v>
+      </c>
+      <c r="S280">
+        <v>1</v>
+      </c>
+      <c r="T280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A281" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E281" t="s">
+        <v>1475</v>
+      </c>
+      <c r="O281">
+        <v>0</v>
+      </c>
+      <c r="P281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A282" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C282" s="4"/>
+      <c r="D282" s="4"/>
+      <c r="E282" s="4"/>
+      <c r="F282" s="4"/>
+      <c r="G282" s="4"/>
+      <c r="H282" s="4"/>
+      <c r="I282" s="4"/>
+      <c r="J282" s="4"/>
+      <c r="K282" s="4"/>
+      <c r="L282" s="4"/>
+      <c r="M282" s="4"/>
+      <c r="N282" s="4"/>
+      <c r="O282" s="4"/>
+      <c r="P282" s="4"/>
+      <c r="Q282" s="4"/>
+      <c r="R282" s="4"/>
+      <c r="S282" s="4"/>
+      <c r="T282" s="4"/>
+      <c r="U282" s="4"/>
+      <c r="V282" s="4"/>
+      <c r="W282" s="4"/>
+      <c r="X282" s="4"/>
+      <c r="Y282" s="4"/>
+      <c r="Z282" s="4"/>
+      <c r="AA282" s="4"/>
+      <c r="AB282" s="4"/>
+      <c r="AC282" s="4"/>
+      <c r="AD282" s="4"/>
+      <c r="AE282" s="4"/>
+      <c r="AF282" s="4"/>
+      <c r="AG282" s="4"/>
+      <c r="AH282" s="4"/>
+      <c r="AI282" s="4"/>
+      <c r="AJ282" s="4"/>
+      <c r="AK282" s="4"/>
+      <c r="AL282" s="4"/>
+      <c r="AM282" s="4"/>
+    </row>
+    <row r="283" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A283" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1480</v>
+      </c>
+      <c r="O283">
+        <v>1</v>
+      </c>
+      <c r="P283">
+        <v>0</v>
+      </c>
+      <c r="Q283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A284" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G284" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H284" t="s">
+        <v>1486</v>
+      </c>
+      <c r="O284">
+        <v>1</v>
+      </c>
+      <c r="P284">
+        <v>1</v>
+      </c>
+      <c r="Q284">
+        <v>1</v>
+      </c>
+      <c r="R284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A285" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4"/>
+      <c r="E285" s="4"/>
+      <c r="F285" s="4"/>
+      <c r="G285" s="4"/>
+      <c r="H285" s="4"/>
+      <c r="I285" s="4"/>
+      <c r="J285" s="4"/>
+      <c r="K285" s="4"/>
+      <c r="L285" s="4"/>
+      <c r="M285" s="4"/>
+      <c r="N285" s="4"/>
+      <c r="O285" s="4"/>
+      <c r="P285" s="4"/>
+      <c r="Q285" s="4"/>
+      <c r="R285" s="4"/>
+      <c r="S285" s="4"/>
+      <c r="T285" s="4"/>
+      <c r="U285" s="4"/>
+      <c r="V285" s="4"/>
+      <c r="W285" s="4"/>
+      <c r="X285" s="4"/>
+      <c r="Y285" s="4"/>
+      <c r="Z285" s="4"/>
+      <c r="AA285" s="4"/>
+      <c r="AB285" s="4"/>
+      <c r="AC285" s="4"/>
+      <c r="AD285" s="4"/>
+      <c r="AE285" s="4"/>
+      <c r="AF285" s="4"/>
+      <c r="AG285" s="4"/>
+      <c r="AH285" s="4"/>
+      <c r="AI285" s="4"/>
+      <c r="AJ285" s="4"/>
+      <c r="AK285" s="4"/>
+      <c r="AL285" s="4"/>
+      <c r="AM285" s="4"/>
+    </row>
+    <row r="286" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A286" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1490</v>
+      </c>
+      <c r="O286">
+        <v>0</v>
+      </c>
+      <c r="P286">
+        <v>0</v>
+      </c>
+      <c r="Q286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A287" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G287" t="s">
+        <v>1495</v>
+      </c>
+      <c r="O287">
+        <v>1</v>
+      </c>
+      <c r="P287">
+        <v>1</v>
+      </c>
+      <c r="Q287">
+        <v>0</v>
+      </c>
+      <c r="R287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A288" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G288" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H288" t="s">
+        <v>1501</v>
+      </c>
+      <c r="O288">
+        <v>0</v>
+      </c>
+      <c r="P288">
+        <v>1</v>
+      </c>
+      <c r="Q288">
+        <v>0</v>
+      </c>
+      <c r="R288">
+        <v>1</v>
+      </c>
+      <c r="S288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A289" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4"/>
+      <c r="E289" s="4"/>
+      <c r="F289" s="4"/>
+      <c r="G289" s="4"/>
+      <c r="H289" s="4"/>
+      <c r="I289" s="4"/>
+      <c r="J289" s="4"/>
+      <c r="K289" s="4"/>
+      <c r="L289" s="4"/>
+      <c r="M289" s="4"/>
+      <c r="N289" s="4"/>
+      <c r="O289" s="4"/>
+      <c r="P289" s="4"/>
+      <c r="Q289" s="4"/>
+      <c r="R289" s="4"/>
+      <c r="S289" s="4"/>
+      <c r="T289" s="4"/>
+      <c r="U289" s="4"/>
+      <c r="V289" s="4"/>
+      <c r="W289" s="4"/>
+      <c r="X289" s="4"/>
+      <c r="Y289" s="4"/>
+      <c r="Z289" s="4"/>
+      <c r="AA289" s="4"/>
+      <c r="AB289" s="4"/>
+      <c r="AC289" s="4"/>
+      <c r="AD289" s="4"/>
+      <c r="AE289" s="4"/>
+      <c r="AF289" s="4"/>
+      <c r="AG289" s="4"/>
+      <c r="AH289" s="4"/>
+      <c r="AI289" s="4"/>
+      <c r="AJ289" s="4"/>
+      <c r="AK289" s="4"/>
+      <c r="AL289" s="4"/>
+      <c r="AM289" s="4"/>
+    </row>
+    <row r="290" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A290" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F290" t="s">
+        <v>1505</v>
+      </c>
+      <c r="O290">
+        <v>0</v>
+      </c>
+      <c r="P290">
+        <v>0</v>
+      </c>
+      <c r="Q290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A291" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1509</v>
+      </c>
+      <c r="O291">
+        <v>0</v>
+      </c>
+      <c r="P291">
+        <v>1</v>
+      </c>
+      <c r="Q291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A292" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C292" s="4"/>
+      <c r="D292" s="4"/>
+      <c r="E292" s="4"/>
+      <c r="F292" s="4"/>
+      <c r="G292" s="4"/>
+      <c r="H292" s="4"/>
+      <c r="I292" s="4"/>
+      <c r="J292" s="4"/>
+      <c r="K292" s="4"/>
+      <c r="L292" s="4"/>
+      <c r="M292" s="4"/>
+      <c r="N292" s="4"/>
+      <c r="O292" s="4"/>
+      <c r="P292" s="4"/>
+      <c r="Q292" s="4"/>
+      <c r="R292" s="4"/>
+      <c r="S292" s="4"/>
+      <c r="T292" s="4"/>
+      <c r="U292" s="4"/>
+      <c r="V292" s="4"/>
+      <c r="W292" s="4"/>
+      <c r="X292" s="4"/>
+      <c r="Y292" s="4"/>
+      <c r="Z292" s="4"/>
+      <c r="AA292" s="4"/>
+      <c r="AB292" s="4"/>
+      <c r="AC292" s="4"/>
+      <c r="AD292" s="4"/>
+      <c r="AE292" s="4"/>
+      <c r="AF292" s="4"/>
+      <c r="AG292" s="4"/>
+      <c r="AH292" s="4"/>
+      <c r="AI292" s="4"/>
+      <c r="AJ292" s="4"/>
+      <c r="AK292" s="4"/>
+      <c r="AL292" s="4"/>
+      <c r="AM292" s="4"/>
+    </row>
+    <row r="293" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A293" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G293" t="s">
+        <v>1514</v>
+      </c>
+      <c r="O293">
+        <v>1</v>
+      </c>
+      <c r="P293">
+        <v>2</v>
+      </c>
+      <c r="Q293">
+        <v>3</v>
+      </c>
+      <c r="R293">
+        <v>4</v>
+      </c>
+      <c r="Z293" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AA293" t="s">
+        <v>1516</v>
+      </c>
+      <c r="AB293" t="s">
+        <v>1517</v>
+      </c>
+      <c r="AC293" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="294" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A294" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1522</v>
+      </c>
+      <c r="O294">
+        <v>0</v>
+      </c>
+      <c r="P294">
+        <v>0</v>
+      </c>
+      <c r="Q294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A295" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C295" s="4"/>
+      <c r="D295" s="4"/>
+      <c r="E295" s="4"/>
+      <c r="F295" s="4"/>
+      <c r="G295" s="4"/>
+      <c r="H295" s="4"/>
+      <c r="I295" s="4"/>
+      <c r="J295" s="4"/>
+      <c r="K295" s="4"/>
+      <c r="L295" s="4"/>
+      <c r="M295" s="4"/>
+      <c r="N295" s="4"/>
+      <c r="O295" s="4"/>
+      <c r="P295" s="4"/>
+      <c r="Q295" s="4"/>
+      <c r="R295" s="4"/>
+      <c r="S295" s="4"/>
+      <c r="T295" s="4"/>
+      <c r="U295" s="4"/>
+      <c r="V295" s="4"/>
+      <c r="W295" s="4"/>
+      <c r="X295" s="4"/>
+      <c r="Y295" s="4"/>
+      <c r="Z295" s="4"/>
+      <c r="AA295" s="4"/>
+      <c r="AB295" s="4"/>
+      <c r="AC295" s="4"/>
+      <c r="AD295" s="4"/>
+      <c r="AE295" s="4"/>
+      <c r="AF295" s="4"/>
+      <c r="AG295" s="4"/>
+      <c r="AH295" s="4"/>
+      <c r="AI295" s="4"/>
+      <c r="AJ295" s="4"/>
+      <c r="AK295" s="4"/>
+      <c r="AL295" s="4"/>
+      <c r="AM295" s="4"/>
+    </row>
+    <row r="296" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A296" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F296" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G296" t="s">
+        <v>1527</v>
+      </c>
+      <c r="O296">
+        <v>2</v>
+      </c>
+      <c r="P296">
+        <v>3</v>
+      </c>
+      <c r="Q296">
+        <v>4</v>
+      </c>
+      <c r="R296">
+        <v>1</v>
+      </c>
+      <c r="Z296" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AA296" t="s">
+        <v>1529</v>
+      </c>
+      <c r="AB296" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AC296" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="297" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A297" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C297" s="4"/>
+      <c r="D297" s="4"/>
+      <c r="E297" s="4"/>
+      <c r="F297" s="4"/>
+      <c r="G297" s="4"/>
+      <c r="H297" s="4"/>
+      <c r="I297" s="4"/>
+      <c r="J297" s="4"/>
+      <c r="K297" s="4"/>
+      <c r="L297" s="4"/>
+      <c r="M297" s="4"/>
+      <c r="N297" s="4"/>
+      <c r="O297" s="4"/>
+      <c r="P297" s="4"/>
+      <c r="Q297" s="4"/>
+      <c r="R297" s="4"/>
+      <c r="S297" s="4"/>
+      <c r="T297" s="4"/>
+      <c r="U297" s="4"/>
+      <c r="V297" s="4"/>
+      <c r="W297" s="4"/>
+      <c r="X297" s="4"/>
+      <c r="Y297" s="4"/>
+      <c r="Z297" s="4"/>
+      <c r="AA297" s="4"/>
+      <c r="AB297" s="4"/>
+      <c r="AC297" s="4"/>
+      <c r="AD297" s="4"/>
+      <c r="AE297" s="4"/>
+      <c r="AF297" s="4"/>
+      <c r="AG297" s="4"/>
+      <c r="AH297" s="4"/>
+      <c r="AI297" s="4"/>
+      <c r="AJ297" s="4"/>
+      <c r="AK297" s="4"/>
+      <c r="AL297" s="4"/>
+      <c r="AM297" s="4"/>
+    </row>
+    <row r="298" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A298" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F298" s="5" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G298" s="5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H298" s="5" t="s">
+        <v>1538</v>
+      </c>
+      <c r="I298" s="5"/>
+      <c r="J298" s="5"/>
+      <c r="K298" s="5"/>
+      <c r="L298" s="5"/>
+      <c r="M298" s="5"/>
+      <c r="N298" s="5"/>
+      <c r="O298" s="5">
+        <v>0</v>
+      </c>
+      <c r="P298" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q298" s="5">
+        <v>1</v>
+      </c>
+      <c r="R298" s="5">
+        <v>1</v>
+      </c>
+      <c r="S298" s="5">
+        <v>0</v>
+      </c>
+      <c r="T298" s="5"/>
+      <c r="U298" s="5"/>
+      <c r="V298" s="5"/>
+      <c r="W298" s="5"/>
+      <c r="X298" s="5"/>
+      <c r="Y298" s="5"/>
+      <c r="Z298" s="5"/>
+      <c r="AA298" s="5"/>
+      <c r="AB298" s="5"/>
+      <c r="AC298" s="5"/>
+      <c r="AD298" s="5"/>
+      <c r="AE298" s="5"/>
+      <c r="AF298" s="5"/>
+      <c r="AG298" s="5"/>
+      <c r="AH298" s="5"/>
+      <c r="AI298" s="5"/>
+      <c r="AJ298" s="5"/>
+      <c r="AK298" s="5"/>
+      <c r="AL298" s="5"/>
+      <c r="AM298" s="5"/>
+    </row>
+    <row r="299" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A299" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F299" t="s">
+        <v>1542</v>
+      </c>
+      <c r="O299" s="5">
+        <v>1</v>
+      </c>
+      <c r="P299" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q299" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z299" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AA299" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AB299" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="300" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A300" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C300" s="4"/>
+      <c r="D300" s="4"/>
+      <c r="E300" s="4"/>
+      <c r="F300" s="4"/>
+      <c r="G300" s="4"/>
+      <c r="H300" s="4"/>
+      <c r="I300" s="4"/>
+      <c r="J300" s="4"/>
+      <c r="K300" s="4"/>
+      <c r="L300" s="4"/>
+      <c r="M300" s="4"/>
+      <c r="N300" s="4"/>
+      <c r="O300" s="4"/>
+      <c r="P300" s="4"/>
+      <c r="Q300" s="4"/>
+      <c r="R300" s="4"/>
+      <c r="S300" s="4"/>
+      <c r="T300" s="4"/>
+      <c r="U300" s="4"/>
+      <c r="V300" s="4"/>
+      <c r="W300" s="4"/>
+      <c r="X300" s="4"/>
+      <c r="Y300" s="4"/>
+      <c r="Z300" s="4"/>
+      <c r="AA300" s="4"/>
+      <c r="AB300" s="4"/>
+      <c r="AC300" s="4"/>
+      <c r="AD300" s="4"/>
+      <c r="AE300" s="4"/>
+      <c r="AF300" s="4"/>
+      <c r="AG300" s="4"/>
+      <c r="AH300" s="4"/>
+      <c r="AI300" s="4"/>
+      <c r="AJ300" s="4"/>
+      <c r="AK300" s="4"/>
+      <c r="AL300" s="4"/>
+      <c r="AM300" s="4"/>
+    </row>
+    <row r="301" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A301" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F301" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G301" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H301" t="s">
+        <v>1551</v>
+      </c>
+      <c r="O301">
+        <v>1</v>
+      </c>
+      <c r="P301">
+        <v>0</v>
+      </c>
+      <c r="Q301">
+        <v>1</v>
+      </c>
+      <c r="R301">
+        <v>1</v>
+      </c>
+      <c r="S301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A302" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1555</v>
+      </c>
+      <c r="O302">
+        <v>0</v>
+      </c>
+      <c r="P302">
+        <v>1</v>
+      </c>
+      <c r="Q302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A303" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C303" s="4"/>
+      <c r="D303" s="4"/>
+      <c r="E303" s="4"/>
+      <c r="F303" s="4"/>
+      <c r="G303" s="4"/>
+      <c r="H303" s="4"/>
+      <c r="I303" s="4"/>
+      <c r="J303" s="4"/>
+      <c r="K303" s="4"/>
+      <c r="L303" s="4"/>
+      <c r="M303" s="4"/>
+      <c r="N303" s="4"/>
+      <c r="O303" s="4"/>
+      <c r="P303" s="4"/>
+      <c r="Q303" s="4"/>
+      <c r="R303" s="4"/>
+      <c r="S303" s="4"/>
+      <c r="T303" s="4"/>
+      <c r="U303" s="4"/>
+      <c r="V303" s="4"/>
+      <c r="W303" s="4"/>
+      <c r="X303" s="4"/>
+      <c r="Y303" s="4"/>
+      <c r="Z303" s="4"/>
+      <c r="AA303" s="4"/>
+      <c r="AB303" s="4"/>
+      <c r="AC303" s="4"/>
+      <c r="AD303" s="4"/>
+      <c r="AE303" s="4"/>
+      <c r="AF303" s="4"/>
+      <c r="AG303" s="4"/>
+      <c r="AH303" s="4"/>
+      <c r="AI303" s="4"/>
+      <c r="AJ303" s="4"/>
+      <c r="AK303" s="4"/>
+      <c r="AL303" s="4"/>
+      <c r="AM303" s="4"/>
+    </row>
+    <row r="304" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A304" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F304" t="s">
+        <v>1559</v>
+      </c>
+      <c r="O304">
+        <v>1</v>
+      </c>
+      <c r="P304">
+        <v>0</v>
+      </c>
+      <c r="Q304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A305" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F305" t="s">
+        <v>1563</v>
+      </c>
+      <c r="G305" t="s">
+        <v>1564</v>
+      </c>
+      <c r="O305">
+        <v>4</v>
+      </c>
+      <c r="P305">
+        <v>1</v>
+      </c>
+      <c r="Q305">
+        <v>2</v>
+      </c>
+      <c r="R305">
+        <v>3</v>
+      </c>
+      <c r="Z305" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AA305" t="s">
+        <v>1566</v>
+      </c>
+      <c r="AB305" t="s">
+        <v>1567</v>
+      </c>
+      <c r="AC305" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="306" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A306" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F306" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G306" t="s">
+        <v>1573</v>
+      </c>
+      <c r="H306" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O306">
+        <v>1</v>
+      </c>
+      <c r="P306">
+        <v>1</v>
+      </c>
+      <c r="Q306">
+        <v>1</v>
+      </c>
+      <c r="R306">
+        <v>0</v>
+      </c>
+      <c r="S306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A307" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F307" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G307" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H307" t="s">
+        <v>1579</v>
+      </c>
+      <c r="O307">
+        <v>0</v>
+      </c>
+      <c r="P307">
+        <v>1</v>
+      </c>
+      <c r="Q307">
+        <v>1</v>
+      </c>
+      <c r="R307">
+        <v>0</v>
+      </c>
+      <c r="S307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A308" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F308" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G308" t="s">
+        <v>1584</v>
+      </c>
+      <c r="H308" t="s">
+        <v>1585</v>
+      </c>
+      <c r="O308">
+        <v>0</v>
+      </c>
+      <c r="P308">
+        <v>0</v>
+      </c>
+      <c r="Q308">
+        <v>1</v>
+      </c>
+      <c r="R308">
+        <v>0</v>
+      </c>
+      <c r="S308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A309" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4"/>
+      <c r="E309" s="4"/>
+      <c r="F309" s="4"/>
+      <c r="G309" s="4"/>
+      <c r="H309" s="4"/>
+      <c r="I309" s="4"/>
+      <c r="J309" s="4"/>
+      <c r="K309" s="4"/>
+      <c r="L309" s="4"/>
+      <c r="M309" s="4"/>
+      <c r="N309" s="4"/>
+      <c r="O309" s="4"/>
+      <c r="P309" s="4"/>
+      <c r="Q309" s="4"/>
+      <c r="R309" s="4"/>
+      <c r="S309" s="4"/>
+      <c r="T309" s="4"/>
+      <c r="U309" s="4"/>
+      <c r="V309" s="4"/>
+      <c r="W309" s="4"/>
+      <c r="X309" s="4"/>
+      <c r="Y309" s="4"/>
+      <c r="Z309" s="4"/>
+      <c r="AA309" s="4"/>
+      <c r="AB309" s="4"/>
+      <c r="AC309" s="4"/>
+      <c r="AD309" s="4"/>
+      <c r="AE309" s="4"/>
+      <c r="AF309" s="4"/>
+      <c r="AG309" s="4"/>
+      <c r="AH309" s="4"/>
+      <c r="AI309" s="4"/>
+      <c r="AJ309" s="4"/>
+      <c r="AK309" s="4"/>
+      <c r="AL309" s="4"/>
+      <c r="AM309" s="4"/>
+    </row>
+    <row r="310" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A310" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G310" t="s">
+        <v>1590</v>
+      </c>
+      <c r="O310">
+        <v>1</v>
+      </c>
+      <c r="P310">
+        <v>1</v>
+      </c>
+      <c r="Q310">
+        <v>0</v>
+      </c>
+      <c r="R310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A311" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C311" s="4"/>
+      <c r="D311" s="4"/>
+      <c r="E311" s="4"/>
+      <c r="F311" s="4"/>
+      <c r="G311" s="4"/>
+      <c r="H311" s="4"/>
+      <c r="I311" s="4"/>
+      <c r="J311" s="4"/>
+      <c r="K311" s="4"/>
+      <c r="L311" s="4"/>
+      <c r="M311" s="4"/>
+      <c r="N311" s="4"/>
+      <c r="O311" s="4"/>
+      <c r="P311" s="4"/>
+      <c r="Q311" s="4"/>
+      <c r="R311" s="4"/>
+      <c r="S311" s="4"/>
+      <c r="T311" s="4"/>
+      <c r="U311" s="4"/>
+      <c r="V311" s="4"/>
+      <c r="W311" s="4"/>
+      <c r="X311" s="4"/>
+      <c r="Y311" s="4"/>
+      <c r="Z311" s="4"/>
+      <c r="AA311" s="4"/>
+      <c r="AB311" s="4"/>
+      <c r="AC311" s="4"/>
+      <c r="AD311" s="4"/>
+      <c r="AE311" s="4"/>
+      <c r="AF311" s="4"/>
+      <c r="AG311" s="4"/>
+      <c r="AH311" s="4"/>
+      <c r="AI311" s="4"/>
+      <c r="AJ311" s="4"/>
+      <c r="AK311" s="4"/>
+      <c r="AL311" s="4"/>
+      <c r="AM311" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
+++ b/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27011"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uhrig\Documents\GitHub\digital-learning-imbit\brillianideas\brillianIDEAS\quiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/ITProjekt/brillianideas/brillianIDEAS/quiz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2078389F-DB80-46A2-921B-5E1C7FA2C5BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Kopie von convertcsv-1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="1332">
   <si>
     <t>questionType</t>
   </si>
@@ -3573,9 +3572,6 @@
     <t>19,4</t>
   </si>
   <si>
-    <t>In welchem Fall wird der Satz von Bayer angewandt?</t>
-  </si>
-  <si>
     <t>Durch neu gewonnene Informationen können schon ermittelte Wahrscheinlichkeiten genauer bestimmt werden.</t>
   </si>
   <si>
@@ -3982,12 +3978,57 @@
   </si>
   <si>
     <t>20 IT-Services sollen im Durchschnitt von mehr als 10 Mitarbeitern betreut werden. Welche Hypothesen sollte sie testen?</t>
+  </si>
+  <si>
+    <t>Was zählt nicht zu den wesentlichen Aufgaben des Controllings?</t>
+  </si>
+  <si>
+    <t>Welche Komponenten gehören zum Führungssystem eines Unternehmens?</t>
+  </si>
+  <si>
+    <t>Ordne die Planungshorizonte richtig zu.</t>
+  </si>
+  <si>
+    <t>Ordne folgende Controlling-Instrumente richtig zu.</t>
+  </si>
+  <si>
+    <t>Ordne folgende strategische Controllinginstrumente richtig zu.</t>
+  </si>
+  <si>
+    <t>Aus welchen Perspektiven setzt sich die Balanced Scorecard zusammen?</t>
+  </si>
+  <si>
+    <t>Ordne folgende Ziele der richtigen Perspektive aus der BSC zu.</t>
+  </si>
+  <si>
+    <t>Welche der folgenden Kennzahlen gehören zu den Finanzkennzahlen?</t>
+  </si>
+  <si>
+    <t>Ordne folgende Definitionen einer Kennzahl zu.</t>
+  </si>
+  <si>
+    <t>Ein Unternehmen mit 40% Eigenkapital hat einen Betafaktor in Höhe von 1,7. Der risikolose Habenzins beträgt 3%, der Sollzins 9%. Die Risikoprämie am Markt liegt bei 5%, der Steuersatz bei 35%. Berechne die WACC.</t>
+  </si>
+  <si>
+    <t>Der ROI eignet sich besonders für produzierende Unternehmen als Steuerungsgröße, da das operative Ergebnis in Relation zum eingesetzten Kapital dargestellt wird.</t>
+  </si>
+  <si>
+    <t>Aus welchen zwei Kennzahlen setzt sich der ROI multiplikativ zusammen?</t>
+  </si>
+  <si>
+    <t>Ein Unternehmen erwirtschaftet jährlich einen Gewinn von 15 Mio €. Dabei beträgt der Umsatz 300 Mio €, die Bilanzsumme 420 Mio €. Welche der folgenden Aussagen sind korrekt?</t>
+  </si>
+  <si>
+    <t>Ein Unternehmen erwirtschaftet ein NOPAT in Höhe von 50 Mio €. Dabei beträgt die Bilanzsumme 250 Mio €, die WACC betragen 8%. Berechne den EVA</t>
+  </si>
+  <si>
+    <t>In welchem Fall wird der Satz von Bayes angewandt?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4086,7 +4127,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -4422,23 +4463,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet 1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet 1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AI251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="C227" sqref="C227"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F231" sqref="F231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="71.9140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
@@ -4539,7 +4580,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -4574,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4609,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4662,7 +4703,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4697,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -4726,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -4755,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4790,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -4831,7 +4872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -4887,7 +4928,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -4946,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -4993,7 +5034,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -5022,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -5051,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -5086,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
@@ -5187,7 +5228,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -5228,7 +5269,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>146</v>
       </c>
@@ -5257,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -5313,7 +5354,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -5354,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>146</v>
       </c>
@@ -5401,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -5448,7 +5489,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -5483,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>146</v>
       </c>
@@ -5536,7 +5577,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -5544,7 +5585,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D25" t="s">
         <v>204</v>
@@ -5589,7 +5630,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -5645,7 +5686,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -5686,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -5733,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -5798,7 +5839,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -5833,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:35" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>146</v>
       </c>
@@ -5934,7 +5975,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>265</v>
       </c>
@@ -5981,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>265</v>
       </c>
@@ -6004,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>265</v>
       </c>
@@ -6012,7 +6053,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D34" t="s">
         <v>277</v>
@@ -6054,7 +6095,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>265</v>
       </c>
@@ -6089,7 +6130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>265</v>
       </c>
@@ -6112,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>265</v>
       </c>
@@ -6135,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>265</v>
       </c>
@@ -6143,7 +6184,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D38" t="s">
         <v>292</v>
@@ -6158,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>265</v>
       </c>
@@ -6181,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>265</v>
       </c>
@@ -6189,7 +6230,7 @@
         <v>21</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D40" t="s">
         <v>295</v>
@@ -6240,7 +6281,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="41" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>265</v>
       </c>
@@ -6275,7 +6316,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>265</v>
       </c>
@@ -6310,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>265</v>
       </c>
@@ -6333,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>265</v>
       </c>
@@ -6341,7 +6382,7 @@
         <v>22</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D44" t="s">
         <v>317</v>
@@ -6368,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>265</v>
       </c>
@@ -6376,7 +6417,7 @@
         <v>34</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D45" t="s">
         <v>321</v>
@@ -6391,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:35" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>265</v>
       </c>
@@ -6492,7 +6533,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>339</v>
       </c>
@@ -6539,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>339</v>
       </c>
@@ -6547,7 +6588,7 @@
         <v>34</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D48" t="s">
         <v>349</v>
@@ -6568,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>339</v>
       </c>
@@ -6603,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>339</v>
       </c>
@@ -6632,7 +6673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>339</v>
       </c>
@@ -6667,7 +6708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>339</v>
       </c>
@@ -6708,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>339</v>
       </c>
@@ -6737,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>339</v>
       </c>
@@ -6745,7 +6786,7 @@
         <v>34</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D54" t="s">
         <v>370</v>
@@ -6766,7 +6807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>339</v>
       </c>
@@ -6774,7 +6815,7 @@
         <v>21</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D55" t="s">
         <v>373</v>
@@ -6837,7 +6878,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>339</v>
       </c>
@@ -6845,7 +6886,7 @@
         <v>71</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D56" t="s">
         <v>385</v>
@@ -6878,7 +6919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>339</v>
       </c>
@@ -6919,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>339</v>
       </c>
@@ -6954,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>339</v>
       </c>
@@ -6962,7 +7003,7 @@
         <v>22</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D59" t="s">
         <v>393</v>
@@ -6983,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>339</v>
       </c>
@@ -7030,7 +7071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:35" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>339</v>
       </c>
@@ -7131,7 +7172,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>428</v>
       </c>
@@ -7139,7 +7180,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D62" t="s">
         <v>429</v>
@@ -7190,7 +7231,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="63" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>428</v>
       </c>
@@ -7252,7 +7293,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>428</v>
       </c>
@@ -7260,7 +7301,7 @@
         <v>71</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D64" t="s">
         <v>449</v>
@@ -7299,7 +7340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>428</v>
       </c>
@@ -7340,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>428</v>
       </c>
@@ -7348,7 +7389,7 @@
         <v>21</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D66" t="s">
         <v>460</v>
@@ -7396,7 +7437,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>428</v>
       </c>
@@ -7437,7 +7478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>428</v>
       </c>
@@ -7445,7 +7486,7 @@
         <v>21</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D68" t="s">
         <v>474</v>
@@ -7493,7 +7534,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>428</v>
       </c>
@@ -7534,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>428</v>
       </c>
@@ -7542,25 +7583,25 @@
         <v>21</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D70" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E70" t="s">
         <v>1243</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>1244</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>1245</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="I70" t="s">
         <v>1247</v>
-      </c>
-      <c r="I70" t="s">
-        <v>1248</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -7587,7 +7628,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>428</v>
       </c>
@@ -7616,7 +7657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>428</v>
       </c>
@@ -7654,7 +7695,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>428</v>
       </c>
@@ -7701,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>428</v>
       </c>
@@ -7751,7 +7792,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>428</v>
       </c>
@@ -7780,7 +7821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:35" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>428</v>
       </c>
@@ -7881,7 +7922,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>532</v>
       </c>
@@ -7937,7 +7978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>532</v>
       </c>
@@ -7945,7 +7986,7 @@
         <v>34</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D78" t="s">
         <v>275</v>
@@ -7963,7 +8004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>532</v>
       </c>
@@ -7998,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>532</v>
       </c>
@@ -8006,7 +8047,7 @@
         <v>21</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D80" t="s">
         <v>545</v>
@@ -8042,7 +8083,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>532</v>
       </c>
@@ -8077,7 +8118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>532</v>
       </c>
@@ -8112,7 +8153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>532</v>
       </c>
@@ -8120,7 +8161,7 @@
         <v>34</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D83" t="s">
         <v>275</v>
@@ -8135,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>532</v>
       </c>
@@ -8170,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>532</v>
       </c>
@@ -8206,7 +8247,7 @@
       <c r="AC85" s="4"/>
       <c r="AD85" s="4"/>
     </row>
-    <row r="86" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>532</v>
       </c>
@@ -8241,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>532</v>
       </c>
@@ -8249,7 +8290,7 @@
         <v>34</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D87" t="s">
         <v>275</v>
@@ -8264,7 +8305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>532</v>
       </c>
@@ -8272,7 +8313,7 @@
         <v>34</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D88" t="s">
         <v>275</v>
@@ -8287,7 +8328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>532</v>
       </c>
@@ -8322,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>532</v>
       </c>
@@ -8330,7 +8371,7 @@
         <v>21</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D90" t="s">
         <v>575</v>
@@ -8387,7 +8428,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>532</v>
       </c>
@@ -8423,7 +8464,7 @@
       <c r="AC91" s="4"/>
       <c r="AD91" s="4"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>585</v>
       </c>
@@ -8476,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>585</v>
       </c>
@@ -8512,7 +8553,7 @@
       <c r="AC93" s="4"/>
       <c r="AD93" s="4"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>585</v>
       </c>
@@ -8520,7 +8561,7 @@
         <v>21</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D94" t="s">
         <v>594</v>
@@ -8589,7 +8630,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>585</v>
       </c>
@@ -8625,7 +8666,7 @@
       <c r="AC95" s="4"/>
       <c r="AD95" s="4"/>
     </row>
-    <row r="96" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>585</v>
       </c>
@@ -8684,7 +8725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>585</v>
       </c>
@@ -8738,7 +8779,7 @@
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
     </row>
-    <row r="98" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>585</v>
       </c>
@@ -8746,7 +8787,7 @@
         <v>21</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>620</v>
@@ -8791,7 +8832,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>585</v>
       </c>
@@ -8827,7 +8868,7 @@
       <c r="AC99" s="4"/>
       <c r="AD99" s="4"/>
     </row>
-    <row r="100" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>585</v>
       </c>
@@ -8874,7 +8915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>585</v>
       </c>
@@ -8882,7 +8923,7 @@
         <v>21</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D101" t="s">
         <v>635</v>
@@ -8948,7 +8989,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>585</v>
       </c>
@@ -8984,7 +9025,7 @@
       <c r="AC102" s="4"/>
       <c r="AD102" s="4"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>585</v>
       </c>
@@ -9025,7 +9066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>585</v>
       </c>
@@ -9033,7 +9074,7 @@
         <v>21</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D104" t="s">
         <v>653</v>
@@ -9081,7 +9122,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>585</v>
       </c>
@@ -9117,7 +9158,7 @@
       <c r="AC105" s="4"/>
       <c r="AD105" s="4"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>663</v>
       </c>
@@ -9153,7 +9194,7 @@
       <c r="AC106" s="4"/>
       <c r="AD106" s="4"/>
     </row>
-    <row r="107" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>663</v>
       </c>
@@ -9188,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>663</v>
       </c>
@@ -9197,7 +9238,7 @@
       </c>
       <c r="C108" s="11"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>663</v>
       </c>
@@ -9233,7 +9274,7 @@
       <c r="AC109" s="4"/>
       <c r="AD109" s="4"/>
     </row>
-    <row r="110" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>663</v>
       </c>
@@ -9262,7 +9303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>663</v>
       </c>
@@ -9298,7 +9339,7 @@
       <c r="AC111" s="4"/>
       <c r="AD111" s="4"/>
     </row>
-    <row r="112" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>663</v>
       </c>
@@ -9306,7 +9347,7 @@
         <v>34</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D112" t="s">
         <v>672</v>
@@ -9333,7 +9374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>663</v>
       </c>
@@ -9368,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>663</v>
       </c>
@@ -9376,7 +9417,7 @@
         <v>21</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D114" t="s">
         <v>681</v>
@@ -9421,7 +9462,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>663</v>
       </c>
@@ -9457,7 +9498,7 @@
       <c r="AC115" s="4"/>
       <c r="AD115" s="4"/>
     </row>
-    <row r="116" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>663</v>
       </c>
@@ -9465,7 +9506,7 @@
         <v>22</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D116" t="s">
         <v>687</v>
@@ -9498,7 +9539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>663</v>
       </c>
@@ -9533,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>663</v>
       </c>
@@ -9562,7 +9603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>663</v>
       </c>
@@ -9597,7 +9638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>663</v>
       </c>
@@ -9633,7 +9674,7 @@
       <c r="AC120" s="4"/>
       <c r="AD120" s="4"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>706</v>
       </c>
@@ -9641,20 +9682,20 @@
         <v>22</v>
       </c>
       <c r="C121" s="10" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G121" t="s">
         <v>1266</v>
       </c>
-      <c r="D121" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E121" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F121" t="s">
-        <v>1263</v>
-      </c>
-      <c r="G121" t="s">
-        <v>1267</v>
-      </c>
       <c r="O121">
         <v>0</v>
       </c>
@@ -9668,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>706</v>
       </c>
@@ -9703,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>706</v>
       </c>
@@ -9711,14 +9752,14 @@
         <v>34</v>
       </c>
       <c r="C123" s="10" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D123" t="s">
         <v>1268</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>1269</v>
       </c>
-      <c r="E123" t="s">
-        <v>1270</v>
-      </c>
       <c r="O123">
         <v>1</v>
       </c>
@@ -9726,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>706</v>
       </c>
@@ -9734,7 +9775,7 @@
         <v>34</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D124" t="s">
         <v>275</v>
@@ -9749,7 +9790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>706</v>
       </c>
@@ -9757,7 +9798,7 @@
         <v>34</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D125" t="s">
         <v>712</v>
@@ -9784,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>706</v>
       </c>
@@ -9819,7 +9860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>706</v>
       </c>
@@ -9827,7 +9868,7 @@
         <v>34</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D127" t="s">
         <v>721</v>
@@ -9854,7 +9895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>706</v>
       </c>
@@ -9895,7 +9936,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>706</v>
       </c>
@@ -9903,7 +9944,7 @@
         <v>21</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D129" t="s">
         <v>732</v>
@@ -9978,7 +10019,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>706</v>
       </c>
@@ -9986,7 +10027,7 @@
         <v>21</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D130" t="s">
         <v>746</v>
@@ -10016,7 +10057,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>706</v>
       </c>
@@ -10084,7 +10125,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>706</v>
       </c>
@@ -10120,7 +10161,7 @@
       <c r="AC132" s="4"/>
       <c r="AD132" s="4"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>706</v>
       </c>
@@ -10156,7 +10197,7 @@
       <c r="AC133" s="4"/>
       <c r="AD133" s="4"/>
     </row>
-    <row r="134" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>706</v>
       </c>
@@ -10164,7 +10205,7 @@
         <v>71</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D134" t="s">
         <v>763</v>
@@ -10191,7 +10232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>706</v>
       </c>
@@ -10227,7 +10268,7 @@
       <c r="AC135" s="4"/>
       <c r="AD135" s="4"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>531</v>
       </c>
@@ -10285,7 +10326,7 @@
       <c r="AC136" s="5"/>
       <c r="AD136" s="5"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>531</v>
       </c>
@@ -10293,7 +10334,7 @@
         <v>21</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D137" t="s">
         <v>773</v>
@@ -10341,7 +10382,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>531</v>
       </c>
@@ -10412,7 +10453,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>531</v>
       </c>
@@ -10441,7 +10482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>531</v>
       </c>
@@ -10470,7 +10511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>531</v>
       </c>
@@ -10535,7 +10576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>531</v>
       </c>
@@ -10543,7 +10584,7 @@
         <v>21</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D142" t="s">
         <v>806</v>
@@ -10591,7 +10632,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>531</v>
       </c>
@@ -10599,7 +10640,7 @@
         <v>21</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D143" t="s">
         <v>811</v>
@@ -10614,7 +10655,7 @@
         <v>814</v>
       </c>
       <c r="H143" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="O143">
         <v>1</v>
@@ -10647,7 +10688,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>531</v>
       </c>
@@ -10682,7 +10723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>531</v>
       </c>
@@ -10690,7 +10731,7 @@
         <v>21</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D145" t="s">
         <v>819</v>
@@ -10723,7 +10764,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>531</v>
       </c>
@@ -10759,7 +10800,7 @@
       <c r="AC146" s="4"/>
       <c r="AD146" s="4"/>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>531</v>
       </c>
@@ -10767,7 +10808,7 @@
         <v>21</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D147" t="s">
         <v>825</v>
@@ -10827,7 +10868,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>531</v>
       </c>
@@ -10862,7 +10903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>531</v>
       </c>
@@ -10870,7 +10911,7 @@
         <v>21</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D149" t="s">
         <v>839</v>
@@ -10918,7 +10959,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>531</v>
       </c>
@@ -10954,7 +10995,7 @@
       <c r="AC150" s="4"/>
       <c r="AD150" s="4"/>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>848</v>
       </c>
@@ -10962,7 +11003,7 @@
         <v>34</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D151" t="s">
         <v>849</v>
@@ -11010,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="15" t="s">
         <v>848</v>
       </c>
@@ -11018,7 +11059,7 @@
         <v>21</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>12</v>
@@ -11069,7 +11110,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>848</v>
       </c>
@@ -11110,7 +11151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>848</v>
       </c>
@@ -11118,7 +11159,7 @@
         <v>21</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D154" t="s">
         <v>864</v>
@@ -11139,7 +11180,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>848</v>
       </c>
@@ -11147,7 +11188,7 @@
         <v>22</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D155" t="s">
         <v>868</v>
@@ -11174,7 +11215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>848</v>
       </c>
@@ -11215,7 +11256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>848</v>
       </c>
@@ -11223,7 +11264,7 @@
         <v>71</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D157" t="s">
         <v>877</v>
@@ -11250,7 +11291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>848</v>
       </c>
@@ -11258,7 +11299,7 @@
         <v>22</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D158" t="s">
         <v>881</v>
@@ -11285,7 +11326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:30" s="15" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:30" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" s="15" t="s">
         <v>848</v>
       </c>
@@ -11293,7 +11334,7 @@
         <v>71</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D159" s="15" t="s">
         <v>885</v>
@@ -11332,7 +11373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:30" ht="31" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>848</v>
       </c>
@@ -11340,7 +11381,7 @@
         <v>22</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D160" t="s">
         <v>890</v>
@@ -11352,7 +11393,7 @@
         <v>892</v>
       </c>
       <c r="G160" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="O160">
         <v>1</v>
@@ -11367,7 +11408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>893</v>
       </c>
@@ -11375,7 +11416,7 @@
         <v>21</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D161" t="s">
         <v>894</v>
@@ -11426,7 +11467,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>893</v>
       </c>
@@ -11434,7 +11475,7 @@
         <v>21</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D162" t="s">
         <v>903</v>
@@ -11494,7 +11535,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>893</v>
       </c>
@@ -11502,7 +11543,7 @@
         <v>21</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D163" t="s">
         <v>914</v>
@@ -11565,7 +11606,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>893</v>
       </c>
@@ -11573,7 +11614,7 @@
         <v>34</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D164" t="s">
         <v>924</v>
@@ -11594,7 +11635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>893</v>
       </c>
@@ -11623,7 +11664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>893</v>
       </c>
@@ -11652,7 +11693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>893</v>
       </c>
@@ -11675,7 +11716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>893</v>
       </c>
@@ -11734,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>893</v>
       </c>
@@ -11763,7 +11804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>893</v>
       </c>
@@ -11792,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>893</v>
       </c>
@@ -11821,7 +11862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>959</v>
       </c>
@@ -11829,7 +11870,7 @@
         <v>34</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D172" t="s">
         <v>960</v>
@@ -11844,7 +11885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>959</v>
       </c>
@@ -11852,7 +11893,7 @@
         <v>22</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D173" t="s">
         <v>962</v>
@@ -11894,7 +11935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:29" ht="31" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>959</v>
       </c>
@@ -11917,7 +11958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:29" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:29" ht="48" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>959</v>
       </c>
@@ -11940,7 +11981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>959</v>
       </c>
@@ -11963,7 +12004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>959</v>
       </c>
@@ -11986,7 +12027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:27" ht="31" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>959</v>
       </c>
@@ -12021,7 +12062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:27" ht="31" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>959</v>
       </c>
@@ -12050,7 +12091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>959</v>
       </c>
@@ -12109,7 +12150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:27" ht="31" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>959</v>
       </c>
@@ -12141,7 +12182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:27" ht="31" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>959</v>
       </c>
@@ -12149,7 +12190,7 @@
         <v>21</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D182" t="s">
         <v>997</v>
@@ -12194,7 +12235,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>959</v>
       </c>
@@ -12217,7 +12258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>959</v>
       </c>
@@ -12240,7 +12281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>959</v>
       </c>
@@ -12263,7 +12304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="31" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>959</v>
       </c>
@@ -12286,7 +12327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:27" ht="31" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>959</v>
       </c>
@@ -12294,7 +12335,7 @@
         <v>34</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D187" t="s">
         <v>960</v>
@@ -12309,7 +12350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:27" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>959</v>
       </c>
@@ -12353,7 +12394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:27" ht="31" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>959</v>
       </c>
@@ -12382,7 +12423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>959</v>
       </c>
@@ -12414,7 +12455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>959</v>
       </c>
@@ -12449,7 +12490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:27" ht="31" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>959</v>
       </c>
@@ -12457,7 +12498,7 @@
         <v>34</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D192" t="s">
         <v>1030</v>
@@ -12472,7 +12513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:29" ht="31" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>959</v>
       </c>
@@ -12480,7 +12521,7 @@
         <v>34</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D193" t="s">
         <v>1032</v>
@@ -12507,7 +12548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:29" ht="31" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>959</v>
       </c>
@@ -12554,7 +12595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:29" ht="62" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:29" ht="48" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>959</v>
       </c>
@@ -12577,7 +12618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>959</v>
       </c>
@@ -12600,7 +12641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:29" ht="31" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:29" ht="32" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>959</v>
       </c>
@@ -12623,7 +12664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>959</v>
       </c>
@@ -12646,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1049</v>
       </c>
@@ -12681,7 +12722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1049</v>
       </c>
@@ -12710,7 +12751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1049</v>
       </c>
@@ -12718,7 +12759,7 @@
         <v>22</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D201" t="s">
         <v>1059</v>
@@ -12781,7 +12822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1049</v>
       </c>
@@ -12816,7 +12857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1049</v>
       </c>
@@ -12851,7 +12892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1049</v>
       </c>
@@ -12880,7 +12921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1049</v>
       </c>
@@ -12909,7 +12950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1049</v>
       </c>
@@ -12968,7 +13009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1049</v>
       </c>
@@ -12976,7 +13017,7 @@
         <v>21</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D207" t="s">
         <v>1096</v>
@@ -13027,7 +13068,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1049</v>
       </c>
@@ -13035,7 +13076,7 @@
         <v>22</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D208" t="s">
         <v>1106</v>
@@ -13074,7 +13115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1049</v>
       </c>
@@ -13082,7 +13123,7 @@
         <v>34</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D209" t="s">
         <v>1112</v>
@@ -13109,7 +13150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:28" ht="31" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1049</v>
       </c>
@@ -13138,7 +13179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1120</v>
       </c>
@@ -13167,7 +13208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:28" ht="31" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1120</v>
       </c>
@@ -13190,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:28" ht="31" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1120</v>
       </c>
@@ -13225,7 +13266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:28" ht="31" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1120</v>
       </c>
@@ -13248,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1120</v>
       </c>
@@ -13256,7 +13297,7 @@
         <v>21</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D215" t="s">
         <v>1132</v>
@@ -13310,7 +13351,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1120</v>
       </c>
@@ -13318,20 +13359,20 @@
         <v>34</v>
       </c>
       <c r="C216" s="10" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D216" t="s">
         <v>1305</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>1306</v>
       </c>
-      <c r="E216" t="s">
+      <c r="F216" t="s">
         <v>1307</v>
       </c>
-      <c r="F216" t="s">
+      <c r="G216" t="s">
         <v>1308</v>
       </c>
-      <c r="G216" t="s">
-        <v>1309</v>
-      </c>
       <c r="O216">
         <v>0</v>
       </c>
@@ -13345,7 +13386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:28" ht="31" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1120</v>
       </c>
@@ -13368,7 +13409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:28" ht="31" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1120</v>
       </c>
@@ -13376,14 +13417,14 @@
         <v>34</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D218" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E218" t="s">
         <v>1310</v>
       </c>
-      <c r="E218" t="s">
-        <v>1311</v>
-      </c>
       <c r="O218">
         <v>1</v>
       </c>
@@ -13391,7 +13432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1120</v>
       </c>
@@ -13429,7 +13470,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="220" spans="1:28" ht="31" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1120</v>
       </c>
@@ -13452,7 +13493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:28" ht="31" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1120</v>
       </c>
@@ -13475,7 +13516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1152</v>
       </c>
@@ -13510,7 +13551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1152</v>
       </c>
@@ -13551,7 +13592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1152</v>
       </c>
@@ -13559,7 +13600,7 @@
         <v>34</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D224" t="s">
         <v>1164</v>
@@ -13586,7 +13627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1152</v>
       </c>
@@ -13594,7 +13635,7 @@
         <v>34</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>1168</v>
@@ -13603,10 +13644,10 @@
         <v>1169</v>
       </c>
       <c r="F225" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G225" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="O225">
         <v>0</v>
@@ -13621,7 +13662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1152</v>
       </c>
@@ -13656,7 +13697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:35" ht="31" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1152</v>
       </c>
@@ -13664,7 +13705,7 @@
         <v>34</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D227" t="s">
         <v>1175</v>
@@ -13691,7 +13732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:35" ht="62" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:35" ht="48" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1152</v>
       </c>
@@ -13726,7 +13767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1152</v>
       </c>
@@ -13734,14 +13775,14 @@
         <v>34</v>
       </c>
       <c r="C229" s="14" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D229" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="D229" s="3" t="s">
+      <c r="E229" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="E229" s="3" t="s">
-        <v>1183</v>
-      </c>
       <c r="O229">
         <v>1</v>
       </c>
@@ -13749,7 +13790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:35" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1152</v>
       </c>
@@ -13757,7 +13798,7 @@
         <v>21</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D230">
         <v>250</v>
@@ -13778,16 +13819,16 @@
         <v>2</v>
       </c>
       <c r="Z230" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AA230" t="s">
         <v>1185</v>
       </c>
-      <c r="AA230" t="s">
+      <c r="AB230" t="s">
         <v>1186</v>
       </c>
-      <c r="AB230" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="231" spans="1:35" ht="93" x14ac:dyDescent="0.35">
+    </row>
+    <row r="231" spans="1:35" ht="80" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1152</v>
       </c>
@@ -13795,7 +13836,7 @@
         <v>21</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -13852,7 +13893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1152</v>
       </c>
@@ -13860,16 +13901,16 @@
         <v>21</v>
       </c>
       <c r="C232" s="10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D232" t="s">
         <v>1189</v>
       </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F232" t="s">
         <v>1190</v>
-      </c>
-      <c r="E232" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F232" t="s">
-        <v>1191</v>
       </c>
       <c r="O232">
         <v>2</v>
@@ -13881,16 +13922,16 @@
         <v>1</v>
       </c>
       <c r="Z232" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232" t="s">
         <v>1193</v>
       </c>
-      <c r="AA232">
-        <v>0</v>
-      </c>
-      <c r="AB232" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="233" spans="1:35" ht="77.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="233" spans="1:35" ht="64" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1152</v>
       </c>
@@ -13898,16 +13939,16 @@
         <v>21</v>
       </c>
       <c r="C233" s="10" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D233" t="s">
         <v>1195</v>
       </c>
-      <c r="D233" t="s">
+      <c r="E233" t="s">
         <v>1196</v>
       </c>
-      <c r="E233" t="s">
+      <c r="F233" t="s">
         <v>1197</v>
-      </c>
-      <c r="F233" t="s">
-        <v>1198</v>
       </c>
       <c r="O233">
         <v>1</v>
@@ -13919,16 +13960,16 @@
         <v>2</v>
       </c>
       <c r="Z233" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AA233" t="s">
         <v>1199</v>
       </c>
-      <c r="AA233" t="s">
+      <c r="AB233" t="s">
         <v>1200</v>
       </c>
-      <c r="AB233" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="234" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="234" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>1152</v>
       </c>
@@ -13936,10 +13977,10 @@
         <v>266</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="235" spans="1:35" x14ac:dyDescent="0.35">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="235" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1152</v>
       </c>
@@ -13947,16 +13988,16 @@
         <v>71</v>
       </c>
       <c r="C235" s="10" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D235" t="s">
         <v>1202</v>
       </c>
-      <c r="D235" t="s">
+      <c r="E235" t="s">
         <v>1203</v>
       </c>
-      <c r="E235" t="s">
+      <c r="F235" t="s">
         <v>1204</v>
-      </c>
-      <c r="F235" t="s">
-        <v>1205</v>
       </c>
       <c r="O235">
         <v>3</v>
@@ -13968,7 +14009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1152</v>
       </c>
@@ -13976,37 +14017,37 @@
         <v>72</v>
       </c>
       <c r="C236" s="10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D236" t="s">
         <v>1206</v>
       </c>
-      <c r="D236" t="s">
+      <c r="E236" t="s">
         <v>1207</v>
       </c>
-      <c r="E236" t="s">
+      <c r="F236" t="s">
         <v>1208</v>
       </c>
-      <c r="F236" t="s">
+      <c r="G236" t="s">
         <v>1209</v>
       </c>
-      <c r="G236" t="s">
+      <c r="H236" t="s">
         <v>1210</v>
       </c>
-      <c r="H236" t="s">
+      <c r="I236" t="s">
         <v>1211</v>
       </c>
-      <c r="I236" t="s">
+      <c r="J236" t="s">
         <v>1212</v>
       </c>
-      <c r="J236" t="s">
+      <c r="K236" t="s">
         <v>1213</v>
       </c>
-      <c r="K236" t="s">
+      <c r="L236" t="s">
         <v>1214</v>
       </c>
-      <c r="L236" t="s">
+      <c r="M236" t="s">
         <v>1215</v>
-      </c>
-      <c r="M236" t="s">
-        <v>1216</v>
       </c>
       <c r="O236">
         <v>8</v>
@@ -14039,109 +14080,199 @@
         <v>7</v>
       </c>
       <c r="Z236" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AA236" t="s">
         <v>1217</v>
       </c>
-      <c r="AA236" t="s">
+      <c r="AB236" t="s">
         <v>1218</v>
       </c>
-      <c r="AB236" t="s">
+      <c r="AC236" t="s">
         <v>1219</v>
       </c>
-      <c r="AC236" t="s">
+      <c r="AD236" t="s">
         <v>1220</v>
       </c>
-      <c r="AD236" t="s">
+      <c r="AE236" t="s">
         <v>1221</v>
       </c>
-      <c r="AE236" t="s">
+      <c r="AF236" t="s">
         <v>1222</v>
       </c>
-      <c r="AF236" t="s">
+      <c r="AG236" t="s">
         <v>1223</v>
       </c>
-      <c r="AG236" t="s">
+      <c r="AH236" t="s">
         <v>1224</v>
       </c>
-      <c r="AH236" t="s">
+      <c r="AI236" t="s">
         <v>1225</v>
       </c>
-      <c r="AI236" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="237" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="237" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="238" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B237" t="s">
+        <v>34</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="238" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="239" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B238" t="s">
+        <v>22</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="239" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="240" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B239" t="s">
+        <v>21</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="240" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B240" t="s">
+        <v>21</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B241" t="s">
+        <v>21</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B242" t="s">
+        <v>22</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B243" t="s">
+        <v>21</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B244" t="s">
+        <v>22</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B245" t="s">
+        <v>21</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B246" t="s">
+        <v>34</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B247" t="s">
+        <v>34</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B248" t="s">
+        <v>34</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B249" t="s">
+        <v>22</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B250" t="s">
+        <v>34</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>231</v>
+      </c>
+      <c r="B251" t="s">
+        <v>72</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
+++ b/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="1671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="1697">
   <si>
     <t>questionType</t>
   </si>
@@ -5040,6 +5040,84 @@
   </si>
   <si>
     <t>Gewichtete durchschnittliche Kapitalkosten</t>
+  </si>
+  <si>
+    <t>BWLÖkonomischesPrinzip</t>
+  </si>
+  <si>
+    <t>Das Minimalprinzip beschreibt den Vorgang, ein festgelegtes Ziel mit möglichst wenig Einsatz zu erreichen.</t>
+  </si>
+  <si>
+    <t>Beim Minimalprinzip ist der Input vorgegeben und der Output die zu suchende Größe.</t>
+  </si>
+  <si>
+    <t>Das Maximalprinzip beschreibt den Vorgang, mit festgelegtem Einsatz ein möglichst gutes Ziel zu erreichen.</t>
+  </si>
+  <si>
+    <t>Beim Maximalprinzip ist der Output vorgegeben und der Input die zu suchende Größe.</t>
+  </si>
+  <si>
+    <t>Um wirtschaftlich optimal zu handeln, sollten Einsatz und Ergebnis im optimalen Verhältnis zueinander stehen.</t>
+  </si>
+  <si>
+    <t>Für die Montage eines Autos (Output) sollen möglichst wenige Arbeitsstunden (Aufwand) anfallen.</t>
+  </si>
+  <si>
+    <t>Mit einem Hektar Ackerfläche soll ein möglichst hoher Output erzeugt werden.</t>
+  </si>
+  <si>
+    <t>Der geplante Umsatz eines Unternehmens in Höhe von zehn Millionen Euro soll mit möglichst wenigen Vertriebsmitarbeitern erzielt werden.</t>
+  </si>
+  <si>
+    <t>Ein Autofahrer hat eine definierte Menge an Benzin (Input) und versucht nun mit dieser Menge die größtmögliche Distanz zu fahren (Output).</t>
+  </si>
+  <si>
+    <t>Die Abschlussnote 2,5 soll mit möglichst wenig Lernaufwand erreicht werden.</t>
+  </si>
+  <si>
+    <t>Minimalprinzip</t>
+  </si>
+  <si>
+    <t>Maximalprinzip</t>
+  </si>
+  <si>
+    <t>Eine Nagelfeile wird verwendet, um einen Baum zu fällen.</t>
+  </si>
+  <si>
+    <t>Bei der Reise von Mannheim nach München wird ein direkter ICE gebucht.</t>
+  </si>
+  <si>
+    <t>Im Rahmen einer Kundenzufriedenheitsbefragung geht ein Mitarbeiter von Haus zu Haus und ermittelt die Zufriedenheit einzeln.</t>
+  </si>
+  <si>
+    <t>Um ein kleines Feuer zu löschen werden zwei Liter Champagner verwendet.</t>
+  </si>
+  <si>
+    <t>Ein Fahrrad wird nur mit einem Lappen und Wasser geputzt.</t>
+  </si>
+  <si>
+    <t>Effektivität</t>
+  </si>
+  <si>
+    <t>Effizienz</t>
+  </si>
+  <si>
+    <t>BWLBusinessModelCanvas</t>
+  </si>
+  <si>
+    <t>Die Produktion gehört zu den Key Activities eines Unternehmens.</t>
+  </si>
+  <si>
+    <t>Das Design eines Produktes zählt nicht zur Value Proposition.</t>
+  </si>
+  <si>
+    <t>Der Begriff Customer Segments bezeichnet die Einteilung des Markts in verschiedene Kundengruppen.</t>
+  </si>
+  <si>
+    <t>Der Lieferant ist ein Schlüsselpartner eines Unternehmens.</t>
+  </si>
+  <si>
+    <t>Ein Retailer ist ein Beispiel für einen Vertriebskanal.</t>
   </si>
 </sst>
 </file>
@@ -5490,10 +5568,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet 1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:BD314"/>
+  <dimension ref="A1:BD334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="AJ251" sqref="AJ251"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="O334" sqref="O334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18979,6 +19057,466 @@
       <c r="BC314" s="4"/>
       <c r="BD314" s="4"/>
     </row>
+    <row r="315" spans="1:56" ht="32" x14ac:dyDescent="0.2">
+      <c r="A315" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C315" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E315" t="s">
+        <v>273</v>
+      </c>
+      <c r="O315">
+        <v>1</v>
+      </c>
+      <c r="P315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A316" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C316" s="10" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E316" t="s">
+        <v>273</v>
+      </c>
+      <c r="O316">
+        <v>0</v>
+      </c>
+      <c r="P316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:56" ht="32" x14ac:dyDescent="0.2">
+      <c r="A317" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C317" s="10" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E317" t="s">
+        <v>273</v>
+      </c>
+      <c r="O317">
+        <v>1</v>
+      </c>
+      <c r="P317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A318" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C318" s="10" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E318" t="s">
+        <v>273</v>
+      </c>
+      <c r="O318">
+        <v>0</v>
+      </c>
+      <c r="P318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:56" ht="32" x14ac:dyDescent="0.2">
+      <c r="A319" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C319" s="10" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E319" t="s">
+        <v>273</v>
+      </c>
+      <c r="O319">
+        <v>1</v>
+      </c>
+      <c r="P319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:56" ht="32" x14ac:dyDescent="0.2">
+      <c r="A320" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C320" s="10" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1683</v>
+      </c>
+      <c r="O320">
+        <v>1</v>
+      </c>
+      <c r="P320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A321" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C321" s="10" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1683</v>
+      </c>
+      <c r="O321">
+        <v>0</v>
+      </c>
+      <c r="P321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A322" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C322" s="10" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1683</v>
+      </c>
+      <c r="O322">
+        <v>1</v>
+      </c>
+      <c r="P322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A323" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C323" s="10" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1683</v>
+      </c>
+      <c r="O323">
+        <v>0</v>
+      </c>
+      <c r="P323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A324" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C324" s="10" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1683</v>
+      </c>
+      <c r="O324">
+        <v>1</v>
+      </c>
+      <c r="P324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A325" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C325" s="10" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1690</v>
+      </c>
+      <c r="O325">
+        <v>1</v>
+      </c>
+      <c r="P325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A326" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C326" s="10" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1690</v>
+      </c>
+      <c r="O326">
+        <v>0</v>
+      </c>
+      <c r="P326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A327" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C327" s="10" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1690</v>
+      </c>
+      <c r="O327">
+        <v>1</v>
+      </c>
+      <c r="P327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A328" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C328" s="10" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E328" t="s">
+        <v>1690</v>
+      </c>
+      <c r="O328">
+        <v>1</v>
+      </c>
+      <c r="P328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A329" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C329" s="10" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1690</v>
+      </c>
+      <c r="O329">
+        <v>1</v>
+      </c>
+      <c r="P329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A330" s="5" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C330" s="10" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E330" t="s">
+        <v>273</v>
+      </c>
+      <c r="O330">
+        <v>1</v>
+      </c>
+      <c r="P330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A331" s="5" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C331" s="10" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E331" t="s">
+        <v>273</v>
+      </c>
+      <c r="O331">
+        <v>1</v>
+      </c>
+      <c r="P331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A332" s="5" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C332" s="10" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E332" t="s">
+        <v>273</v>
+      </c>
+      <c r="O332">
+        <v>0</v>
+      </c>
+      <c r="P332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A333" s="5" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C333" s="10" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E333" t="s">
+        <v>273</v>
+      </c>
+      <c r="O333">
+        <v>1</v>
+      </c>
+      <c r="P333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A334" s="5" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C334" s="10" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E334" t="s">
+        <v>273</v>
+      </c>
+      <c r="O334">
+        <v>1</v>
+      </c>
+      <c r="P334">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
+++ b/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="1697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="1698">
   <si>
     <t>questionType</t>
   </si>
@@ -5118,6 +5118,9 @@
   </si>
   <si>
     <t>Ein Retailer ist ein Beispiel für einen Vertriebskanal.</t>
+  </si>
+  <si>
+    <t>begründung</t>
   </si>
 </sst>
 </file>
@@ -5570,8 +5573,8 @@
   <sheetPr codeName="Sheet 1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:BD334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="O334" sqref="O334"/>
+    <sheetView tabSelected="1" topLeftCell="A708" workbookViewId="0">
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5582,7 +5585,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
@@ -5682,8 +5685,11 @@
       <c r="AI1" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AK1" s="6" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1601</v>
       </c>
@@ -5718,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1601</v>
       </c>
@@ -5753,7 +5759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1601</v>
       </c>
@@ -5806,7 +5812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1601</v>
       </c>
@@ -5841,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1601</v>
       </c>
@@ -5870,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1601</v>
       </c>
@@ -5899,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1601</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1601</v>
       </c>
@@ -5975,7 +5981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1601</v>
       </c>
@@ -6031,7 +6037,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1601</v>
       </c>
@@ -6090,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1601</v>
       </c>
@@ -6137,7 +6143,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1601</v>
       </c>
@@ -6166,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1601</v>
       </c>
@@ -6195,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1601</v>
       </c>
@@ -6230,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>1601</v>
       </c>

--- a/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
+++ b/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="520" windowWidth="26180" windowHeight="16080"/>
+    <workbookView xWindow="1780" yWindow="460" windowWidth="26180" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Kopie von convertcsv-1" sheetId="1" r:id="rId1"/>
@@ -6110,7 +6110,7 @@
   <sheetPr codeName="Sheet 1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:BH369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
       <selection activeCell="A121" sqref="A121:A135"/>
     </sheetView>
   </sheetViews>

--- a/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
+++ b/brillianideas/brillianIDEAS/quiz/quiz-questions-template (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="460" windowWidth="26180" windowHeight="16080"/>
+    <workbookView xWindow="1780" yWindow="460" windowWidth="26180" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Kopie von convertcsv-1" sheetId="1" r:id="rId1"/>
@@ -5661,7 +5661,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5688,6 +5688,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5728,7 +5736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5768,6 +5776,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6110,8 +6123,8 @@
   <sheetPr codeName="Sheet 1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:BH369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:A135"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -6122,7 +6135,7 @@
     <col min="4" max="4" width="11" customWidth="1" outlineLevel="1"/>
     <col min="5" max="29" width="10.83203125" customWidth="1" outlineLevel="1"/>
     <col min="30" max="40" width="10.83203125" customWidth="1" outlineLevel="2"/>
-    <col min="41" max="41" width="62.33203125" customWidth="1"/>
+    <col min="41" max="41" width="62.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -6243,7 +6256,7 @@
       <c r="AM1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="21" t="s">
         <v>1696</v>
       </c>
     </row>
@@ -6281,7 +6294,7 @@
       <c r="T2">
         <v>0</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AO2" s="14" t="s">
         <v>1698</v>
       </c>
     </row>
@@ -6319,7 +6332,7 @@
       <c r="T3">
         <v>1</v>
       </c>
-      <c r="AO3" s="10" t="s">
+      <c r="AO3" s="14" t="s">
         <v>1697</v>
       </c>
     </row>
@@ -6375,7 +6388,7 @@
       <c r="AE4" t="s">
         <v>45</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AO4" s="3" t="s">
         <v>1699</v>
       </c>
     </row>
@@ -6413,7 +6426,7 @@
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="AO5" s="10" t="s">
+      <c r="AO5" s="14" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -6445,7 +6458,7 @@
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="AO6" s="10" t="s">
+      <c r="AO6" s="14" t="s">
         <v>1701</v>
       </c>
     </row>
@@ -6477,7 +6490,7 @@
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="AO7" s="10" t="s">
+      <c r="AO7" s="14" t="s">
         <v>1702</v>
       </c>
     </row>
@@ -6515,7 +6528,7 @@
       <c r="T8">
         <v>1</v>
       </c>
-      <c r="AO8" s="10" t="s">
+      <c r="AO8" s="14" t="s">
         <v>1703</v>
       </c>
     </row>
@@ -6559,7 +6572,7 @@
       <c r="U9">
         <v>3</v>
       </c>
-      <c r="AO9" s="10" t="s">
+      <c r="AO9" s="14" t="s">
         <v>1704</v>
       </c>
     </row>
@@ -6618,7 +6631,7 @@
       <c r="AF10" t="s">
         <v>73</v>
       </c>
-      <c r="AO10" s="10" t="s">
+      <c r="AO10" s="14" t="s">
         <v>1705</v>
       </c>
     </row>
@@ -6680,7 +6693,7 @@
       <c r="X11">
         <v>0</v>
       </c>
-      <c r="AO11" s="10" t="s">
+      <c r="AO11" s="14" t="s">
         <v>1706</v>
       </c>
     </row>
@@ -6730,7 +6743,7 @@
       <c r="AE12" t="s">
         <v>95</v>
       </c>
-      <c r="AO12" s="10" t="s">
+      <c r="AO12" s="14" t="s">
         <v>1707</v>
       </c>
     </row>
@@ -6762,7 +6775,7 @@
       <c r="S13">
         <v>1</v>
       </c>
-      <c r="AO13" s="10" t="s">
+      <c r="AO13" s="14" t="s">
         <v>1708</v>
       </c>
     </row>
@@ -6794,7 +6807,7 @@
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="AO14" s="10" t="s">
+      <c r="AO14" s="14" t="s">
         <v>1709</v>
       </c>
     </row>
@@ -6832,7 +6845,7 @@
       <c r="T15">
         <v>0</v>
       </c>
-      <c r="AO15" s="10" t="s">
+      <c r="AO15" s="14" t="s">
         <v>1710</v>
       </c>
     </row>
@@ -6936,8 +6949,9 @@
       <c r="AM16" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO16" s="22"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>259</v>
       </c>
@@ -6978,7 +6992,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>259</v>
       </c>
@@ -7007,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>259</v>
       </c>
@@ -7063,7 +7077,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>259</v>
       </c>
@@ -7104,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>259</v>
       </c>
@@ -7150,8 +7164,9 @@
       <c r="V21" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO21" s="23"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>259</v>
       </c>
@@ -7198,7 +7213,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>259</v>
       </c>
@@ -7233,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>259</v>
       </c>
@@ -7286,7 +7301,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>259</v>
       </c>
@@ -7339,7 +7354,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>259</v>
       </c>
@@ -7395,7 +7410,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>259</v>
       </c>
@@ -7436,7 +7451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>259</v>
       </c>
@@ -7483,7 +7498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>259</v>
       </c>
@@ -7548,7 +7563,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>259</v>
       </c>
@@ -7583,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>259</v>
       </c>
@@ -7683,8 +7698,9 @@
       <c r="AM31" s="4" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO31" s="22"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1601</v>
       </c>
@@ -7731,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1601</v>
       </c>
@@ -7754,7 +7770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1601</v>
       </c>
@@ -7804,7 +7820,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1601</v>
       </c>
@@ -7839,7 +7855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1601</v>
       </c>
@@ -7862,7 +7878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1601</v>
       </c>
@@ -7885,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1601</v>
       </c>
@@ -7908,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1601</v>
       </c>
@@ -7931,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1601</v>
       </c>
@@ -7990,7 +8006,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1601</v>
       </c>
@@ -8024,8 +8040,9 @@
       <c r="AE41" s="4" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO41" s="22"/>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1601</v>
       </c>
@@ -8060,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1601</v>
       </c>
@@ -8083,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1601</v>
       </c>
@@ -8118,7 +8135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1601</v>
       </c>
@@ -8141,7 +8158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1601</v>
       </c>
@@ -8241,8 +8258,9 @@
       <c r="AM46" s="4" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO46" s="22"/>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>336</v>
       </c>
@@ -8289,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>336</v>
       </c>
@@ -8318,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>336</v>
       </c>
@@ -8353,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>336</v>
       </c>
@@ -8382,7 +8400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>336</v>
       </c>
@@ -8417,7 +8435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>336</v>
       </c>
@@ -8458,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>336</v>
       </c>
@@ -8487,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>336</v>
       </c>
@@ -8516,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>336</v>
       </c>
@@ -8587,7 +8605,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>336</v>
       </c>
@@ -8628,7 +8646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>336</v>
       </c>
@@ -8669,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>336</v>
       </c>
@@ -8704,7 +8722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>336</v>
       </c>
@@ -8733,7 +8751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>336</v>
       </c>
@@ -8780,7 +8798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>336</v>
       </c>
@@ -8880,8 +8898,9 @@
       <c r="AM61" s="4" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO61" s="22"/>
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>425</v>
       </c>
@@ -8940,7 +8959,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="63" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>425</v>
       </c>
@@ -9001,8 +9020,9 @@
       <c r="AG63" s="4" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO63" s="22"/>
+    </row>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>425</v>
       </c>
@@ -9049,7 +9069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>425</v>
       </c>
@@ -9090,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>425</v>
       </c>
@@ -9146,7 +9166,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>425</v>
       </c>
@@ -9187,7 +9207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>425</v>
       </c>
@@ -9243,7 +9263,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>425</v>
       </c>
@@ -9284,7 +9304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>425</v>
       </c>
@@ -9337,7 +9357,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>425</v>
       </c>
@@ -9366,7 +9386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>425</v>
       </c>
@@ -9404,7 +9424,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>425</v>
       </c>
@@ -9451,7 +9471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>425</v>
       </c>
@@ -9500,8 +9520,9 @@
       <c r="AG74" s="4" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO74" s="22"/>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>425</v>
       </c>
@@ -9530,7 +9551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>425</v>
       </c>
@@ -9630,8 +9651,9 @@
       <c r="AM76" s="4" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO76" s="22"/>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1329</v>
       </c>
@@ -9687,7 +9709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1329</v>
       </c>
@@ -9713,7 +9735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1329</v>
       </c>
@@ -9748,7 +9770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1329</v>
       </c>
@@ -10450,7 +10472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1602</v>
       </c>
@@ -10508,7 +10530,7 @@
       <c r="AG97" s="5"/>
       <c r="AH97" s="5"/>
     </row>
-    <row r="98" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:41" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1602</v>
       </c>
@@ -10561,7 +10583,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1602</v>
       </c>
@@ -10601,7 +10623,7 @@
       <c r="AG99" s="4"/>
       <c r="AH99" s="4"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1602</v>
       </c>
@@ -10648,7 +10670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1602</v>
       </c>
@@ -10722,7 +10744,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1602</v>
       </c>
@@ -10762,7 +10784,7 @@
       <c r="AG102" s="4"/>
       <c r="AH102" s="4"/>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1602</v>
       </c>
@@ -10803,7 +10825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1602</v>
       </c>
@@ -10859,7 +10881,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1602</v>
       </c>
@@ -10899,7 +10921,7 @@
       <c r="AG105" s="4"/>
       <c r="AH105" s="4"/>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1603</v>
       </c>
@@ -10939,7 +10961,7 @@
       <c r="AG106" s="4"/>
       <c r="AH106" s="4"/>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1603</v>
       </c>
@@ -10974,7 +10996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1603</v>
       </c>
@@ -10982,8 +11004,9 @@
         <v>263</v>
       </c>
       <c r="C108" s="11"/>
-    </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AO108" s="22"/>
+    </row>
+    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1603</v>
       </c>
@@ -11023,7 +11046,7 @@
       <c r="AG109" s="4"/>
       <c r="AH109" s="4"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1603</v>
       </c>
@@ -11052,7 +11075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1603</v>
       </c>
@@ -11092,7 +11115,7 @@
       <c r="AG111" s="4"/>
       <c r="AH111" s="4"/>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1603</v>
       </c>
@@ -12500,7 +12523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>1604</v>
       </c>
@@ -12541,7 +12564,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>1604</v>
       </c>
@@ -12581,7 +12604,7 @@
       <c r="AG146" s="4"/>
       <c r="AH146" s="4"/>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>1604</v>
       </c>
@@ -12649,7 +12672,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>1604</v>
       </c>
@@ -12684,7 +12707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>1604</v>
       </c>
@@ -12740,7 +12763,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>1604</v>
       </c>
@@ -12780,7 +12803,7 @@
       <c r="AG150" s="4"/>
       <c r="AH150" s="4"/>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>840</v>
       </c>
@@ -12836,7 +12859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:41" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="15" t="s">
         <v>840</v>
       </c>
@@ -12894,8 +12917,9 @@
       <c r="AE152" s="15" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AO152" s="24"/>
+    </row>
+    <row r="153" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>840</v>
       </c>
@@ -12936,7 +12960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>840</v>
       </c>
@@ -12965,7 +12989,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>840</v>
       </c>
@@ -13000,7 +13024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>840</v>
       </c>
@@ -13041,7 +13065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>840</v>
       </c>
@@ -13076,7 +13100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>840</v>
       </c>
@@ -13111,7 +13135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:34" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:41" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" s="15" t="s">
         <v>840</v>
       </c>
@@ -13157,8 +13181,9 @@
       <c r="V159" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AO159" s="24"/>
+    </row>
+    <row r="160" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>840</v>
       </c>
@@ -15412,7 +15437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:39" ht="32" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:41" ht="32" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1141</v>
       </c>
@@ -15447,7 +15472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1141</v>
       </c>
@@ -15482,7 +15507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:39" ht="32" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:41" ht="32" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1141</v>
       </c>
@@ -15517,7 +15542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:39" ht="48" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1141</v>
       </c>
@@ -15552,7 +15577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1141</v>
       </c>
@@ -15575,7 +15600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:39" ht="32" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:41" ht="32" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1141</v>
       </c>
@@ -15613,7 +15638,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="231" spans="1:39" ht="80" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1141</v>
       </c>
@@ -15678,7 +15703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1141</v>
       </c>
@@ -15716,7 +15741,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="233" spans="1:39" ht="64" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1141</v>
       </c>
@@ -15754,7 +15779,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="234" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>1141</v>
       </c>
@@ -15764,8 +15789,9 @@
       <c r="C234" s="11" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="235" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO234" s="22"/>
+    </row>
+    <row r="235" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1141</v>
       </c>
@@ -15794,7 +15820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>1141</v>
       </c>
@@ -15894,8 +15920,9 @@
       <c r="AM236" s="4" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="237" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO236" s="22"/>
+    </row>
+    <row r="237" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>229</v>
       </c>
@@ -15936,7 +15963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>229</v>
       </c>
@@ -15989,7 +16016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>229</v>
       </c>
@@ -16027,7 +16054,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="240" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>229</v>
       </c>
@@ -16605,6 +16632,7 @@
       <c r="AM251" s="4" t="s">
         <v>1669</v>
       </c>
+      <c r="AO251" s="22"/>
     </row>
     <row r="252" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A252" s="17" t="s">
@@ -16683,7 +16711,7 @@
       <c r="AL252" s="17"/>
       <c r="AM252" s="17"/>
       <c r="AN252" s="17"/>
-      <c r="AO252" s="17"/>
+      <c r="AO252" s="18"/>
       <c r="AP252" s="17"/>
       <c r="AQ252" s="17"/>
     </row>
@@ -16772,7 +16800,7 @@
       <c r="AL253" s="17"/>
       <c r="AM253" s="17"/>
       <c r="AN253" s="17"/>
-      <c r="AO253" s="17"/>
+      <c r="AO253" s="18"/>
       <c r="AP253" s="17"/>
       <c r="AQ253" s="17"/>
     </row>
@@ -16861,7 +16889,7 @@
       <c r="AL254" s="17"/>
       <c r="AM254" s="17"/>
       <c r="AN254" s="17"/>
-      <c r="AO254" s="17"/>
+      <c r="AO254" s="18"/>
       <c r="AP254" s="17"/>
       <c r="AQ254" s="17"/>
     </row>
@@ -16925,7 +16953,7 @@
       <c r="AL255" s="17"/>
       <c r="AM255" s="17"/>
       <c r="AN255" s="17"/>
-      <c r="AO255" s="17"/>
+      <c r="AO255" s="18"/>
       <c r="AP255" s="17"/>
       <c r="AQ255" s="17"/>
     </row>
@@ -16989,7 +17017,7 @@
       <c r="AL256" s="17"/>
       <c r="AM256" s="17"/>
       <c r="AN256" s="17"/>
-      <c r="AO256" s="17"/>
+      <c r="AO256" s="18"/>
       <c r="AP256" s="17"/>
       <c r="AQ256" s="17"/>
     </row>
@@ -17049,7 +17077,7 @@
       <c r="AL257" s="17"/>
       <c r="AM257" s="17"/>
       <c r="AN257" s="17"/>
-      <c r="AO257" s="17"/>
+      <c r="AO257" s="18"/>
       <c r="AP257" s="17"/>
       <c r="AQ257" s="17"/>
     </row>
@@ -17105,7 +17133,7 @@
       <c r="AL258" s="17"/>
       <c r="AM258" s="17"/>
       <c r="AN258" s="17"/>
-      <c r="AO258" s="17"/>
+      <c r="AO258" s="18"/>
       <c r="AP258" s="17"/>
       <c r="AQ258" s="17"/>
     </row>
@@ -17165,7 +17193,7 @@
       <c r="AL259" s="17"/>
       <c r="AM259" s="17"/>
       <c r="AN259" s="17"/>
-      <c r="AO259" s="17"/>
+      <c r="AO259" s="18"/>
       <c r="AP259" s="17"/>
       <c r="AQ259" s="17"/>
     </row>
@@ -17229,7 +17257,7 @@
       <c r="AL260" s="17"/>
       <c r="AM260" s="17"/>
       <c r="AN260" s="17"/>
-      <c r="AO260" s="17"/>
+      <c r="AO260" s="18"/>
       <c r="AP260" s="17"/>
       <c r="AQ260" s="17"/>
     </row>
@@ -17339,7 +17367,7 @@
       <c r="AL262" s="17"/>
       <c r="AM262" s="17"/>
       <c r="AN262" s="17"/>
-      <c r="AO262" s="17"/>
+      <c r="AO262" s="18"/>
       <c r="AP262" s="17"/>
       <c r="AQ262" s="17"/>
     </row>
@@ -17403,7 +17431,7 @@
       <c r="AL263" s="17"/>
       <c r="AM263" s="17"/>
       <c r="AN263" s="17"/>
-      <c r="AO263" s="17"/>
+      <c r="AO263" s="18"/>
       <c r="AP263" s="17"/>
       <c r="AQ263" s="17"/>
     </row>
@@ -17467,7 +17495,7 @@
       <c r="AL264" s="17"/>
       <c r="AM264" s="17"/>
       <c r="AN264" s="17"/>
-      <c r="AO264" s="17"/>
+      <c r="AO264" s="18"/>
       <c r="AP264" s="17"/>
       <c r="AQ264" s="17"/>
     </row>
@@ -17531,7 +17559,7 @@
       <c r="AL265" s="17"/>
       <c r="AM265" s="17"/>
       <c r="AN265" s="17"/>
-      <c r="AO265" s="17"/>
+      <c r="AO265" s="18"/>
       <c r="AP265" s="17"/>
       <c r="AQ265" s="17"/>
     </row>
@@ -17595,7 +17623,7 @@
       <c r="AL266" s="17"/>
       <c r="AM266" s="17"/>
       <c r="AN266" s="17"/>
-      <c r="AO266" s="17"/>
+      <c r="AO266" s="18"/>
       <c r="AP266" s="17"/>
       <c r="AQ266" s="17"/>
     </row>
@@ -17659,7 +17687,7 @@
       <c r="AL267" s="17"/>
       <c r="AM267" s="17"/>
       <c r="AN267" s="17"/>
-      <c r="AO267" s="17"/>
+      <c r="AO267" s="18"/>
       <c r="AP267" s="17"/>
       <c r="AQ267" s="17"/>
     </row>
@@ -17715,7 +17743,7 @@
       <c r="AL268" s="17"/>
       <c r="AM268" s="17"/>
       <c r="AN268" s="17"/>
-      <c r="AO268" s="17"/>
+      <c r="AO268" s="18"/>
       <c r="AP268" s="17"/>
       <c r="AQ268" s="17"/>
     </row>
@@ -17779,7 +17807,7 @@
       <c r="AL269" s="17"/>
       <c r="AM269" s="17"/>
       <c r="AN269" s="17"/>
-      <c r="AO269" s="17"/>
+      <c r="AO269" s="18"/>
       <c r="AP269" s="17"/>
       <c r="AQ269" s="17"/>
     </row>
@@ -17839,7 +17867,7 @@
       <c r="AL270" s="17"/>
       <c r="AM270" s="17"/>
       <c r="AN270" s="17"/>
-      <c r="AO270" s="17"/>
+      <c r="AO270" s="18"/>
       <c r="AP270" s="17"/>
       <c r="AQ270" s="17"/>
     </row>
@@ -18245,7 +18273,7 @@
       <c r="AL280" s="4"/>
       <c r="AM280" s="4"/>
       <c r="AN280" s="4"/>
-      <c r="AO280" s="4"/>
+      <c r="AO280" s="22"/>
       <c r="AP280" s="4"/>
       <c r="AQ280" s="4"/>
       <c r="AR280" s="4"/>
@@ -18433,7 +18461,7 @@
       <c r="AL285" s="4"/>
       <c r="AM285" s="4"/>
       <c r="AN285" s="4"/>
-      <c r="AO285" s="4"/>
+      <c r="AO285" s="22"/>
       <c r="AP285" s="4"/>
       <c r="AQ285" s="4"/>
       <c r="AR285" s="4"/>
@@ -18560,7 +18588,7 @@
       <c r="AL288" s="4"/>
       <c r="AM288" s="4"/>
       <c r="AN288" s="4"/>
-      <c r="AO288" s="4"/>
+      <c r="AO288" s="22"/>
       <c r="AP288" s="4"/>
       <c r="AQ288" s="4"/>
       <c r="AR288" s="4"/>
@@ -18725,7 +18753,7 @@
       <c r="AL292" s="4"/>
       <c r="AM292" s="4"/>
       <c r="AN292" s="4"/>
-      <c r="AO292" s="4"/>
+      <c r="AO292" s="22"/>
       <c r="AP292" s="4"/>
       <c r="AQ292" s="4"/>
       <c r="AR292" s="4"/>
@@ -18843,7 +18871,7 @@
       <c r="AL295" s="4"/>
       <c r="AM295" s="4"/>
       <c r="AN295" s="4"/>
-      <c r="AO295" s="4"/>
+      <c r="AO295" s="22"/>
       <c r="AP295" s="4"/>
       <c r="AQ295" s="4"/>
       <c r="AR295" s="4"/>
@@ -18979,7 +19007,7 @@
       <c r="AL298" s="4"/>
       <c r="AM298" s="4"/>
       <c r="AN298" s="4"/>
-      <c r="AO298" s="4"/>
+      <c r="AO298" s="22"/>
       <c r="AP298" s="4"/>
       <c r="AQ298" s="4"/>
       <c r="AR298" s="4"/>
@@ -19086,7 +19114,7 @@
       <c r="AL300" s="4"/>
       <c r="AM300" s="4"/>
       <c r="AN300" s="4"/>
-      <c r="AO300" s="4"/>
+      <c r="AO300" s="22"/>
       <c r="AP300" s="4"/>
       <c r="AQ300" s="4"/>
       <c r="AR300" s="4"/>
@@ -19168,7 +19196,7 @@
       <c r="AL301" s="5"/>
       <c r="AM301" s="5"/>
       <c r="AN301" s="5"/>
-      <c r="AO301" s="5"/>
+      <c r="AO301" s="25"/>
       <c r="AP301" s="5"/>
       <c r="AQ301" s="5"/>
       <c r="AR301" s="5"/>
@@ -19266,7 +19294,7 @@
       <c r="AL303" s="4"/>
       <c r="AM303" s="4"/>
       <c r="AN303" s="4"/>
-      <c r="AO303" s="4"/>
+      <c r="AO303" s="22"/>
       <c r="AP303" s="4"/>
       <c r="AQ303" s="4"/>
       <c r="AR303" s="4"/>
@@ -19396,7 +19424,7 @@
       <c r="AL306" s="4"/>
       <c r="AM306" s="4"/>
       <c r="AN306" s="4"/>
-      <c r="AO306" s="4"/>
+      <c r="AO306" s="22"/>
       <c r="AP306" s="4"/>
       <c r="AQ306" s="4"/>
       <c r="AR306" s="4"/>
@@ -19655,7 +19683,7 @@
       <c r="AL312" s="4"/>
       <c r="AM312" s="4"/>
       <c r="AN312" s="4"/>
-      <c r="AO312" s="4"/>
+      <c r="AO312" s="22"/>
       <c r="AP312" s="4"/>
       <c r="AQ312" s="4"/>
       <c r="AR312" s="4"/>
@@ -19750,7 +19778,7 @@
       <c r="AL314" s="4"/>
       <c r="AM314" s="4"/>
       <c r="AN314" s="4"/>
-      <c r="AO314" s="4"/>
+      <c r="AO314" s="22"/>
       <c r="AP314" s="4"/>
       <c r="AQ314" s="4"/>
       <c r="AR314" s="4"/>
@@ -20314,7 +20342,7 @@
       <c r="AK335" s="17"/>
       <c r="AL335" s="17"/>
       <c r="AM335" s="17"/>
-      <c r="AO335" s="17" t="s">
+      <c r="AO335" s="18" t="s">
         <v>1715</v>
       </c>
     </row>
@@ -20383,7 +20411,7 @@
       <c r="AK336" s="17"/>
       <c r="AL336" s="17"/>
       <c r="AM336" s="17"/>
-      <c r="AO336" s="17" t="s">
+      <c r="AO336" s="18" t="s">
         <v>1717</v>
       </c>
     </row>
@@ -20452,7 +20480,7 @@
       <c r="AK337" s="17"/>
       <c r="AL337" s="17"/>
       <c r="AM337" s="17"/>
-      <c r="AO337" s="17" t="s">
+      <c r="AO337" s="18" t="s">
         <v>1719</v>
       </c>
     </row>
@@ -20521,7 +20549,7 @@
       <c r="AK338" s="17"/>
       <c r="AL338" s="17"/>
       <c r="AM338" s="17"/>
-      <c r="AO338" s="17" t="s">
+      <c r="AO338" s="18" t="s">
         <v>1726</v>
       </c>
     </row>
@@ -20590,7 +20618,7 @@
       <c r="AK339" s="17"/>
       <c r="AL339" s="17"/>
       <c r="AM339" s="17"/>
-      <c r="AO339" s="17" t="s">
+      <c r="AO339" s="18" t="s">
         <v>1733</v>
       </c>
     </row>
@@ -20647,7 +20675,7 @@
       <c r="AK340" s="17"/>
       <c r="AL340" s="17"/>
       <c r="AM340" s="17"/>
-      <c r="AO340" s="17" t="s">
+      <c r="AO340" s="18" t="s">
         <v>1735</v>
       </c>
     </row>
@@ -20704,7 +20732,7 @@
       <c r="AK341" s="17"/>
       <c r="AL341" s="17"/>
       <c r="AM341" s="17"/>
-      <c r="AO341" s="17" t="s">
+      <c r="AO341" s="18" t="s">
         <v>1737</v>
       </c>
     </row>
@@ -20761,7 +20789,7 @@
       <c r="AK342" s="17"/>
       <c r="AL342" s="17"/>
       <c r="AM342" s="17"/>
-      <c r="AO342" s="17" t="s">
+      <c r="AO342" s="18" t="s">
         <v>1739</v>
       </c>
     </row>
@@ -20818,7 +20846,7 @@
       <c r="AK343" s="17"/>
       <c r="AL343" s="17"/>
       <c r="AM343" s="17"/>
-      <c r="AO343" s="17" t="s">
+      <c r="AO343" s="18" t="s">
         <v>1741</v>
       </c>
     </row>
@@ -20875,7 +20903,7 @@
       <c r="AK344" s="17"/>
       <c r="AL344" s="17"/>
       <c r="AM344" s="17"/>
-      <c r="AO344" s="17" t="s">
+      <c r="AO344" s="18" t="s">
         <v>1743</v>
       </c>
     </row>
@@ -20983,7 +21011,7 @@
       <c r="AK345" s="17"/>
       <c r="AL345" s="17"/>
       <c r="AM345" s="17"/>
-      <c r="AO345" s="17" t="s">
+      <c r="AO345" s="18" t="s">
         <v>1756</v>
       </c>
     </row>
@@ -21082,7 +21110,7 @@
       <c r="AK346" s="17"/>
       <c r="AL346" s="17"/>
       <c r="AM346" s="17"/>
-      <c r="AO346" s="17" t="s">
+      <c r="AO346" s="18" t="s">
         <v>1769</v>
       </c>
     </row>
@@ -21143,7 +21171,7 @@
       <c r="AK347" s="17"/>
       <c r="AL347" s="17"/>
       <c r="AM347" s="17"/>
-      <c r="AO347" s="17" t="s">
+      <c r="AO347" s="18" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -21208,7 +21236,7 @@
       <c r="AK348" s="17"/>
       <c r="AL348" s="17"/>
       <c r="AM348" s="17"/>
-      <c r="AO348" s="17" t="s">
+      <c r="AO348" s="18" t="s">
         <v>1779</v>
       </c>
     </row>
@@ -21273,7 +21301,7 @@
       <c r="AK349" s="17"/>
       <c r="AL349" s="17"/>
       <c r="AM349" s="17"/>
-      <c r="AO349" s="17" t="s">
+      <c r="AO349" s="18" t="s">
         <v>1785</v>
       </c>
     </row>
@@ -21338,7 +21366,7 @@
       <c r="AK350" s="17"/>
       <c r="AL350" s="17"/>
       <c r="AM350" s="17"/>
-      <c r="AO350" s="17" t="s">
+      <c r="AO350" s="18" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -21399,7 +21427,7 @@
       <c r="AK351" s="17"/>
       <c r="AL351" s="17"/>
       <c r="AM351" s="17"/>
-      <c r="AO351" s="17" t="s">
+      <c r="AO351" s="18" t="s">
         <v>1796</v>
       </c>
     </row>
@@ -21480,7 +21508,7 @@
       <c r="AK352" s="17"/>
       <c r="AL352" s="17"/>
       <c r="AM352" s="17"/>
-      <c r="AO352" s="17" t="s">
+      <c r="AO352" s="18" t="s">
         <v>1806</v>
       </c>
     </row>
@@ -21571,7 +21599,7 @@
       <c r="AL353" s="17"/>
       <c r="AM353" s="17"/>
       <c r="AN353" s="17"/>
-      <c r="AO353" s="17"/>
+      <c r="AO353" s="18"/>
       <c r="AP353" s="17"/>
       <c r="AQ353" s="17"/>
       <c r="AR353" s="17"/>
@@ -21659,7 +21687,7 @@
       <c r="AL354" s="17"/>
       <c r="AM354" s="17"/>
       <c r="AN354" s="17"/>
-      <c r="AO354" s="17"/>
+      <c r="AO354" s="18"/>
       <c r="AP354" s="17"/>
       <c r="AQ354" s="17"/>
       <c r="AR354" s="17"/>
@@ -21729,7 +21757,7 @@
       <c r="AL355" s="17"/>
       <c r="AM355" s="17"/>
       <c r="AN355" s="17"/>
-      <c r="AO355" s="17"/>
+      <c r="AO355" s="18"/>
       <c r="AP355" s="17"/>
       <c r="AQ355" s="17"/>
       <c r="AR355" s="17"/>
@@ -21799,7 +21827,7 @@
       <c r="AL356" s="17"/>
       <c r="AM356" s="17"/>
       <c r="AN356" s="17"/>
-      <c r="AO356" s="17"/>
+      <c r="AO356" s="18"/>
       <c r="AP356" s="17"/>
       <c r="AQ356" s="17"/>
       <c r="AR356" s="17"/>
@@ -21857,7 +21885,7 @@
       <c r="AL357" s="17"/>
       <c r="AM357" s="17"/>
       <c r="AN357" s="17"/>
-      <c r="AO357" s="17"/>
+      <c r="AO357" s="18"/>
       <c r="AP357" s="17"/>
       <c r="AQ357" s="17"/>
       <c r="AR357" s="17"/>
@@ -21915,7 +21943,7 @@
       <c r="AL358" s="17"/>
       <c r="AM358" s="17"/>
       <c r="AN358" s="17"/>
-      <c r="AO358" s="17"/>
+      <c r="AO358" s="18"/>
       <c r="AP358" s="17"/>
       <c r="AQ358" s="17"/>
       <c r="AR358" s="17"/>
@@ -21973,7 +22001,7 @@
       <c r="AL359" s="17"/>
       <c r="AM359" s="17"/>
       <c r="AN359" s="17"/>
-      <c r="AO359" s="17"/>
+      <c r="AO359" s="18"/>
       <c r="AP359" s="17"/>
       <c r="AQ359" s="17"/>
       <c r="AR359" s="17"/>
@@ -22031,7 +22059,7 @@
       <c r="AL360" s="17"/>
       <c r="AM360" s="17"/>
       <c r="AN360" s="17"/>
-      <c r="AO360" s="17"/>
+      <c r="AO360" s="18"/>
       <c r="AP360" s="17"/>
       <c r="AQ360" s="17"/>
       <c r="AR360" s="17"/>
@@ -22089,7 +22117,7 @@
       <c r="AL361" s="17"/>
       <c r="AM361" s="17"/>
       <c r="AN361" s="17"/>
-      <c r="AO361" s="17"/>
+      <c r="AO361" s="18"/>
       <c r="AP361" s="17"/>
       <c r="AQ361" s="17"/>
       <c r="AR361" s="17"/>
@@ -22175,7 +22203,7 @@
       <c r="AL362" s="17"/>
       <c r="AM362" s="17"/>
       <c r="AN362" s="17"/>
-      <c r="AO362" s="17"/>
+      <c r="AO362" s="18"/>
       <c r="AP362" s="17"/>
       <c r="AQ362" s="17"/>
       <c r="AR362" s="17"/>
@@ -22244,7 +22272,7 @@
       <c r="AL363" s="17"/>
       <c r="AM363" s="17"/>
       <c r="AN363" s="17"/>
-      <c r="AO363" s="17"/>
+      <c r="AO363" s="18"/>
       <c r="AP363" s="17"/>
       <c r="AQ363" s="17"/>
       <c r="AR363" s="17"/>
@@ -22317,7 +22345,7 @@
       <c r="AL364" s="17"/>
       <c r="AM364" s="17"/>
       <c r="AN364" s="17"/>
-      <c r="AO364" s="17"/>
+      <c r="AO364" s="18"/>
       <c r="AP364" s="17"/>
       <c r="AQ364" s="17"/>
       <c r="AR364" s="17"/>
@@ -22378,7 +22406,7 @@
       <c r="AL365" s="17"/>
       <c r="AM365" s="17"/>
       <c r="AN365" s="17"/>
-      <c r="AO365" s="17"/>
+      <c r="AO365" s="18"/>
       <c r="AP365" s="17"/>
       <c r="AQ365" s="17"/>
       <c r="AR365" s="17"/>
@@ -22439,7 +22467,7 @@
       <c r="AL366" s="17"/>
       <c r="AM366" s="17"/>
       <c r="AN366" s="17"/>
-      <c r="AO366" s="17"/>
+      <c r="AO366" s="18"/>
       <c r="AP366" s="17"/>
       <c r="AQ366" s="17"/>
       <c r="AR366" s="17"/>
@@ -22500,7 +22528,7 @@
       <c r="AL367" s="17"/>
       <c r="AM367" s="17"/>
       <c r="AN367" s="17"/>
-      <c r="AO367" s="17"/>
+      <c r="AO367" s="18"/>
       <c r="AP367" s="17"/>
       <c r="AQ367" s="17"/>
       <c r="AR367" s="17"/>
@@ -22561,7 +22589,7 @@
       <c r="AL368" s="17"/>
       <c r="AM368" s="17"/>
       <c r="AN368" s="17"/>
-      <c r="AO368" s="17"/>
+      <c r="AO368" s="18"/>
       <c r="AP368" s="17"/>
       <c r="AQ368" s="17"/>
       <c r="AR368" s="17"/>
@@ -22622,7 +22650,7 @@
       <c r="AL369" s="17"/>
       <c r="AM369" s="17"/>
       <c r="AN369" s="17"/>
-      <c r="AO369" s="17"/>
+      <c r="AO369" s="18"/>
       <c r="AP369" s="17"/>
       <c r="AQ369" s="17"/>
       <c r="AR369" s="17"/>
